--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.553</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.051</v>
+        <v>17.203</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2165858716.442</v>
+        <v>-0.128</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1246237.708</v>
+        <v>28.439</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.978</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.027</v>
+        <v>9.077999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1948352.775076861</v>
+        <v>24.21485346509046</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-2063187.354194004</v>
+        <v>24.22468542843269</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-768362.5936544101</v>
+        <v>24.24400252004298</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2550987.370783256</v>
+        <v>24.17604233482689</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1612881.092126825</v>
+        <v>24.2198566510862</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1376918.5274129</v>
+        <v>24.23133749917486</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-2451702.897811822</v>
+        <v>24.19049715099976</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-710922.9530087049</v>
+        <v>24.26210077441134</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7750.98507314075</v>
+        <v>24.27970168437162</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1163449.041427203</v>
+        <v>24.23787870407845</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-869087.2470988864</v>
+        <v>24.26185715891596</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-672392.2701944218</v>
+        <v>24.26469931987377</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-652288.9409410367</v>
+        <v>24.19852110268653</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-732600.2171206973</v>
+        <v>24.20645452127902</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>450784.2461439139</v>
+        <v>24.24582219785008</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1220902.489138176</v>
+        <v>24.23181327516765</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-232123.331998571</v>
+        <v>24.25889963839774</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>141622.5459302376</v>
+        <v>24.27899089920831</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1447419.057949678</v>
+        <v>24.17260973776304</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-876621.756005605</v>
+        <v>24.21136283493337</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-651957.91665099</v>
+        <v>24.22968692601704</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1584495.312708407</v>
+        <v>24.17140035863446</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-162695.2486578994</v>
+        <v>24.2701916946521</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-1562140.040126964</v>
+        <v>24.20415376476971</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-1093203.874458038</v>
+        <v>24.24343645723454</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-463217.8184489336</v>
+        <v>24.25562061459877</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-2204572.495718754</v>
+        <v>24.16989167413341</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-305112.1256662403</v>
+        <v>24.25821037049201</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-212203.7180501113</v>
+        <v>24.26600519232353</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-1926380.861726318</v>
+        <v>24.19233530766758</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>333825.3783532524</v>
+        <v>24.30677937643644</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>653536.256100787</v>
+        <v>24.31830572164914</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>366909.8617521897</v>
+        <v>24.32830532964081</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>615449.4447280952</v>
+        <v>24.3477814627426</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>758055.0089614978</v>
+        <v>24.34444430563122</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-286519.5789289557</v>
+        <v>24.21476542301574</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1118878.900248395</v>
+        <v>24.29074047473258</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1510074.815001847</v>
+        <v>24.31428795657964</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-650108.9250333947</v>
+        <v>24.22742376163198</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>413944.421027941</v>
+        <v>24.30402373619821</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>583996.424829699</v>
+        <v>24.32037362719637</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-1041041.983575961</v>
+        <v>24.18361259176237</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>252974.1402639421</v>
+        <v>24.29096062189982</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>470027.1648674145</v>
+        <v>24.31243690926479</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-1039611.359616497</v>
+        <v>24.19926577212542</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1374168.730786404</v>
+        <v>24.36649347118925</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-2623835.806891968</v>
+        <v>24.18942515842944</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-1958897.752469783</v>
+        <v>24.23122565418922</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-760262.2938999761</v>
+        <v>24.24930279417594</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-2535619.939550712</v>
+        <v>24.16464878795394</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-662531.6759147251</v>
+        <v>24.25406456082746</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-293001.706922257</v>
+        <v>24.26888275536877</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-1940320.433996349</v>
+        <v>24.18763820301492</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>240036.6388219145</v>
+        <v>24.30400524846635</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1082967.829102938</v>
+        <v>24.32239020031969</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>572408.9887858693</v>
+        <v>24.3273506111245</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>896632.2248210445</v>
+        <v>24.34215139450117</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1041115.337091703</v>
+        <v>24.34758266636218</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-1534733.3497289</v>
+        <v>24.18846783213581</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>300899.2352448016</v>
+        <v>24.27739128337163</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>814590.9926133098</v>
+        <v>24.30784108009432</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-970267.2858220461</v>
+        <v>24.20277640372449</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>155774.7675590923</v>
+        <v>24.28334371102971</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>506639.6902814713</v>
+        <v>24.3099609981248</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-1158193.389528358</v>
+        <v>24.16819702729888</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>-21898.20770384252</v>
+        <v>24.27860522448853</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>456905.9632829078</v>
+        <v>24.31228430550094</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-1113204.088980538</v>
+        <v>24.18763289436865</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1106086.694004612</v>
+        <v>24.35848921601957</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-3937924.76768705</v>
+        <v>24.19601951381028</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-3238420.096390148</v>
+        <v>24.22783455727742</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-994400.0349383648</v>
+        <v>24.25384995191084</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-3647956.746664918</v>
+        <v>24.18554811893141</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-1172995.432426877</v>
+        <v>24.25244397612051</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-163741.9439189914</v>
+        <v>24.275054053602</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-3798400.755583114</v>
+        <v>24.19664726799972</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>-483952.4405055388</v>
+        <v>24.28768221248881</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1253396.108939162</v>
+        <v>24.31430187540129</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-119534.4069529195</v>
+        <v>24.28627963346747</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>220294.018371429</v>
+        <v>24.30101950552347</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1002117.531979849</v>
+        <v>24.32120969157366</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-2416286.09540062</v>
+        <v>24.19333278893357</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>-230648.7069869335</v>
+        <v>24.25908743955716</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1312388.364429785</v>
+        <v>24.30519239125723</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-1773560.714666935</v>
+        <v>24.20472630781396</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>-188706.1243788706</v>
+        <v>24.26512610170903</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>628585.8141282084</v>
+        <v>24.29947250739288</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-1656162.694883764</v>
+        <v>24.18387849839746</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-340650.5013131286</v>
+        <v>24.26123834556212</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>607514.9725660415</v>
+        <v>24.3000719496953</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-1744068.426290408</v>
+        <v>24.18535851542672</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>815854.5994462674</v>
+        <v>24.31580423330634</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>199901.1716113359</v>
+        <v>24.3047239673525</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-34449.95243808128</v>
+        <v>24.25843439424145</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>480392.2178736741</v>
+        <v>24.31836233510876</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>579666.2033737504</v>
+        <v>24.32432687354542</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-652300.2929572924</v>
+        <v>24.19087246778867</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-145982.3533931157</v>
+        <v>24.26245277026611</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>107707.0635316182</v>
+        <v>24.29266845337198</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-788337.4464015106</v>
+        <v>24.23778908340597</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-158304.6794947915</v>
+        <v>24.28320529311518</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>590272.098113904</v>
+        <v>24.32457880980769</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-1381599.927534831</v>
+        <v>24.1577804579482</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-738539.1253648588</v>
+        <v>24.22510774454511</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-329709.6420303686</v>
+        <v>24.25543809355148</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1363510.665718892</v>
+        <v>24.16512036925642</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>61257.69257245638</v>
+        <v>24.30794287565551</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>998522.7102538947</v>
+        <v>24.36420943648021</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>143319.0754806621</v>
+        <v>24.32811612597417</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>750759.0485289977</v>
+        <v>24.40173160033769</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>929455.2700344317</v>
+        <v>24.43074747667382</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-628082.3950302505</v>
+        <v>24.17958363935055</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-19408.41290559439</v>
+        <v>24.309019548383</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>458567.048472291</v>
+        <v>24.36722922473371</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1765339.122398983</v>
+        <v>24.40079935887496</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>885450.8756099745</v>
+        <v>24.40700777643071</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1167763.881751225</v>
+        <v>24.45360811655838</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1262653.541930185</v>
+        <v>24.45487326548621</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-264730.3088459916</v>
+        <v>24.24617648111976</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1131566.497064412</v>
+        <v>24.43136243203055</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1153122.630654181</v>
+        <v>24.44705218425025</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-301757.1245399027</v>
+        <v>24.25257796138107</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>616366.8752914612</v>
+        <v>24.36244215309614</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>967995.4477303536</v>
+        <v>24.3875260688914</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-810631.3769383486</v>
+        <v>24.20106323087157</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>718864.9721560129</v>
+        <v>24.35875923082891</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>906830.4287206098</v>
+        <v>24.3780904685292</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-764669.8799889474</v>
+        <v>24.22421782302688</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1899726.262500922</v>
+        <v>24.45466289324045</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2205900.879879381</v>
+        <v>24.49620385095959</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1526798.958885629</v>
+        <v>24.56713427686653</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1708306.030126111</v>
+        <v>24.61672810208433</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1867497.155230028</v>
+        <v>24.63502838131583</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>62681.94183186736</v>
+        <v>24.29621363029879</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1526967.66128194</v>
+        <v>24.56752645508205</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1662462.502946346</v>
+        <v>24.59392877035123</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1981639.072419535</v>
+        <v>24.40400694571493</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>695571.0070000443</v>
+        <v>24.38711981056263</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>962731.783481271</v>
+        <v>24.42632727273478</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1314291.167065445</v>
+        <v>24.44262995558041</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-614945.41563967</v>
+        <v>24.20483983550195</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>984217.6656183517</v>
+        <v>24.40931363131277</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1099929.032697952</v>
+        <v>24.43719533341953</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-646395.2572009515</v>
+        <v>24.22398200922527</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>458615.8661006665</v>
+        <v>24.34162632374378</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>919588.1197333756</v>
+        <v>24.37466188219723</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-918535.6942612749</v>
+        <v>24.18502951120546</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>730738.5681057979</v>
+        <v>24.3505731601355</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>997390.1295330309</v>
+        <v>24.37989236580191</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-852665.8120075215</v>
+        <v>24.21265186741788</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1989526.67192546</v>
+        <v>24.45020057103256</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2445843.067759992</v>
+        <v>24.50022182631667</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1554935.725225991</v>
+        <v>24.56012513857637</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1765193.852023092</v>
+        <v>24.60145597390537</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2078554.589318782</v>
+        <v>24.63328214227257</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>-303511.7104049776</v>
+        <v>24.25796292108515</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1512057.086274042</v>
+        <v>24.55491290838211</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1700508.4174506</v>
+        <v>24.59198259824607</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>2323687.665804781</v>
+        <v>24.36630127486952</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>186508.7853143652</v>
+        <v>24.30190029446453</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>596883.7968353669</v>
+        <v>24.34387105762521</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>999691.7136914185</v>
+        <v>24.37856873040892</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-936791.5068615528</v>
+        <v>24.19291580493081</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1060691.66318945</v>
+        <v>24.34957355414343</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1341981.605488136</v>
+        <v>24.39441592273009</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-1181055.614913862</v>
+        <v>24.22931198103706</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>569102.3605653908</v>
+        <v>24.32036511589367</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1491729.422637739</v>
+        <v>24.3692069233168</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-1341187.945012686</v>
+        <v>24.20350636452001</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>680943.058444008</v>
+        <v>24.32487683624159</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1332736.407949473</v>
+        <v>24.36975254851174</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-1440237.698704077</v>
+        <v>24.21305811183549</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2151125.418525567</v>
+        <v>24.39838463706893</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3283462.57864125</v>
+        <v>24.46258919548623</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1716886.536349035</v>
+        <v>24.45184682996945</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2290227.012383847</v>
+        <v>24.50556889978369</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2698179.209033074</v>
+        <v>24.55951347990193</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-623855.1724858282</v>
+        <v>24.23609629954662</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1997782.991989197</v>
+        <v>24.46818838865232</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2362936.312576057</v>
+        <v>24.53643431974018</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-610232.7359732799</v>
+        <v>24.20490990397776</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-1201913.760749651</v>
+        <v>24.19686182536233</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-598414.7386482508</v>
+        <v>24.2200680589779</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-1412826.827612475</v>
+        <v>24.13265164275309</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-1508475.84265516</v>
+        <v>24.16646345902499</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-1453704.835986327</v>
+        <v>24.18080944861145</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-1238108.284795318</v>
+        <v>24.16107301573782</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-1206677.694084109</v>
+        <v>24.22309423543135</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-843547.9756097189</v>
+        <v>24.24674352206473</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-846204.053235178</v>
+        <v>24.1849649626527</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-569338.1448277532</v>
+        <v>24.21609923466776</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-507707.0988033226</v>
+        <v>24.22955923680492</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-285648.8285051737</v>
+        <v>24.17396516015178</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-812445.9111623878</v>
+        <v>24.15597347035633</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-786901.775443802</v>
+        <v>24.21223984666838</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-732106.6279630023</v>
+        <v>24.23503660409758</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-250453.3079073219</v>
+        <v>24.24492135828566</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>95055.06119117998</v>
+        <v>24.28465476519817</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-982303.4424637732</v>
+        <v>24.13128168509991</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-743997.552069539</v>
+        <v>24.15390844455222</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-592941.2832066617</v>
+        <v>24.19253819321754</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-918325.6884075976</v>
+        <v>24.13904835365068</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-397208.5773779221</v>
+        <v>24.22848682634734</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-539966.8902312461</v>
+        <v>24.19463645504513</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-764688.5154036435</v>
+        <v>24.22176685395718</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-428773.6225001281</v>
+        <v>24.23880403416114</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-1189489.462331479</v>
+        <v>24.12700520246565</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-729663.8847511302</v>
+        <v>24.2140035329697</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-665317.735268912</v>
+        <v>24.22695786307468</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-899568.0756005716</v>
+        <v>24.16657117956895</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-367685.0580895665</v>
+        <v>24.2797808453168</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>-177535.3108644845</v>
+        <v>24.29881896832421</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>-8996.079925948576</v>
+        <v>24.29949513893646</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>340439.5135566021</v>
+        <v>24.32833127351053</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>356135.403336087</v>
+        <v>24.3355518324904</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-29524.91266355256</v>
+        <v>24.20368367502384</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>314293.9757182342</v>
+        <v>24.26726814952025</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>61668.22704158926</v>
+        <v>24.30795469956376</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-450039.1287823435</v>
+        <v>24.23820963399981</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>87797.08261327576</v>
+        <v>24.30801659377861</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>391999.9516656397</v>
+        <v>24.34815584341435</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-666652.7607283115</v>
+        <v>24.15357985361474</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-64296.33528858301</v>
+        <v>24.25868479617267</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>291236.6672547981</v>
+        <v>24.30701752737047</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-543655.5144853641</v>
+        <v>24.18382639203993</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>540462.8047223864</v>
+        <v>24.35576223249634</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-1248196.642068959</v>
+        <v>24.17141827585107</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-1290883.062477974</v>
+        <v>24.20264295425275</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-713909.3166743945</v>
+        <v>24.22749772814839</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-1436843.438328173</v>
+        <v>24.11632686178686</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-931105.0667443614</v>
+        <v>24.20549821298487</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-744063.1262182295</v>
+        <v>24.22786261419104</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-1090860.345739508</v>
+        <v>24.15622007116034</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>-504824.2193043369</v>
+        <v>24.27302223865653</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>-43608.17341536588</v>
+        <v>24.30100012758493</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-84265.0721861148</v>
+        <v>24.29350627791335</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>312182.7386840331</v>
+        <v>24.31699949815534</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>329703.9518572573</v>
+        <v>24.33532348358771</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-601785.6539774761</v>
+        <v>24.16664885586747</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>17779.2742878647</v>
+        <v>24.24723812813598</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-136051.5250472811</v>
+        <v>24.29718085329141</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-770170.5237985317</v>
+        <v>24.20125704268428</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-255119.2387742321</v>
+        <v>24.27707465086501</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>234046.5521110939</v>
+        <v>24.33035600803417</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-904288.0219205712</v>
+        <v>24.129209931839</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-443732.8536016219</v>
+        <v>24.23899903099007</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>157458.0851158364</v>
+        <v>24.30318887315037</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-860601.9614760366</v>
+        <v>24.16381607297915</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-3279.052153656332</v>
+        <v>24.34166657876801</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-1832567.278227824</v>
+        <v>24.17314175596222</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-2077662.368728362</v>
+        <v>24.19499069079711</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-1094855.296396094</v>
+        <v>24.22823423548941</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-2123600.173085391</v>
+        <v>24.13972665465969</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-1504364.270470593</v>
+        <v>24.20435703810451</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-1155601.754080497</v>
+        <v>24.2346625848919</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-1975737.492474353</v>
+        <v>24.16279129024968</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-1247841.14715902</v>
+        <v>24.25230799685531</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-409212.5648824296</v>
+        <v>24.28863996629881</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-780767.5913177101</v>
+        <v>24.24103852415024</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-365820.6179449515</v>
+        <v>24.26138843435761</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-339066.0156789726</v>
+        <v>24.29706990134436</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-1038862.910927005</v>
+        <v>24.16197897267091</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-477539.2305113381</v>
+        <v>24.21840423953866</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-471419.5302057924</v>
+        <v>24.28493753814496</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-1144491.966770381</v>
+        <v>24.19600780476323</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-442550.442535496</v>
+        <v>24.25023013724363</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>363937.5612583327</v>
+        <v>24.3088722002801</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1172471.689042212</v>
+        <v>24.14587068031435</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-649062.4097000632</v>
+        <v>24.21884664437962</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>181326.5116242259</v>
+        <v>24.28499798535591</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-1083319.242838502</v>
+        <v>24.1557327119534</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-180891.9813926119</v>
+        <v>24.28851302319767</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-69336.08574482979</v>
+        <v>24.28989806033326</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-166624.3990345339</v>
+        <v>24.20116407440015</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>131258.169252502</v>
+        <v>24.28107030605259</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>375543.5618558486</v>
+        <v>24.3156914641426</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-517321.1018376867</v>
+        <v>24.15341196399149</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-226110.1322649984</v>
+        <v>24.20811263593619</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-70958.98216243609</v>
+        <v>24.27745233076385</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-421692.7565727228</v>
+        <v>24.25674182595591</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-113622.4376175098</v>
+        <v>24.2831776243339</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>136038.7810190888</v>
+        <v>24.34275158216268</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-906944.4823725895</v>
+        <v>24.13039521302474</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-670470.4536345183</v>
+        <v>24.18183108734183</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-536206.5261459392</v>
+        <v>24.22926730771135</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-760652.4795152427</v>
+        <v>24.15096212649013</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-185903.6501455565</v>
+        <v>24.28802681471007</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-4.69136141295931</v>
+        <v>24.36971975796358</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-133735.2662992106</v>
+        <v>24.30536376572578</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>177652.6221863708</v>
+        <v>24.39483951971808</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>257393.1159292918</v>
+        <v>24.4509316508619</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-327157.5411618068</v>
+        <v>24.17117162932542</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-117876.6139316175</v>
+        <v>24.27778158441782</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-34138.59731663928</v>
+        <v>24.37854476591822</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1008960.980665717</v>
+        <v>24.42231992344806</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>374013.5180333754</v>
+        <v>24.39570392392519</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>641053.2012408942</v>
+        <v>24.46438727268435</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>879189.9364987243</v>
+        <v>24.49601420167417</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-202635.3176042194</v>
+        <v>24.24090491266156</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>655296.5753320267</v>
+        <v>24.43309144386592</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>748125.504528205</v>
+        <v>24.4914280398584</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-67153.75399296422</v>
+        <v>24.29251047187329</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>363088.8661284002</v>
+        <v>24.3964294086201</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>562130.8973473238</v>
+        <v>24.44116900991439</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-459986.9901127009</v>
+        <v>24.20105483191674</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>178520.714237987</v>
+        <v>24.36059908358174</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>403074.7748800861</v>
+        <v>24.40074581959658</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-207024.0086407903</v>
+        <v>24.24332860791442</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>999960.2882510943</v>
+        <v>24.48566050787318</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>1102873.315523223</v>
+        <v>24.55485686536907</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>788396.0756253588</v>
+        <v>24.62155442946082</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>931957.2389607406</v>
+        <v>24.6860442867186</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1054209.591951879</v>
+        <v>24.73184897885053</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>235026.5495510144</v>
+        <v>24.3460223069802</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>916584.0500837724</v>
+        <v>24.62227681897167</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>970221.2171382179</v>
+        <v>24.69196987315743</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>916335.3505631437</v>
+        <v>24.42244693256966</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-3217.932162128051</v>
+        <v>24.36536659600378</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>340561.5345080157</v>
+        <v>24.42547424478086</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>796597.5705355697</v>
+        <v>24.47566965138415</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-474716.191492542</v>
+        <v>24.18464498435748</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>445301.7160992002</v>
+        <v>24.40182136467164</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>678086.0555101795</v>
+        <v>24.47570320339719</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-341921.5584003491</v>
+        <v>24.25157725940849</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>154354.8899110022</v>
+        <v>24.36648267533887</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>487798.1131221176</v>
+        <v>24.42182242797187</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-599259.7957858065</v>
+        <v>24.17682496014762</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>86366.38027573483</v>
+        <v>24.34717671899077</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>417883.2338185363</v>
+        <v>24.40075884493026</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-405118.8947701905</v>
+        <v>24.22412360888416</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>820680.4607729273</v>
+        <v>24.47696796946074</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>1149391.809357975</v>
+        <v>24.55734280616629</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>639137.3322815689</v>
+        <v>24.6078674566919</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>857395.4220554557</v>
+        <v>24.66292162469215</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1118090.935516308</v>
+        <v>24.72577639720216</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-15078.85044774656</v>
+        <v>24.29407375564265</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>826012.9516585831</v>
+        <v>24.60360473569471</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>977387.1519768405</v>
+        <v>24.68729778795449</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>1192876.685190096</v>
+        <v>24.37065233288953</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-358356.6661393637</v>
+        <v>24.25908761167832</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24008.97955398839</v>
+        <v>24.31739529987302</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>613530.9922019676</v>
+        <v>24.38739869678225</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-678879.3870742219</v>
+        <v>24.15854205511765</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>361095.9088798267</v>
+        <v>24.32196393341122</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>719820.9630150978</v>
+        <v>24.41028020346077</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-529230.1944890546</v>
+        <v>24.24083798836052</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>255397.6841862339</v>
+        <v>24.32764438849619</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>826807.8163325582</v>
+        <v>24.39878533353609</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-822322.8317683432</v>
+        <v>24.18691586279032</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>10981.90446282589</v>
+        <v>24.3084636614387</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>521482.4705966231</v>
+        <v>24.37706631706889</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-624026.2962596272</v>
+        <v>24.20874493924962</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>844376.5146321801</v>
+        <v>24.4034745851983</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1545072.877005983</v>
+        <v>24.49707096711673</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>503220.8750971685</v>
+        <v>24.46106326991197</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>928266.9221732758</v>
+        <v>24.52733123589293</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1358234.175720601</v>
+        <v>24.61528377767959</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-249343.58726128</v>
+        <v>24.2411512220402</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>901360.7498308566</v>
+        <v>24.47991124949067</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>1156502.613858589</v>
+        <v>24.59486688261118</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-896857.3392762155</v>
+        <v>24.22758231167342</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-377285.346401269</v>
+        <v>24.24578595090325</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-19574.41692349574</v>
+        <v>24.26607687409568</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1857095.566268115</v>
+        <v>24.16310930254104</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-1431708.815498308</v>
+        <v>24.21103873582671</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-1419265.670791042</v>
+        <v>24.22453908514545</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-1689491.176302825</v>
+        <v>24.18613560634746</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>-522340.9492010982</v>
+        <v>24.26408479687338</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>-131726.1546341343</v>
+        <v>24.28546912106006</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-351734.6465019797</v>
+        <v>24.24457015534832</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>163551.4725063562</v>
+        <v>24.27717595140669</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>295777.2690560492</v>
+        <v>24.28657898019208</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-1231083.63441736</v>
+        <v>24.18189550064012</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-585779.5512868569</v>
+        <v>24.22188095271215</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-831712.8307514258</v>
+        <v>24.25959062438369</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-853697.8302258063</v>
+        <v>24.23568901913851</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-126955.6113496895</v>
+        <v>24.27146611214832</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>207833.2831357655</v>
+        <v>24.30715493697635</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1203353.316489895</v>
+        <v>24.14995863738646</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-861286.4185013428</v>
+        <v>24.18889949450348</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-663024.016463435</v>
+        <v>24.22551328597953</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1118468.72131282</v>
+        <v>24.15686581058778</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-289410.7809502225</v>
+        <v>24.26046582237308</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-850996.3950328678</v>
+        <v>24.22263736381472</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>218089.1091943379</v>
+        <v>24.27398071802414</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>207082.1597935267</v>
+        <v>24.28774833199818</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-1460769.579703756</v>
+        <v>24.16363170552728</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-243258.9304717153</v>
+        <v>24.2597510020286</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-230978.9968880216</v>
+        <v>24.27082517664474</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-1251975.860599075</v>
+        <v>24.19564733630838</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>640984.6058851266</v>
+        <v>24.32050733563114</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>725602.8558258049</v>
+        <v>24.33674760629416</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>675921.5161672407</v>
+        <v>24.35143163622965</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1138626.61922045</v>
+        <v>24.38159148883262</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1010595.279366616</v>
+        <v>24.38461724491177</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-823316.8382001952</v>
+        <v>24.20887550368651</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>946767.0907074009</v>
+        <v>24.32552111683984</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>612437.1579918243</v>
+        <v>24.34739711269501</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-641656.201852739</v>
+        <v>24.23887437773778</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>307060.8752998991</v>
+        <v>24.32982859194114</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>551383.118434427</v>
+        <v>24.36442731929133</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-851149.5237212381</v>
+        <v>24.17099907019007</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>37237.07141995142</v>
+        <v>24.28396093312534</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>416122.5282053002</v>
+        <v>24.32758559687708</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-730851.0485013181</v>
+        <v>24.19677191014841</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>912915.6002687016</v>
+        <v>24.37499652036888</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-1537623.720277593</v>
+        <v>24.20319269164697</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-412703.6753223398</v>
+        <v>24.25677298652593</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-98506.91297738373</v>
+        <v>24.27732025917191</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-1573822.62191568</v>
+        <v>24.15517589218368</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-457472.0889901413</v>
+        <v>24.25205404505575</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-278933.9330347513</v>
+        <v>24.27125555632743</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-1261806.596170736</v>
+        <v>24.18756632237481</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>514501.8654952254</v>
+        <v>24.31421948982875</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>930259.758143533</v>
+        <v>24.33819210682921</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>680794.2806903051</v>
+        <v>24.34546787774713</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>1193818.274265246</v>
+        <v>24.3707640003619</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>965152.8118694328</v>
+        <v>24.38332138109267</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-1099799.794833665</v>
+        <v>24.17827102332</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>605628.4450129876</v>
+        <v>24.30734652295603</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>334104.4426936642</v>
+        <v>24.33730790808628</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-1036124.12395156</v>
+        <v>24.2069384641009</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-147482.9087937401</v>
+        <v>24.30159578039394</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>349161.0057382459</v>
+        <v>24.3475774113768</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1100212.224634304</v>
+        <v>24.14973321449499</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-422643.7965653017</v>
+        <v>24.26545990633507</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>273928.5607861011</v>
+        <v>24.32276337148006</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-1069646.81906585</v>
+        <v>24.17940450777166</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>250722.4321013633</v>
+        <v>24.36122559125748</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-2102638.365418156</v>
+        <v>24.20378806683935</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-1024518.663353684</v>
+        <v>24.24393505872192</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-189077.6874871027</v>
+        <v>24.2728963085215</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-2333344.657489734</v>
+        <v>24.17361328878988</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-1012756.369438228</v>
+        <v>24.24504860401434</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-500815.0418508175</v>
+        <v>24.27215572627022</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-2337307.172588579</v>
+        <v>24.19214369073597</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-174884.0108148608</v>
+        <v>24.28997006716274</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>874725.5213332347</v>
+        <v>24.32223356481725</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>155201.2835419235</v>
+        <v>24.29236948066166</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>707286.5465174176</v>
+        <v>24.31515061645751</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>691889.8770002507</v>
+        <v>24.34368826392923</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-1407913.34147902</v>
+        <v>24.17858255294671</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>449886.3336084822</v>
+        <v>24.27558141717845</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>221521.0616678193</v>
+        <v>24.32286455315784</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-1396820.082251821</v>
+        <v>24.20388208836444</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-388019.6777073834</v>
+        <v>24.27348387633315</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>581765.9979894549</v>
+        <v>24.32548613045132</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1394257.984535538</v>
+        <v>24.16395514978554</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-728935.5450194483</v>
+        <v>24.24282614504952</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>363431.8752395088</v>
+        <v>24.30284952120152</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1311863.520866838</v>
+        <v>24.17279438953682</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-44739.69554231867</v>
+        <v>24.30934376773257</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>114385.555704636</v>
+        <v>24.31528706885283</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-70941.58520606277</v>
+        <v>24.25200982228927</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>331286.8273208726</v>
+        <v>24.32871828227536</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>520987.1792865174</v>
+        <v>24.35239822490165</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-802749.4784670119</v>
+        <v>24.14775569169267</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-196593.0245059495</v>
+        <v>24.25855404536076</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-2245.236158828222</v>
+        <v>24.3106283167226</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-584802.5598667257</v>
+        <v>24.23479551020213</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-50334.19428585932</v>
+        <v>24.28664635399539</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>273535.2185515334</v>
+        <v>24.34126113161637</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1144038.225107177</v>
+        <v>24.12170086582368</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-794570.094885251</v>
+        <v>24.18687962468127</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-586674.3277397103</v>
+        <v>24.23375795193463</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-1024770.655597561</v>
+        <v>24.13900925475397</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>-280980.9354840568</v>
+        <v>24.2849574539087</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>174187.1436076105</v>
+        <v>24.35929832304935</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-134932.3826380823</v>
+        <v>24.30903011179432</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>341160.2958497188</v>
+        <v>24.39545781102627</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>469545.5762897606</v>
+        <v>24.44592830276525</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-640064.2476955197</v>
+        <v>24.1251231224246</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>-167567.5989715055</v>
+        <v>24.28639168550076</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>34526.82249554386</v>
+        <v>24.36914273254282</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1425651.234123917</v>
+        <v>24.43278990540642</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>650492.2596861966</v>
+        <v>24.42478477588604</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>941501.8580071323</v>
+        <v>24.49116846385108</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1098313.224491188</v>
+        <v>24.51075886133229</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-488381.6586053746</v>
+        <v>24.21915745339148</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>880404.6462966539</v>
+        <v>24.45644074037118</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>1015488.940276533</v>
+        <v>24.49662598473325</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-268806.8789253379</v>
+        <v>24.26428976117969</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>556977.5720769174</v>
+        <v>24.38695567860998</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>712653.4220896848</v>
+        <v>24.42710475931939</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-647467.2310111173</v>
+        <v>24.18259654807835</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>315013.8442366202</v>
+        <v>24.3444879515663</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>542700.0805394447</v>
+        <v>24.38352991641565</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-430891.477427813</v>
+        <v>24.21805487832503</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1248827.858139708</v>
+        <v>24.45870923164683</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1433475.062838208</v>
+        <v>24.5205933977996</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1041050.656843477</v>
+        <v>24.58472901761537</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1225091.296650506</v>
+        <v>24.64928376019981</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1339018.167032287</v>
+        <v>24.68952769406105</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-116026.7668191946</v>
+        <v>24.26878311191691</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1073552.016812363</v>
+        <v>24.58549350538425</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>1179961.210652594</v>
+        <v>24.63868057859948</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>1332892.378367955</v>
+        <v>24.43132396484914</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>272367.8667834288</v>
+        <v>24.39650294043381</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>626773.550894097</v>
+        <v>24.45517192849126</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1050015.836447291</v>
+        <v>24.49087848257172</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-742131.8615400869</v>
+        <v>24.17109182829535</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>654270.7322595087</v>
+        <v>24.42733485867571</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>945050.6860230563</v>
+        <v>24.48098239697834</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-644599.6577934793</v>
+        <v>24.22776573385439</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>241051.1181516367</v>
+        <v>24.35824156580327</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>571896.0983830793</v>
+        <v>24.40759737273569</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-836895.8285864973</v>
+        <v>24.1602328929509</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>144144.5368447961</v>
+        <v>24.33000014585431</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>523827.2936547807</v>
+        <v>24.38065742511229</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-682380.6438410478</v>
+        <v>24.20031159334138</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>991059.2814728555</v>
+        <v>24.44834893776501</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1454538.405247624</v>
+        <v>24.51992395308582</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>856868.0830112427</v>
+        <v>24.56941617680566</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1132951.863746331</v>
+        <v>24.62549499858513</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>1402033.43369765</v>
+        <v>24.68031472048803</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-387833.242082543</v>
+        <v>24.22325150230946</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>952356.0464558282</v>
+        <v>24.56580260833701</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1164261.264485788</v>
+        <v>24.63108502184091</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1741679.852413001</v>
+        <v>24.38199348054725</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-164935.9603537374</v>
+        <v>24.29709268995984</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>297009.9268270131</v>
+        <v>24.35456482208768</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>922509.0905716234</v>
+        <v>24.40916327902902</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-904673.4670331602</v>
+        <v>24.15660556387258</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>617288.4787910241</v>
+        <v>24.35276820855409</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1087156.08283652</v>
+        <v>24.42176969076773</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-946487.8637539204</v>
+        <v>24.22141998564034</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>154092.3308367322</v>
+        <v>24.32036833912395</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>947222.2591456424</v>
+        <v>24.38495250632856</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1207836.678424885</v>
+        <v>24.1706137108122</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-174143.9547062546</v>
+        <v>24.29226522638684</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>593566.8835749152</v>
+        <v>24.35705339063135</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-1113522.730553372</v>
+        <v>24.18948174885444</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>652475.1410796109</v>
+        <v>24.38021131191685</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1858976.040351755</v>
+        <v>24.46472948055249</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>536223.6686447562</v>
+        <v>24.43689111727805</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>1186977.667175621</v>
+        <v>24.50259693464851</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1690029.111567485</v>
+        <v>24.58013903413102</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-654939.647575472</v>
+        <v>24.18910532264174</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>970704.3694840336</v>
+        <v>24.45500120063024</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>1418487.38690893</v>
+        <v>24.55042976523814</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-2168590.582743558</v>
+        <v>24.24538519035061</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-1219778.829607774</v>
+        <v>24.2662703802748</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>257240.6023470561</v>
+        <v>24.281319252733</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-3248018.237511805</v>
+        <v>24.20598496216779</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1476701.225245877</v>
+        <v>24.25610080030858</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-1179616.743305886</v>
+        <v>24.26455507399018</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-3264954.048384508</v>
+        <v>24.22128543194053</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>670738.4300348668</v>
+        <v>24.29623142807147</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>1436442.826876153</v>
+        <v>24.31122619987261</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-509358.035057893</v>
+        <v>24.27961360103182</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>114889.8557289995</v>
+        <v>24.30495397212921</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>76405.55700769117</v>
+        <v>24.30696901011247</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1704305.477517436</v>
+        <v>24.22401867841539</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-541868.1543945263</v>
+        <v>24.25361348916401</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>468839.7083097799</v>
+        <v>24.28414093950125</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-1279234.235688011</v>
+        <v>24.23807997847274</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-121429.4679890057</v>
+        <v>24.27513410832828</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>331207.7036737594</v>
+        <v>24.29266257711867</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1726248.483358693</v>
+        <v>24.17576135229321</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1015513.374414574</v>
+        <v>24.22121158576225</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-881649.530114343</v>
+        <v>24.23733300308294</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1845618.723949443</v>
+        <v>24.17743368714515</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-124956.9255765706</v>
+        <v>24.27680664857152</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-1079812.661265407</v>
+        <v>24.24653675398564</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>940443.2318107212</v>
+        <v>24.29690146993776</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>1261715.075002938</v>
+        <v>24.30554576940837</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-2240180.576229041</v>
+        <v>24.21344939541855</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>1080050.902461786</v>
+        <v>24.30635074592211</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>1145949.337284936</v>
+        <v>24.3117366254991</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-2158873.324910843</v>
+        <v>24.23611466094479</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>2890344.996742339</v>
+        <v>24.35260181485114</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>2858118.80953124</v>
+        <v>24.36226749683727</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>2095486.10194798</v>
+        <v>24.38056752134197</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>2593135.460811584</v>
+        <v>24.40326703104216</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>2493219.798801234</v>
+        <v>24.39913215653499</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-612512.1723380776</v>
+        <v>24.2558899603243</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>2285563.862710796</v>
+        <v>24.35094700619484</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>2646812.042604875</v>
+        <v>24.36710834328917</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-719781.9115244546</v>
+        <v>24.2408113352755</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>743325.5109444819</v>
+        <v>24.32623618659604</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>712139.7207241736</v>
+        <v>24.34056912638156</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-1291842.359154824</v>
+        <v>24.19454463027974</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>439024.0469199353</v>
+        <v>24.30507128120554</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>559319.5964243438</v>
+        <v>24.32456038777348</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-1311907.481654735</v>
+        <v>24.21216701337749</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>1904162.054791878</v>
+        <v>24.37694937696942</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-2653188.844401085</v>
+        <v>24.23189464953442</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-218891.4120289694</v>
+        <v>24.28452722622676</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>687505.9486275417</v>
+        <v>24.29878739016335</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-2605286.583379082</v>
+        <v>24.20824293962037</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>707950.4538989617</v>
+        <v>24.30206086396113</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>1097396.311774112</v>
+        <v>24.31421645200179</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-2256722.007343331</v>
+        <v>24.23131737160736</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>2791845.392070596</v>
+        <v>24.34962780361144</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>3396741.785055606</v>
+        <v>24.36573255003047</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>2526227.037021298</v>
+        <v>24.37856790866444</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>2977824.894828919</v>
+        <v>24.39720048256213</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>2915024.841960012</v>
+        <v>24.40126327455487</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-1904745.609476456</v>
+        <v>24.23234028487691</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>1367502.583752837</v>
+        <v>24.33871414468455</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>1807326.348198294</v>
+        <v>24.3616505805693</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-1133945.149145988</v>
+        <v>24.21644401808386</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>446550.0359246301</v>
+        <v>24.30554618909386</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>618596.7648673197</v>
+        <v>24.32953423276635</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-1443198.933358781</v>
+        <v>24.17959266425047</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>43965.30175167962</v>
+        <v>24.29287377290133</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>543875.3683493278</v>
+        <v>24.32399270575088</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-1435382.258437029</v>
+        <v>24.20062266038003</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>1504426.12708854</v>
+        <v>24.3689008692201</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-4138153.128736635</v>
+        <v>24.22864142582816</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-1588963.778523283</v>
+        <v>24.26877798973324</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>651545.4451014192</v>
+        <v>24.29089811549455</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-3722094.388325602</v>
+        <v>24.21762854983168</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>285315.6054874215</v>
+        <v>24.2879402470694</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>1536351.799626505</v>
+        <v>24.30776305421836</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-4122624.167397629</v>
+        <v>24.2294877764032</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>2328062.74472267</v>
+        <v>24.32165324490722</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>4204630.232488675</v>
+        <v>24.34566189560137</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>2066402.939410031</v>
+        <v>24.32511311644007</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>2771515.117005147</v>
+        <v>24.34221498355718</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>3339246.990575447</v>
+        <v>24.36101580423191</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-2835964.519732426</v>
+        <v>24.22468246663589</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>653806.5315654351</v>
+        <v>24.30462689735788</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>2243957.177209736</v>
+        <v>24.34303859473138</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-2039583.225459436</v>
+        <v>24.21523543045798</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>2398.830487789964</v>
+        <v>24.28199960127187</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>878876.5681957831</v>
+        <v>24.31375491916802</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-1966754.758595968</v>
+        <v>24.19167193013033</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-296831.9363772345</v>
+        <v>24.27151318958674</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>852587.8597137524</v>
+        <v>24.30809117814511</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-2085834.371605251</v>
+        <v>24.19537827581771</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1130394.900141742</v>
+        <v>24.32333392654006</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>246708.9986745424</v>
+        <v>24.30904895426864</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-3983.963134502279</v>
+        <v>24.26720508248677</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>655850.5641446729</v>
+        <v>24.32668725882631</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>667033.2491988706</v>
+        <v>24.33536073243103</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-978966.9237481332</v>
+        <v>24.18180717837419</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-256254.2116592584</v>
+        <v>24.27154611365541</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>89629.26002704163</v>
+        <v>24.29967156696268</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-959067.0310823815</v>
+        <v>24.22765441229123</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-167557.5199783365</v>
+        <v>24.27671659436916</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>652662.1456424249</v>
+        <v>24.31466554602338</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-1690480.573444363</v>
+        <v>24.14564551747246</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-994577.0534053666</v>
+        <v>24.21170367037894</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-615211.9926204376</v>
+        <v>24.24045262579206</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-1706573.958825265</v>
+        <v>24.15312055279635</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-269031.9671704096</v>
+        <v>24.28686773500826</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>894464.0380561566</v>
+        <v>24.34020921771422</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-38918.45064603252</v>
+        <v>24.30483488144979</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>833750.7459453549</v>
+        <v>24.37356171216236</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>1068593.588681675</v>
+        <v>24.40510251924634</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-1032549.290759024</v>
+        <v>24.14951326785167</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>-293049.9181404386</v>
+        <v>24.28169950723203</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>360790.4043491203</v>
+        <v>24.3387434443853</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>2158486.653907749</v>
+        <v>24.40929145541911</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1338292.599700844</v>
+        <v>24.4176866598681</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1647694.344442289</v>
+        <v>24.46710293643747</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1617609.466114866</v>
+        <v>24.47094072879437</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>-437686.7010010493</v>
+        <v>24.24535253088402</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>1520784.552958274</v>
+        <v>24.44275977893763</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>1543292.583191971</v>
+        <v>24.45803924134401</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>-375516.6453476219</v>
+        <v>24.24822359673521</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>882198.0140669481</v>
+        <v>24.35894135137973</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1182556.875590143</v>
+        <v>24.38276247974029</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>-1023100.834144269</v>
+        <v>24.19371530250327</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>850944.3268032034</v>
+        <v>24.34411419791229</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>1029841.387423713</v>
+        <v>24.36404183457848</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>-1011959.236933625</v>
+        <v>24.21627908485119</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>2196416.324240294</v>
+        <v>24.432509603987</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>2619413.614743689</v>
+        <v>24.47328906356155</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1870012.004946999</v>
+        <v>24.53705375295887</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>2124743.220497973</v>
+        <v>24.58590246410451</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>2281614.236803574</v>
+        <v>24.60733011684303</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>-216474.4731262053</v>
+        <v>24.26865575220627</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1775289.219908377</v>
+        <v>24.53337392116175</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>1996122.431621222</v>
+        <v>24.56276175959026</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>2446604.209466788</v>
+        <v>24.41170222455964</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>1050617.272953085</v>
+        <v>24.39812487575006</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>1325085.618451551</v>
+        <v>24.44110862209769</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>1719894.305785511</v>
+        <v>24.4588127042608</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-813086.2095093736</v>
+        <v>24.208029117554</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>1298090.209416681</v>
+        <v>24.4225227049939</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>1488850.892127947</v>
+        <v>24.44936224577452</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>-905535.714375605</v>
+        <v>24.22021228023555</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>539199.8267996988</v>
+        <v>24.33815102068471</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>1051642.902763684</v>
+        <v>24.36964897705128</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-1212085.243301293</v>
+        <v>24.17802836435501</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>740029.2223364608</v>
+        <v>24.33557867602459</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1102490.559036724</v>
+        <v>24.36526777679504</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-1234534.881751678</v>
+        <v>24.20472032633334</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>2087396.36086962</v>
+        <v>24.42771648627734</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>2855476.906173419</v>
+        <v>24.47660180479381</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1818356.781848347</v>
+        <v>24.52895652827908</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>2081001.66606853</v>
+        <v>24.57065817049054</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>2496880.341613646</v>
+        <v>24.60459992864945</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>-671510.8329705507</v>
+        <v>24.23401733977786</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1586706.528754641</v>
+        <v>24.52168621187997</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1976929.296369864</v>
+        <v>24.56137153679477</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>3006621.268410323</v>
+        <v>24.37119162996482</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>272265.790977906</v>
+        <v>24.31190803386674</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>752157.9507978177</v>
+        <v>24.35538734038715</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>1356620.317531935</v>
+        <v>24.39127142103964</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-1181989.826442364</v>
+        <v>24.19338090599192</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>1310825.495538311</v>
+        <v>24.35814832947802</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1828267.862566858</v>
+        <v>24.40134803444153</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-1654866.990007039</v>
+        <v>24.2214475034672</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>359647.3539136455</v>
+        <v>24.31169615229273</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1676403.275167592</v>
+        <v>24.35801426805794</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-1853377.674685235</v>
+        <v>24.19194666121456</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>340521.3723017615</v>
+        <v>24.30666087055431</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>1384638.423840133</v>
+        <v>24.35078316769606</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-2110356.971511946</v>
+        <v>24.20146670203876</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1632452.32962751</v>
+        <v>24.37404466111384</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>3649723.799683924</v>
+        <v>24.43602067937521</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1484893.678517727</v>
+        <v>24.42134194214057</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>2353124.040250789</v>
+        <v>24.47260010422991</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>3175903.056040679</v>
+        <v>24.52799901195985</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-1192067.043127909</v>
+        <v>24.2096540314146</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>1689196.111262765</v>
+        <v>24.43332738302271</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>2634454.744725491</v>
+        <v>24.50145153220097</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-921227.5116841207</v>
+        <v>24.26213229647168</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-1129056.867800203</v>
+        <v>24.27143078294067</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>467565.240215762</v>
+        <v>24.28539462048118</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-1932852.391098203</v>
+        <v>24.23683610350414</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-394439.9074125866</v>
+        <v>24.28075812230217</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-131025.4665316827</v>
+        <v>24.28808194868479</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-1698710.495141964</v>
+        <v>24.24452884890973</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>1164103.155343075</v>
+        <v>24.30878901469572</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>1744882.107980704</v>
+        <v>24.32303119385731</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-627200.9763685123</v>
+        <v>24.28709093586509</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-226150.690711714</v>
+        <v>24.30973813356678</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-294261.4029297736</v>
+        <v>24.31657108217309</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-34234.90268902791</v>
+        <v>24.2640176944186</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-683942.5920712946</v>
+        <v>24.26524044265884</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>596260.5457675372</v>
+        <v>24.30275606835601</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-915192.9144576965</v>
+        <v>24.25144602529864</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-255617.391077733</v>
+        <v>24.27306888736124</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>328430.5929943658</v>
+        <v>24.29241917250964</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-841612.0615302983</v>
+        <v>24.20728780053775</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-459135.3919039695</v>
+        <v>24.24140594656113</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-353728.8332452876</v>
+        <v>24.25927197936009</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-1406965.185467181</v>
+        <v>24.19136043401289</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-340447.2739673975</v>
+        <v>24.27577262136594</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-331222.7968938538</v>
+        <v>24.26334364721492</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>128202.7578131843</v>
+        <v>24.30145144423685</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>830319.5178877698</v>
+        <v>24.30992595364142</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-1514223.548149958</v>
+        <v>24.24468885145552</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>1096636.185513885</v>
+        <v>24.33134389289339</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>1084986.081223651</v>
+        <v>24.33685432571371</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>-1264831.150566714</v>
+        <v>24.25957440427122</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>2104418.336264676</v>
+        <v>24.3650477349149</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2233888.923031607</v>
+        <v>24.37498993047895</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1689000.529439549</v>
+        <v>24.39003863814873</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>2069725.03154434</v>
+        <v>24.4105764591013</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>1994883.232942799</v>
+        <v>24.41210200195124</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>686882.1768461709</v>
+        <v>24.30071373865015</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>1653522.439550548</v>
+        <v>24.36578604703967</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>2032659.431196909</v>
+        <v>24.39033616586571</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>-440040.1307229959</v>
+        <v>24.255045554637</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>280831.9340740194</v>
+        <v>24.3242946232699</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>497441.0607266843</v>
+        <v>24.34216498869544</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-611707.8314885822</v>
+        <v>24.22840465835842</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>417597.7851227461</v>
+        <v>24.32744779623086</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>617854.7968588501</v>
+        <v>24.35092695927218</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-982675.6006785883</v>
+        <v>24.22800831991333</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>1103090.077691134</v>
+        <v>24.37753697260486</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-1767114.08898267</v>
+        <v>24.24745610732996</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-702103.1433072899</v>
+        <v>24.28865537046753</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>421588.7247424395</v>
+        <v>24.30300207015656</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-1970241.618345199</v>
+        <v>24.23798439919844</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>917225.6835781451</v>
+        <v>24.32615642106877</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>1101431.894342113</v>
+        <v>24.33876784192015</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-1540165.181192906</v>
+        <v>24.25354468583939</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>2190652.704134578</v>
+        <v>24.36171503489075</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>2833554.173033993</v>
+        <v>24.37837558067061</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>1951472.275713276</v>
+        <v>24.38755493119178</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>2304372.761989417</v>
+        <v>24.40409594329476</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>2306763.974539285</v>
+        <v>24.41411052902319</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-770382.2296121271</v>
+        <v>24.27496788190535</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>1029027.835882078</v>
+        <v>24.35299795608658</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>1566891.048249976</v>
+        <v>24.38455742836177</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-741426.4985606745</v>
+        <v>24.22951525572428</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>141989.3818324761</v>
+        <v>24.30350039286564</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>462308.3806630966</v>
+        <v>24.33137466173092</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-771800.8099884419</v>
+        <v>24.21194110554098</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>114810.7319825144</v>
+        <v>24.3145777214154</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>584255.3828804815</v>
+        <v>24.35017868091867</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-1143013.848177035</v>
+        <v>24.21560991839597</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>777855.8811534927</v>
+        <v>24.3697895602705</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-3139542.503458494</v>
+        <v>24.24121465244738</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-2031895.152236613</v>
+        <v>24.27256391336075</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>181130.9551584875</v>
+        <v>24.29410966175951</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-2832016.685503263</v>
+        <v>24.24342214031557</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>857487.8171070229</v>
+        <v>24.30973857360594</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>1573478.456571496</v>
+        <v>24.32919964589176</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-3039924.154855973</v>
+        <v>24.24858547998548</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>2165351.258902271</v>
+        <v>24.33297327706062</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>3498315.995288419</v>
+        <v>24.35678850089534</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1688101.270858509</v>
+        <v>24.33219811063081</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>2099936.56182151</v>
+        <v>24.34680470881064</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>2491362.036690556</v>
+        <v>24.37089592813265</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-1632540.60968207</v>
+        <v>24.25875098743796</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>207706.9514836599</v>
+        <v>24.31605941663774</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>1925712.504073818</v>
+        <v>24.3615358625833</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-1573597.706191516</v>
+        <v>24.22761263394501</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-152475.9880598217</v>
+        <v>24.28278228985861</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>669453.4129659126</v>
+        <v>24.31694560933733</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-1043837.489076213</v>
+        <v>24.2217603428428</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>136459.307156013</v>
+        <v>24.2936049411739</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>995371.9159750608</v>
+        <v>24.33300879582941</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-1730590.943883293</v>
+        <v>24.20999716653549</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>667910.9424420772</v>
+        <v>24.32707807669684</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-40840.5049597069</v>
+        <v>24.31126282116618</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-227623.8459161946</v>
+        <v>24.25558483731983</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>314292.251216864</v>
+        <v>24.31308083517983</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>401548.1408389852</v>
+        <v>24.33280374209052</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-661580.8809441144</v>
+        <v>24.20801395479372</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-394571.1091122329</v>
+        <v>24.26193445717229</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-78880.08439704092</v>
+        <v>24.30005301276637</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-630914.6410380496</v>
+        <v>24.25327106718045</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-144510.3329295647</v>
+        <v>24.28509044799322</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>473315.0457324786</v>
+        <v>24.3215821959051</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-806729.535354821</v>
+        <v>24.19569662071828</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-358612.4162443404</v>
+        <v>24.24897047307773</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-176415.6204742716</v>
+        <v>24.2754730374424</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-1111268.298280373</v>
+        <v>24.18610389191647</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>10845.63257713179</v>
+        <v>24.30412605184662</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>657602.3699123581</v>
+        <v>24.35733081111012</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-36225.74070365122</v>
+        <v>24.31717751110514</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>540872.4477986223</v>
+        <v>24.38188263208196</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>737196.699989557</v>
+        <v>24.41835902480425</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-553085.0231645587</v>
+        <v>24.20275483704756</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-139591.5177920551</v>
+        <v>24.29323838344722</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>224223.3872823351</v>
+        <v>24.35714820584782</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>1468352.208653912</v>
+        <v>24.41512072650461</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>835248.7750145252</v>
+        <v>24.40975984864713</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>1147405.772312342</v>
+        <v>24.45781118073283</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>1200643.219328181</v>
+        <v>24.47426466675837</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-105893.1418800108</v>
+        <v>24.27940891217321</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>1085395.669838339</v>
+        <v>24.43933939731026</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>1150548.76083958</v>
+        <v>24.46671806754248</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>-29535.9594617814</v>
+        <v>24.27760523842702</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>602754.5905765408</v>
+        <v>24.37023972638229</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>909949.1856238608</v>
+        <v>24.39396894085739</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>-383326.7631273525</v>
+        <v>24.24927256553693</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>767564.0982401648</v>
+        <v>24.38670273283214</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>906605.0653003245</v>
+        <v>24.4062478307287</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>-587909.6902813745</v>
+        <v>24.25446446266159</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1726931.409041996</v>
+        <v>24.45474574343583</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>1971530.133401779</v>
+        <v>24.49695610520604</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>1511799.060425202</v>
+        <v>24.55867664430876</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>1646119.133745312</v>
+        <v>24.60332535638063</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>1803338.644029543</v>
+        <v>24.63090293124614</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>307867.3571035856</v>
+        <v>24.33516845323102</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1500649.243059204</v>
+        <v>24.55598042387551</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1631659.16850097</v>
+        <v>24.59418584372476</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>1701508.253616684</v>
+        <v>24.41819527501319</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>493895.9455958037</v>
+        <v>24.39004866642952</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>803956.0324954095</v>
+        <v>24.43167010559641</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>1227112.125265019</v>
+        <v>24.46234335374217</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-442837.1228768559</v>
+        <v>24.24024976000207</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>891279.196210286</v>
+        <v>24.41942667246172</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>1124356.535047623</v>
+        <v>24.4587151184902</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-399224.2456012875</v>
+        <v>24.24912632390132</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>437463.1914645876</v>
+        <v>24.35030559080044</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>867897.217828078</v>
+        <v>24.38209529543475</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-497065.3553576223</v>
+        <v>24.23273279449389</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>802155.1687895078</v>
+        <v>24.37843250724907</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>1012063.688942918</v>
+        <v>24.4082617202614</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-749653.0886404515</v>
+        <v>24.24267005793288</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>1731638.233410271</v>
+        <v>24.45113044515504</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>2214400.708965203</v>
+        <v>24.50183326102286</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>1438242.232894517</v>
+        <v>24.55163221076986</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1598900.277860054</v>
+        <v>24.58915514064476</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>1982476.657747679</v>
+        <v>24.62976398757316</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-61905.21069796861</v>
+        <v>24.2993858746343</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>1355941.232696844</v>
+        <v>24.54573280545225</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>1645958.930814438</v>
+        <v>24.59468429417648</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>2119806.660161519</v>
+        <v>24.37876180768174</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-129977.5461112481</v>
+        <v>24.30627693344069</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>249758.3197694544</v>
+        <v>24.34768169454417</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>886283.2607315562</v>
+        <v>24.39499188767386</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-875755.3370964503</v>
+        <v>24.21973917730136</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>808734.5052629963</v>
+        <v>24.35650970056977</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>1314374.240728576</v>
+        <v>24.40985990063255</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-954350.02141979</v>
+        <v>24.24746532551513</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>545452.5657815716</v>
+        <v>24.32514653805299</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>1408932.698362498</v>
+        <v>24.37076921145108</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-725249.3403310028</v>
+        <v>24.24159968203745</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>934001.3384391782</v>
+        <v>24.34776653461788</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>1478881.091284822</v>
+        <v>24.39091590187245</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-1276821.647586125</v>
+        <v>24.23609399104465</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>1839721.274625656</v>
+        <v>24.39781981311967</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>2955151.005637994</v>
+        <v>24.46039246060868</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>1454041.131360431</v>
+        <v>24.44230607691131</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>1829754.159314961</v>
+        <v>24.48962108466804</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>2602141.180278248</v>
+        <v>24.55095071538628</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-507251.3781794286</v>
+        <v>24.26415293400147</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>1487661.115285992</v>
+        <v>24.45537112317374</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>2165484.909784172</v>
+        <v>24.53079193947505</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.548</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.203</v>
+        <v>17.051</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.128</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.439</v>
+        <v>12.527</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.89</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.077999999999999</v>
+        <v>4.027</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>24.21485346509046</v>
+        <v>7.870004498574119</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.22468542843269</v>
+        <v>6.82812456309658</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.24400252004298</v>
+        <v>18.57590949283491</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.17604233482689</v>
+        <v>-1.109907787750064</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.2198566510862</v>
+        <v>8.693017042572546</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.23133749917486</v>
+        <v>11.1587539609667</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>24.19049715099976</v>
+        <v>2.394872484495529</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>24.26210077441134</v>
+        <v>18.83366519817477</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>24.27970168437162</v>
+        <v>25.62035407985721</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>24.23787870407845</v>
+        <v>9.168803338493362</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>24.26185715891596</v>
+        <v>13.31262665035537</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>24.26469931987377</v>
+        <v>16.08156353797903</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24.19852110268653</v>
+        <v>16.18963753610581</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24.20645452127902</v>
+        <v>15.03753396471773</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>24.24582219785008</v>
+        <v>32.01374865469343</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24.23181327516765</v>
+        <v>5.986331173627285</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.25889963839774</v>
+        <v>21.82803243875649</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>24.27899089920831</v>
+        <v>27.81599294992825</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24.17260973776304</v>
+        <v>-1.161936843606536</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.21136283493337</v>
+        <v>9.370844441089165</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.22968692601704</v>
+        <v>13.51651064245845</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>24.17140035863446</v>
+        <v>-0.875563756716037</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.2701916946521</v>
+        <v>22.83392004634466</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>24.20415376476971</v>
+        <v>9.235283039775144</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.24343645723454</v>
+        <v>14.13190966983383</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.25562061459877</v>
+        <v>20.71021760225675</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>24.16989167413341</v>
+        <v>-0.9663597550505045</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.25821037049201</v>
+        <v>21.87763950163299</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>24.26600519232353</v>
+        <v>22.99500927042826</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>24.19233530766758</v>
+        <v>4.610507260494231</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24.30677937643644</v>
+        <v>29.1752593102486</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>24.31830572164914</v>
+        <v>32.64999462431506</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>24.32830532964081</v>
+        <v>31.49151507149464</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>24.3477814627426</v>
+        <v>35.5182553942468</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>24.34444430563122</v>
+        <v>37.82869451574182</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24.21476542301574</v>
+        <v>20.81647257532579</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>24.29074047473258</v>
+        <v>44.01993235261833</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>24.31428795657964</v>
+        <v>50.47866900810148</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>24.22742376163198</v>
+        <v>13.55947606744954</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>24.30402373619821</v>
+        <v>33.17971033195359</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>24.32037362719637</v>
+        <v>36.31532394013299</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>24.18361259176237</v>
+        <v>3.437930332317965</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>24.29096062189982</v>
+        <v>30.91934674895668</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>24.31243690926479</v>
+        <v>35.52896825500034</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>24.19926577212542</v>
+        <v>5.59461481989079</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>24.36649347118925</v>
+        <v>51.9200535108867</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.18942515842944</v>
+        <v>-0.5703816889028417</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24.23122565418922</v>
+        <v>6.048377706867431</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>24.24930279417594</v>
+        <v>17.97953377584412</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>24.16464878795394</v>
+        <v>-3.522435672927802</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>24.25406456082746</v>
+        <v>17.95153158531372</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>24.26888275536877</v>
+        <v>22.1879974311248</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>24.18763820301492</v>
+        <v>5.444642553456351</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>24.30400524846635</v>
+        <v>28.03401061745868</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>24.32239020031969</v>
+        <v>36.76711362488237</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>24.3273506111245</v>
+        <v>34.38750181539104</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>24.34215139450117</v>
+        <v>39.39492548615067</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>24.34758266636218</v>
+        <v>41.62637615346407</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>24.18846783213581</v>
+        <v>1.392481955393194</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>24.27739128337163</v>
+        <v>30.28272319829193</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>24.30784108009432</v>
+        <v>38.36749948541468</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>24.20277640372449</v>
+        <v>8.492241807905799</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>24.28334371102971</v>
+        <v>28.28505566602333</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>24.3099609981248</v>
+        <v>34.45232453838422</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.16819702729888</v>
+        <v>2.099593116249206</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.27860522448853</v>
+        <v>25.10356000203498</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>24.31228430550094</v>
+        <v>34.79681178232513</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>24.18763289436865</v>
+        <v>5.180790270096402</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>24.35848921601957</v>
+        <v>45.78286188548707</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>24.19601951381028</v>
+        <v>-2.690251757394233</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>24.22783455727742</v>
+        <v>2.325649354294672</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>24.25384995191084</v>
+        <v>18.41672520089467</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>24.18554811893141</v>
+        <v>-4.580558588973048</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>24.25244397612051</v>
+        <v>15.85965360493899</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>24.275054053602</v>
+        <v>24.19487700575328</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>24.19664726799972</v>
+        <v>-2.801949845225824</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>24.28768221248881</v>
+        <v>21.9352564559407</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>24.31430187540129</v>
+        <v>34.90186368560877</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>24.28627963346747</v>
+        <v>24.21719413282361</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>24.30101950552347</v>
+        <v>27.99807371860661</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>24.32120969157366</v>
+        <v>36.69652370690878</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>24.19333278893357</v>
+        <v>-1.848230272957839</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>24.25908743955716</v>
+        <v>22.93206416715792</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>24.30519239125723</v>
+        <v>40.42669212530807</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>24.20472630781396</v>
+        <v>3.089549517418487</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>24.26512610170903</v>
+        <v>23.15760501911294</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>24.29947250739288</v>
+        <v>33.50647871614166</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24.18387849839746</v>
+        <v>1.393670097327764</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>24.26123834556212</v>
+        <v>20.5790051302815</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>24.3000719496953</v>
+        <v>34.40698207489429</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>24.18535851542672</v>
+        <v>2.561219927411216</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.31580423330634</v>
+        <v>36.2995693060635</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.3047239673525</v>
+        <v>28.88046215222235</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>24.25843439424145</v>
+        <v>24.6903861395141</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>24.31836233510876</v>
+        <v>37.48866075800072</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>24.32432687354542</v>
+        <v>39.95647672601297</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>24.19087246778867</v>
+        <v>9.022566173177708</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.26245277026611</v>
+        <v>21.84870203226471</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>24.29266845337198</v>
+        <v>28.27520734291922</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>24.23778908340597</v>
+        <v>10.55406479693673</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.28320529311518</v>
+        <v>22.53622604077409</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>24.32457880980769</v>
+        <v>36.77289455047371</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>24.1577804579482</v>
+        <v>-4.716228154947675</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>24.22510774454511</v>
+        <v>9.369610155935771</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>24.25543809355148</v>
+        <v>18.32476024367149</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>24.16512036925642</v>
+        <v>-1.443648221569319</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>24.30794287565551</v>
+        <v>26.75948360586906</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>24.36420943648021</v>
+        <v>45.31254080782526</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>24.32811612597417</v>
+        <v>29.77577408381602</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>24.40173160033769</v>
+        <v>47.7004035374386</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>24.43074747667382</v>
+        <v>52.97345716802793</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>24.17958363935055</v>
+        <v>6.659820282060274</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>24.309019548383</v>
+        <v>24.96300931799147</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>24.36722922473371</v>
+        <v>39.33601601954093</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>24.40079935887496</v>
+        <v>59.42742341025338</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>24.40700777643071</v>
+        <v>50.87928602881462</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>24.45360811655838</v>
+        <v>58.95621882822353</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.45487326548621</v>
+        <v>61.67099778616033</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>24.24617648111976</v>
+        <v>17.82848315919209</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>24.43136243203055</v>
+        <v>58.53730519419224</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.44705218425025</v>
+        <v>59.16577100629966</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>24.25257796138107</v>
+        <v>18.94191686987556</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>24.36244215309614</v>
+        <v>39.03800993622482</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>24.3875260688914</v>
+        <v>46.73453079595345</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>24.20106323087157</v>
+        <v>5.110923197618575</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>24.35875923082891</v>
+        <v>43.66917864930871</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>24.3780904685292</v>
+        <v>48.40774510264008</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>24.22421782302688</v>
+        <v>8.126128950006731</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>24.45466289324045</v>
+        <v>68.82633182844776</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>24.49620385095959</v>
+        <v>75.80159391306191</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>24.56713427686653</v>
+        <v>77.39870345773825</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>24.61672810208433</v>
+        <v>83.56293067456073</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>24.63502838131583</v>
+        <v>88.96927798288203</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>24.29621363029879</v>
+        <v>27.71583152443928</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>24.56752645508205</v>
+        <v>78.39227458822123</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>24.59392877035123</v>
+        <v>83.08152105005328</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>24.40400694571493</v>
+        <v>61.80115054057369</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>24.38711981056263</v>
+        <v>44.51678487794523</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>24.42632727273478</v>
+        <v>51.80297372926498</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>24.44262995558041</v>
+        <v>61.39093830619813</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.20483983550195</v>
+        <v>8.456003752859331</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>24.40931363131277</v>
+        <v>52.9002647801352</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.43719533341953</v>
+        <v>56.11613829708913</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>24.22398200922527</v>
+        <v>12.05970427851062</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.34162632374378</v>
+        <v>35.11597625608078</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>24.37466188219723</v>
+        <v>44.73425197272098</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>24.18502951120546</v>
+        <v>3.472985652782619</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>24.3505731601355</v>
+        <v>43.10753794192374</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>24.37989236580191</v>
+        <v>49.51557782681277</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>24.21265186741788</v>
+        <v>7.029345823990504</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>24.45020057103256</v>
+        <v>68.75375997294768</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.50022182631667</v>
+        <v>78.66366662377231</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>24.56012513857637</v>
+        <v>75.88616308879375</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>24.60145597390537</v>
+        <v>82.69307333190503</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.63328214227257</v>
+        <v>92.83783417886755</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>24.25796292108515</v>
+        <v>15.53347246783203</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>24.55491290838211</v>
+        <v>75.43048355394032</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>24.59198259824607</v>
+        <v>81.64763792083619</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>24.36630127486952</v>
+        <v>56.17196323589533</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>24.30190029446453</v>
+        <v>29.21118919729894</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>24.34387105762521</v>
+        <v>37.27372350379098</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>24.37856873040892</v>
+        <v>45.18758901071175</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>24.19291580493081</v>
+        <v>6.791381075684697</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>24.34957355414343</v>
+        <v>46.78300176392998</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>24.39441592273009</v>
+        <v>52.41470912672126</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>24.22931198103706</v>
+        <v>7.794671189717938</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>24.32036511589367</v>
+        <v>34.10114447580806</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>24.3692069233168</v>
+        <v>47.96907211518769</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>24.20350636452001</v>
+        <v>2.328484632119377</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>24.32487683624159</v>
+        <v>37.33535643091592</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>24.36975254851174</v>
+        <v>48.61911904888765</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24.21305811183549</v>
+        <v>3.014955618714126</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>24.39838463706893</v>
+        <v>59.20064957449549</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>24.46258919548623</v>
+        <v>76.91569176218016</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>24.45184682996945</v>
+        <v>65.58751420643949</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>24.50556889978369</v>
+        <v>78.95878785315145</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>24.55951347990193</v>
+        <v>88.47292593372055</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>24.23609629954662</v>
+        <v>10.72027514407098</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>24.46818838865232</v>
+        <v>73.02602582586738</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>24.53643431974018</v>
+        <v>81.7042454449622</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>24.20490990397776</v>
+        <v>16.60052546159304</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>24.19686182536233</v>
+        <v>7.926008320177761</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.2200680589779</v>
+        <v>16.77378675624379</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24.13265164275309</v>
+        <v>1.690550500222663</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.16646345902499</v>
+        <v>0.07546020189674962</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>24.18080944861145</v>
+        <v>1.0003011054952</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>24.16107301573782</v>
+        <v>6.654165708254229</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>24.22309423543135</v>
+        <v>7.133779059534763</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>24.24674352206473</v>
+        <v>12.67493680700206</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>24.1849649626527</v>
+        <v>6.297845847410375</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>24.21609923466776</v>
+        <v>12.59583555807695</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>24.22955923680492</v>
+        <v>13.99778387288462</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.17396516015178</v>
+        <v>18.92525090359169</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>24.15597347035633</v>
+        <v>6.713694114958663</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.21223984666838</v>
+        <v>7.305826596730501</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>24.23503660409758</v>
+        <v>6.593233807145584</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.24492135828566</v>
+        <v>19.06275422847801</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>24.28465476519817</v>
+        <v>28.00761868766426</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>24.13128168509991</v>
+        <v>-3.74337013380687</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>24.15390844455222</v>
+        <v>3.362358341041993</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>24.19253819321754</v>
+        <v>7.866505633362948</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>24.13904835365068</v>
+        <v>0.8013971205331352</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>24.22848682634734</v>
+        <v>14.84348152827933</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>24.19463645504513</v>
+        <v>16.4360314768772</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>24.22176685395718</v>
+        <v>12.64427178502136</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>24.23880403416114</v>
+        <v>18.31221117371368</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>24.12700520246565</v>
+        <v>2.430771060496717</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.2140035329697</v>
+        <v>11.36686451148118</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>24.22695786307468</v>
+        <v>12.61734563523592</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>24.16657117956895</v>
+        <v>9.748627049297175</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>24.2797808453168</v>
+        <v>19.08962153284991</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>24.29881896832421</v>
+        <v>22.42905460629179</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>24.29949513893646</v>
+        <v>25.31121327744781</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>24.32833127351053</v>
+        <v>34.45946012877721</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>24.3355518324904</v>
+        <v>34.87037955694187</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>24.20368367502384</v>
+        <v>24.75902989363761</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>24.26726814952025</v>
+        <v>33.93169789303106</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>24.30795469956376</v>
+        <v>27.19195147707544</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>24.23820963399981</v>
+        <v>12.13741200812945</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>24.30801659377861</v>
+        <v>28.16261362566028</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>24.34815584341435</v>
+        <v>37.22654834390005</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>24.15357985361474</v>
+        <v>2.668853768332095</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>24.25868479617267</v>
+        <v>23.34005186271254</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>24.30701752737047</v>
+        <v>35.54095620153306</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>24.18382639203993</v>
+        <v>8.686578921959022</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>24.35576223249634</v>
+        <v>42.30762326276793</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>24.17141827585107</v>
+        <v>5.470346368664096</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>24.20264295425275</v>
+        <v>4.783755822273474</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>24.22749772814839</v>
+        <v>14.0641010840243</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>24.11632686178686</v>
+        <v>-1.07111908342106</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>24.20549821298487</v>
+        <v>8.29786769746844</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>24.22786261419104</v>
+        <v>11.76288749174087</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>24.15622007116034</v>
+        <v>7.284553912367535</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>24.27302223865653</v>
+        <v>17.09555952729475</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>24.30100012758493</v>
+        <v>24.81691493832797</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>24.29350627791335</v>
+        <v>23.44380510131659</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>24.31699949815534</v>
+        <v>33.3377366724978</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>24.33532348358771</v>
+        <v>33.77500402377812</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>24.16664885586747</v>
+        <v>10.2422231871287</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>24.24723812813598</v>
+        <v>25.99891033240485</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>24.29718085329141</v>
+        <v>22.08670732049796</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>24.20125704268428</v>
+        <v>3.671450902690001</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>24.27707465086501</v>
+        <v>18.30049947053781</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>24.33035600803417</v>
+        <v>32.19431999028198</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>24.129209931839</v>
+        <v>-4.035673424712392</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>24.23899903099007</v>
+        <v>11.03060209882349</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>24.30318887315037</v>
+        <v>30.69753659014898</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>24.16381607297915</v>
+        <v>0.1047770323804222</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>24.34166657876801</v>
+        <v>25.44970661310623</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>24.17314175596222</v>
+        <v>4.313146212414416</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>24.19499069079711</v>
+        <v>1.473229292854523</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>24.22823423548941</v>
+        <v>12.86101526473724</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>24.13972665465969</v>
+        <v>-2.793108415372632</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>24.20435703810451</v>
+        <v>5.470805600319743</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>24.2346625848919</v>
+        <v>10.12516016079354</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>24.16279129024968</v>
+        <v>1.719436188019735</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>24.25230799685531</v>
+        <v>10.49796249892224</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>24.28863996629881</v>
+        <v>20.61193425049141</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>24.24103852415024</v>
+        <v>11.51015741130678</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>24.26138843435761</v>
+        <v>18.97015042221913</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>24.29706990134436</v>
+        <v>19.45114958288635</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>24.16197897267091</v>
+        <v>6.514281688116547</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>24.21840423953866</v>
+        <v>16.79809991430255</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>24.28493753814496</v>
+        <v>16.91021684030614</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>24.19600780476323</v>
+        <v>2.129335956508172</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.25023013724363</v>
+        <v>16.49181745499908</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>24.3088722002801</v>
+        <v>32.99343280802896</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>24.14587068031435</v>
+        <v>-2.083753323149718</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>24.21884664437962</v>
+        <v>10.25094703947721</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>24.28499798535591</v>
+        <v>29.81995151309538</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>24.1557327119534</v>
+        <v>2.475875164460614</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>24.28851302319767</v>
+        <v>21.69447780141356</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>24.28989806033326</v>
+        <v>23.67837315828667</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>24.20116407440015</v>
+        <v>18.85325427424347</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>24.28107030605259</v>
+        <v>30.81887074327037</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>24.3156914641426</v>
+        <v>40.63154737515942</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>24.15341196399149</v>
+        <v>4.37028300407513</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.20811263593619</v>
+        <v>16.29074060067495</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>24.27745233076385</v>
+        <v>22.64171257324492</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>24.25674182595591</v>
+        <v>12.58733595213442</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.2831776243339</v>
+        <v>22.05481946044306</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>24.34275158216268</v>
+        <v>29.72729981532596</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>24.13039521302474</v>
+        <v>-6.554909144993005</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.18183108734183</v>
+        <v>1.815116483034178</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>24.22926730771135</v>
+        <v>6.567403742637055</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>24.15096212649013</v>
+        <v>1.216026682367882</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.28802681471007</v>
+        <v>19.60018907376387</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>24.36971975796358</v>
+        <v>25.54643284502573</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>24.30536376572578</v>
+        <v>19.16934305793531</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>24.39483951971808</v>
+        <v>34.0171123878423</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24.4509316508619</v>
+        <v>37.81934266438253</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>24.17117162932542</v>
+        <v>9.649288112809387</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>24.27778158441782</v>
+        <v>19.81843110636428</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>24.37854476591822</v>
+        <v>23.88733445185602</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>24.42231992344806</v>
+        <v>56.83684730400562</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>24.39570392392519</v>
+        <v>42.8370377703996</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>24.46438727268435</v>
+        <v>55.18240643327672</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>24.49601420167417</v>
+        <v>66.19157837963184</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>24.24090491266156</v>
+        <v>15.9998188996859</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>24.43309144386592</v>
+        <v>56.417954835971</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.4914280398584</v>
+        <v>60.79123004576659</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.29251047187329</v>
+        <v>23.1713343318432</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>24.3964294086201</v>
+        <v>38.38859217351086</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>24.44116900991439</v>
+        <v>45.42851283393596</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>24.20105483191674</v>
+        <v>6.808190148764346</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>24.36059908358174</v>
+        <v>32.81863320330997</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>24.40074581959658</v>
+        <v>41.96613536687131</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>24.24332860791442</v>
+        <v>17.92523541619587</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>24.48566050787318</v>
+        <v>62.35823603416242</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>24.55485686536907</v>
+        <v>66.14679783745544</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>24.62155442946082</v>
+        <v>68.81154717519101</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>24.6860442867186</v>
+        <v>76.68988745561303</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>24.73184897885053</v>
+        <v>83.39884421362098</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>24.3460223069802</v>
+        <v>38.68943715878073</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>24.62227681897167</v>
+        <v>76.80439779613926</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>24.69196987315743</v>
+        <v>79.8039664449787</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>24.42244693256966</v>
+        <v>52.63615179593706</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>24.36536659600378</v>
+        <v>25.40446080209944</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>24.42547424478086</v>
+        <v>40.55472953826069</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>24.47566965138415</v>
+        <v>60.65211512708808</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>24.18464498435748</v>
+        <v>4.227114024768071</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>24.40182136467164</v>
+        <v>45.54441004966724</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>24.47570320339719</v>
+        <v>55.99857554148937</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>24.25157725940849</v>
+        <v>14.01833619615686</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>24.36648267533887</v>
+        <v>30.75075702118227</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>24.42182242797187</v>
+        <v>41.9931046099219</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>24.17682496014762</v>
+        <v>2.275737689806721</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>24.34717671899077</v>
+        <v>28.90021812001412</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>24.40075884493026</v>
+        <v>41.77379892484312</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>24.22412360888416</v>
+        <v>11.32980792054434</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>24.47696796946074</v>
+        <v>54.34635581384043</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>24.55734280616629</v>
+        <v>65.88170815803667</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>24.6078674566919</v>
+        <v>58.98127667726199</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>24.66292162469215</v>
+        <v>70.39901957226476</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>24.72577639720216</v>
+        <v>84.03679286011995</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>24.29407375564265</v>
+        <v>24.74219123546253</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>24.60360473569471</v>
+        <v>69.5804271420341</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>24.68729778795449</v>
+        <v>77.65011951930022</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>24.37065233288953</v>
+        <v>50.95103425323028</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>24.25908761167832</v>
+        <v>14.16982285847766</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.31739529987302</v>
+        <v>26.30880323883804</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>24.38739869678225</v>
+        <v>45.02438667559796</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.15854205511765</v>
+        <v>3.583598202885227</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>24.32196393341122</v>
+        <v>37.22867896802506</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>24.41028020346077</v>
+        <v>48.83408292888367</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>24.24083798836052</v>
+        <v>12.69265013891285</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>24.32764438849619</v>
+        <v>31.74996851067015</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>24.39878533353609</v>
+        <v>45.62857912994282</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>24.18691586279032</v>
+        <v>2.542914108969729</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>24.3084636614387</v>
+        <v>25.85389470511361</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>24.37706631706889</v>
+        <v>40.13470732270057</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>24.20874493924962</v>
+        <v>9.771295440454887</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>24.4034745851983</v>
+        <v>46.8926926859974</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>24.49707096711673</v>
+        <v>64.60637984543995</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>24.46106326991197</v>
+        <v>44.51050510680852</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>24.52733123589293</v>
+        <v>60.52852512886001</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>24.61528377767959</v>
+        <v>76.73200266623434</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>24.2411512220402</v>
+        <v>15.97081310851069</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>24.47991124949067</v>
+        <v>60.16160749794618</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>24.59486688261118</v>
+        <v>69.95988607389954</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>24.22758231167342</v>
+        <v>15.52783636995906</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>24.24578595090325</v>
+        <v>21.33225605429887</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>24.26607687409568</v>
+        <v>25.32843827512131</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>24.16310930254104</v>
+        <v>1.652130226293867</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>24.21103873582671</v>
+        <v>7.125511108619037</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>24.22453908514545</v>
+        <v>7.285614991106183</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>24.18613560634746</v>
+        <v>5.902192516136793</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>24.26408479687338</v>
+        <v>19.47347484919774</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>24.28546912106006</v>
+        <v>24.01542972136759</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>24.24457015534832</v>
+        <v>19.45014222127585</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>24.27717595140669</v>
+        <v>28.3818871728345</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>24.28657898019208</v>
+        <v>30.67383148732809</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>24.18189550064012</v>
+        <v>3.801386829686567</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>24.22188095271215</v>
+        <v>15.19988124941052</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>24.25959062438369</v>
+        <v>10.85577559924613</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>24.23568901913851</v>
+        <v>8.705628523086947</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.27146611214832</v>
+        <v>23.04238765165463</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>24.30715493697635</v>
+        <v>29.64691345804068</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>24.14995863738646</v>
+        <v>-1.79468408788885</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>24.18889949450348</v>
+        <v>5.977450021157964</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.22551328597953</v>
+        <v>10.48218867456551</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>24.15686581058778</v>
+        <v>2.581397224633214</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>24.26046582237308</v>
+        <v>19.60441428792673</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>24.22263736381472</v>
+        <v>14.60551618189353</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>24.27398071802414</v>
+        <v>28.35111882243921</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>24.28774833199818</v>
+        <v>28.20959866137654</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>24.16363170552728</v>
+        <v>3.915269589831858</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>24.2597510020286</v>
+        <v>21.94473090347848</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>24.27082517664474</v>
+        <v>22.1265778447117</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>24.19564733630838</v>
+        <v>8.79267852675612</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>24.32050733563114</v>
+        <v>34.12493879033136</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>24.33674760629416</v>
+        <v>35.25732986161827</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>24.35143163622965</v>
+        <v>39.03100430315728</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>24.38159148883262</v>
+        <v>48.26161488853057</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>24.38461724491177</v>
+        <v>45.70748822531455</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>24.20887550368651</v>
+        <v>8.809467197482807</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>24.32552111683984</v>
+        <v>44.79394523215258</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>24.34739711269501</v>
+        <v>37.99726857537928</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>24.23887437773778</v>
+        <v>10.97843990252967</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>24.32982859194114</v>
+        <v>32.51843434382936</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>24.36442731929133</v>
+        <v>38.06560945613831</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>24.17099907019007</v>
+        <v>3.289386506574282</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>24.28396093312534</v>
+        <v>26.5204720488468</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>24.32758559687708</v>
+        <v>36.42823124449843</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>24.19677191014841</v>
+        <v>8.275744172803773</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>24.37499652036888</v>
+        <v>47.1202934445792</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>24.20319269164697</v>
+        <v>6.701331224270952</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>24.25677298652593</v>
+        <v>20.48881908931782</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>24.27732025917191</v>
+        <v>24.33974526624462</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>24.15517589218368</v>
+        <v>3.330423393566235</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>24.25205404505575</v>
+        <v>19.08920765361825</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>24.27125555632743</v>
+        <v>21.60951305851194</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>24.18756632237481</v>
+        <v>9.450356225450719</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>24.31421948982875</v>
+        <v>32.11051379352909</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>24.33819210682921</v>
+        <v>37.41428820033917</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>24.34546787774713</v>
+        <v>38.49346810742873</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>24.3707640003619</v>
+        <v>48.24956176787757</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>24.38332138109267</v>
+        <v>43.90106794306082</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>24.17827102332</v>
+        <v>4.233780270623296</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>24.30734652295603</v>
+        <v>37.28343616774308</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>24.33730790808628</v>
+        <v>32.02154672860214</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>24.2069384641009</v>
+        <v>3.121829278713832</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>24.30159578039394</v>
+        <v>22.35484843996383</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>24.3475774113768</v>
+        <v>33.10380061726705</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>24.14973321449499</v>
+        <v>-1.878835447516387</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>24.26545990633507</v>
+        <v>15.01128754515995</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>24.32276337148006</v>
+        <v>32.37513199478002</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>24.17940450777166</v>
+        <v>1.450962448851495</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>24.36122559125748</v>
+        <v>31.1948319753367</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.20378806683935</v>
+        <v>6.982342947998518</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>24.24393505872192</v>
+        <v>16.50138863883197</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>24.2728963085215</v>
+        <v>23.87775028591145</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>24.17361328878988</v>
+        <v>1.81898585464771</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>24.24504860401434</v>
+        <v>15.24825903546576</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>24.27215572627022</v>
+        <v>20.45427214562721</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>24.19214369073597</v>
+        <v>4.067709509459984</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>24.28997006716274</v>
+        <v>23.94001095352018</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>24.32223356481725</v>
+        <v>33.58574421707634</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>24.29236948066166</v>
+        <v>27.67321298099749</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>24.31515061645751</v>
+        <v>35.2364442336321</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>24.34368826392923</v>
+        <v>35.02551925539416</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>24.17858255294671</v>
+        <v>5.892074681958878</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>24.27558141717845</v>
+        <v>31.82761593121166</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>24.32286455315784</v>
+        <v>28.63955587837727</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>24.20388208836444</v>
+        <v>3.768679301514428</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>24.27348387633315</v>
+        <v>19.49724791380881</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.32548613045132</v>
+        <v>34.61752390765717</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>24.16395514978554</v>
+        <v>0.5097428391828771</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>24.24282614504952</v>
+        <v>12.45718022215403</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>24.30284952120152</v>
+        <v>32.07321987089026</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>24.17279438953682</v>
+        <v>4.258063904165365</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.30934376773257</v>
+        <v>24.82094969988137</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>24.31528706885283</v>
+        <v>27.89555003890295</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.25200982228927</v>
+        <v>23.37518585422624</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.32871828227536</v>
+        <v>35.68688911189679</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>24.35239822490165</v>
+        <v>41.49337708872544</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>24.14775569169267</v>
+        <v>0.5073925090628286</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>24.25855404536076</v>
+        <v>19.41451057360258</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>24.3106283167226</v>
+        <v>25.47657022148582</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>24.23479551020213</v>
+        <v>11.85220125000917</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>24.28664635399539</v>
+        <v>24.36810197597108</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>24.34126113161637</v>
+        <v>31.95230654314528</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>24.12170086582368</v>
+        <v>-5.309264290549017</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>24.18687962468127</v>
+        <v>4.116277414250892</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>24.23375795193463</v>
+        <v>9.72345602088715</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>24.13900925475397</v>
+        <v>0.5693423204179631</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.2849574539087</v>
+        <v>18.69823715035964</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>24.35929832304935</v>
+        <v>29.79235960548007</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>24.30903011179432</v>
+        <v>20.64381957368794</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>24.39545781102627</v>
+        <v>37.94223823197091</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>24.44592830276525</v>
+        <v>42.60700715399411</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>24.1251231224246</v>
+        <v>1.847254568306507</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.28639168550076</v>
+        <v>19.34204891121093</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>24.36914273254282</v>
+        <v>26.82485402943165</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>24.43278990540642</v>
+        <v>59.23696743086938</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>24.42478477588604</v>
+        <v>48.46181334322515</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>24.49116846385108</v>
+        <v>58.71339743660209</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>24.51075886133229</v>
+        <v>64.23749327256004</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>24.21915745339148</v>
+        <v>8.014210196282907</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>24.45644074037118</v>
+        <v>57.15187625066422</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>24.49662598473325</v>
+        <v>62.00122848556333</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>24.26428976117969</v>
+        <v>18.302039108092</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>24.38695567860998</v>
+        <v>40.55793476086434</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>24.42710475931939</v>
+        <v>44.75358832316545</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>24.18259654807835</v>
+        <v>5.448516122368517</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>24.3444879515663</v>
+        <v>35.32498128617533</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>24.38352991641565</v>
+        <v>42.39261106313307</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>24.21805487832503</v>
+        <v>13.45943821206336</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>24.45870923164683</v>
+        <v>60.57844743873579</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>24.5205933977996</v>
+        <v>65.75811832638945</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>24.58472901761537</v>
+        <v>69.07997702353069</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>24.64928376019981</v>
+        <v>76.7760097525954</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>24.68952769406105</v>
+        <v>81.54009296865739</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>24.26878311191691</v>
+        <v>20.60199141636629</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>24.58549350538425</v>
+        <v>71.2942439258305</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>24.63868057859948</v>
+        <v>75.82872436352801</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>24.43132396484914</v>
+        <v>55.57280174309858</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>24.39650294043381</v>
+        <v>34.69297349044332</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>24.45517192849126</v>
+        <v>46.59433061415294</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>24.49087848257172</v>
+        <v>60.80730127477813</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.17109182829535</v>
+        <v>0.1501296054008527</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>24.42733485867571</v>
+        <v>47.93623795920462</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.48098239697834</v>
+        <v>57.886980273318</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24.22776573385439</v>
+        <v>8.985971288095751</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>24.35824156580327</v>
+        <v>31.73972360450875</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>24.40759737273569</v>
+        <v>40.23964811175176</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>24.1602328929509</v>
+        <v>0.7826575211448201</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>24.33000014585431</v>
+        <v>29.81192213541884</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>24.38065742511229</v>
+        <v>41.04684335302707</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>24.20031159334138</v>
+        <v>7.299431248251537</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>24.44834893776501</v>
+        <v>52.04826263714014</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>24.51992395308582</v>
+        <v>64.4419846036914</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.56941617680566</v>
+        <v>59.70334721836211</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>24.62549499858513</v>
+        <v>70.70875676563489</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.68031472048803</v>
+        <v>81.43504018240249</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>24.22325150230946</v>
+        <v>9.791828576796711</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>24.56580260833701</v>
+        <v>64.23290024845728</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>24.63108502184091</v>
+        <v>72.84089858199863</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>24.38199348054725</v>
+        <v>53.81096662931006</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>24.29709268995984</v>
+        <v>21.55677095666835</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>24.35456482208768</v>
+        <v>32.73183072414525</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>24.40916327902902</v>
+        <v>47.86345270266801</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>24.15660556387258</v>
+        <v>3.24466759857145</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>24.35276820855409</v>
+        <v>40.76422888415809</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>24.42176969076773</v>
+        <v>52.34745303405644</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>24.22141998564034</v>
+        <v>8.029573125186779</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>24.32036833912395</v>
+        <v>28.39882850608673</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>24.38495250632856</v>
+        <v>43.07787337656784</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>24.1706137108122</v>
+        <v>-0.1997697646324639</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>24.29226522638684</v>
+        <v>21.83474837042158</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>24.35705339063135</v>
+        <v>38.19951325696304</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>24.18948174885444</v>
+        <v>4.096596614248224</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>24.38021131191685</v>
+        <v>38.11584302370447</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>24.46472948055249</v>
+        <v>61.35723648451067</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>24.43689111727805</v>
+        <v>40.94501818729816</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>24.50259693464851</v>
+        <v>59.63225553002327</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>24.58013903413102</v>
+        <v>74.078024220149</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.18910532264174</v>
+        <v>6.380949816055612</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>24.45500120063024</v>
+        <v>53.95267642192714</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>24.55042976523814</v>
+        <v>67.05629016524902</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>24.24538519035061</v>
+        <v>9.971757503625932</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>24.2662703802748</v>
+        <v>16.7864041941827</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.281319252733</v>
+        <v>27.39479468955167</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>24.20598496216779</v>
+        <v>-1.321123469514436</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>24.25610080030858</v>
+        <v>13.33159552090306</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>24.26455507399018</v>
+        <v>15.78914287134136</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>24.22128543194053</v>
+        <v>1.139814907566709</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.29623142807147</v>
+        <v>30.56136151812208</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>24.31122619987261</v>
+        <v>36.28543872311277</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.27961360103182</v>
+        <v>19.87086888522135</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.30495397212921</v>
+        <v>26.82743903047982</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.30696901011247</v>
+        <v>26.39857298624235</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>24.22401867841539</v>
+        <v>6.192664477283635</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>24.25361348916401</v>
+        <v>19.3935431264668</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.28414093950125</v>
+        <v>30.87135064342667</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>24.23807997847274</v>
+        <v>9.322592293798177</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.27513410832828</v>
+        <v>24.00699029679064</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.29266257711867</v>
+        <v>29.74777195970817</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>24.17576135229321</v>
+        <v>0.330645653920886</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>24.22121158576225</v>
+        <v>10.71279378414083</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>24.23733300308294</v>
+        <v>12.66822590409172</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>24.17743368714515</v>
+        <v>1.183328561310201</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>24.27680664857152</v>
+        <v>23.89752530941681</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>24.24653675398564</v>
+        <v>16.62133086875632</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.29690146993776</v>
+        <v>33.32100288557275</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.30554576940837</v>
+        <v>35.9766735993356</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>24.21344939541855</v>
+        <v>4.219496051764178</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.30635074592211</v>
+        <v>35.82979189264984</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>24.3117366254991</v>
+        <v>36.45717857745727</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>24.23611466094479</v>
+        <v>6.972995022798024</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>24.35260181485114</v>
+        <v>50.41469000272589</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.36226749683727</v>
+        <v>50.13742724520398</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>24.38056752134197</v>
+        <v>52.42285631441528</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>24.40326703104216</v>
+        <v>58.80548830320603</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>24.39913215653499</v>
+        <v>57.52401392939165</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>24.2558899603243</v>
+        <v>17.54160625454838</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>24.35094700619484</v>
+        <v>55.41910908415475</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>24.36710834328917</v>
+        <v>60.14057904927913</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>24.2408113352755</v>
+        <v>15.04048004663881</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>24.32623618659604</v>
+        <v>36.39723662119065</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>24.34056912638156</v>
+        <v>35.94202238326672</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>24.19454463027974</v>
+        <v>3.8285997948784</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.30507128120554</v>
+        <v>32.92781465607698</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>24.32456038777348</v>
+        <v>34.95021570886153</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>24.21216701337749</v>
+        <v>5.615357639533137</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>24.37694937696942</v>
+        <v>54.47671950499639</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>24.23189464953442</v>
+        <v>4.640673123237349</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>24.28452722622676</v>
+        <v>23.822384143377</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>24.29878739016335</v>
+        <v>30.96458953303991</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>24.20824293962037</v>
+        <v>1.902792918451052</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.30206086396113</v>
+        <v>31.97219889767826</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>24.31421645200179</v>
+        <v>35.50662926762094</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>24.23131737160736</v>
+        <v>7.03862249336969</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>24.34962780361144</v>
+        <v>48.44458786387356</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>24.36573255003047</v>
+        <v>53.40566238643751</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>24.37856790866444</v>
+        <v>56.43303161041979</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>24.39720048256213</v>
+        <v>61.9543192415648</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.40126327455487</v>
+        <v>61.18651853315683</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>24.23234028487691</v>
+        <v>1.815827740503813</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>24.33871414468455</v>
+        <v>42.5848169252309</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.3616505805693</v>
+        <v>48.06458778520569</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>24.21644401808386</v>
+        <v>9.768633208397551</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.30554618909386</v>
+        <v>31.76061689456561</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>24.32953423276635</v>
+        <v>34.15458107231588</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>24.17959266425047</v>
+        <v>2.41803277573154</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>24.29287377290133</v>
+        <v>26.25158624354339</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>24.32399270575088</v>
+        <v>34.26323218019282</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>24.20062266038003</v>
+        <v>4.758687998410206</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>24.3689008692201</v>
+        <v>47.33532011545817</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>24.22864142582816</v>
+        <v>2.057245074271396</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>24.26877798973324</v>
+        <v>16.52758520435177</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>24.29089811549455</v>
+        <v>29.24571872696366</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>24.21762854983168</v>
+        <v>1.212719755351355</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>24.2879402470694</v>
+        <v>27.4125850990872</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>24.30776305421836</v>
+        <v>35.59167829823257</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.2294877764032</v>
+        <v>1.18982032079488</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>24.32165324490722</v>
+        <v>39.30198890195615</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>24.34566189560137</v>
+        <v>50.38918898188612</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>24.32511311644007</v>
+        <v>43.74696818205044</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>24.34221498355718</v>
+        <v>49.95722636086504</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>24.36101580423191</v>
+        <v>54.95751088756076</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>24.22468246663589</v>
+        <v>0.09367471952488771</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>24.30462689735788</v>
+        <v>31.41524912231431</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>24.34303859473138</v>
+        <v>45.68725179156242</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>24.21523543045798</v>
+        <v>5.102686056717925</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>24.28199960127187</v>
+        <v>25.57118948730312</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.31375491916802</v>
+        <v>34.35686296021969</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>24.19167193013033</v>
+        <v>2.840980535935685</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>24.27151318958674</v>
+        <v>22.12018934414659</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>24.30809117814511</v>
+        <v>35.39020635468541</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>24.19537827581771</v>
+        <v>3.785322164325208</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>24.32333392654006</v>
+        <v>37.34070685370685</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>24.30904895426864</v>
+        <v>28.80383109012867</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>24.26720508248677</v>
+        <v>25.46849826454934</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>24.32668725882631</v>
+        <v>38.4531601972546</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>24.33536073243103</v>
+        <v>38.67322049862712</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.18180717837419</v>
+        <v>5.915145831286249</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>24.27154611365541</v>
+        <v>20.40808640748887</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>24.29967156696268</v>
+        <v>27.34427075514058</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>24.22765441229123</v>
+        <v>11.10794345539194</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>24.27671659436916</v>
+        <v>23.02438145732706</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>24.31466554602338</v>
+        <v>35.37306035027462</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>24.14564551747246</v>
+        <v>-3.765966954421422</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.21170367037894</v>
+        <v>8.300996334529863</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>24.24045262579206</v>
+        <v>14.87918444506827</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.15312055279635</v>
+        <v>-1.195160530057056</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.28686773500826</v>
+        <v>21.3312457497556</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>24.34020921771422</v>
+        <v>39.56332792253485</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>24.30483488144979</v>
+        <v>24.63768445663042</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>24.37356171216236</v>
+        <v>45.02287441268311</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>24.40510251924634</v>
+        <v>50.5087056734839</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>24.14951326785167</v>
+        <v>0.9674010011758867</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>24.28169950723203</v>
+        <v>18.57086490745533</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>24.3387434443853</v>
+        <v>34.13525203689727</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>24.40929145541911</v>
+        <v>58.34064288347501</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>24.4176866598681</v>
+        <v>55.85675310363055</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>24.46710293643747</v>
+        <v>62.86414874481914</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>24.47094072879437</v>
+        <v>62.18278010731042</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>24.24535253088402</v>
+        <v>15.44515760825422</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>24.44275977893763</v>
+        <v>60.64597514064023</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>24.45803924134401</v>
+        <v>61.16545244496616</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>24.24822359673521</v>
+        <v>19.04030236232435</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>24.35894135137973</v>
+        <v>40.83298595829709</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>24.38276247974029</v>
+        <v>46.03736644748375</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>24.19371530250327</v>
+        <v>5.129244336713043</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>24.34411419791229</v>
+        <v>42.52887222928088</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>24.36404183457848</v>
+        <v>46.0990548682617</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>24.21627908485119</v>
+        <v>7.296527773845092</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>24.432509603987</v>
+        <v>65.15871460476548</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>24.47328906356155</v>
+        <v>72.78735650949437</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>24.53705375295887</v>
+        <v>75.82121571244397</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>24.58590246410451</v>
+        <v>82.66955951516253</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>24.60733011684303</v>
+        <v>86.88697217116184</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>24.26865575220627</v>
+        <v>19.61600930878854</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>24.53337392116175</v>
+        <v>74.18380449256553</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>24.56276175959026</v>
+        <v>80.23391049091428</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>24.41170222455964</v>
+        <v>60.98068890876907</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>24.39812487575006</v>
+        <v>48.22932976046266</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>24.44110862209769</v>
+        <v>54.15501103327271</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>24.4588127042608</v>
+        <v>62.67880069152419</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>24.208029117554</v>
+        <v>7.658177293576557</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>24.4225227049939</v>
+        <v>54.10604250785813</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>24.44936224577452</v>
+        <v>58.30295679665299</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>24.22021228023555</v>
+        <v>10.58991528122782</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>24.33815102068471</v>
+        <v>34.45313779341196</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>24.36964897705128</v>
+        <v>42.91734650015468</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>24.17802836435501</v>
+        <v>2.488335268184546</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>24.33557867602459</v>
+        <v>39.62515008643847</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>24.36526777679504</v>
+        <v>46.52057541971485</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>24.20472032633334</v>
+        <v>4.323062731265033</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>24.42771648627734</v>
+        <v>61.43309773746221</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>24.47660180479381</v>
+        <v>74.63779814398299</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>24.52895652827908</v>
+        <v>72.14768040043367</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>24.57065817049054</v>
+        <v>78.87875612460623</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>24.60459992864945</v>
+        <v>89.53691482232414</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>24.23401733977786</v>
+        <v>8.009391266199792</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>24.52168621187997</v>
+        <v>66.9855497288105</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>24.56137153679477</v>
+        <v>77.1767032327452</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>24.37119162996482</v>
+        <v>56.91564764062836</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>24.31190803386674</v>
+        <v>29.78150181742911</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>24.35538734038715</v>
+        <v>37.24517509130938</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>24.39127142103964</v>
+        <v>46.64626556412033</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>24.19338090599192</v>
+        <v>6.813538872955817</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>24.35814832947802</v>
+        <v>46.32237884051926</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>24.40134803444153</v>
+        <v>54.52336649135196</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>24.2214475034672</v>
+        <v>5.856141608267436</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>24.31169615229273</v>
+        <v>29.82647305544153</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>24.35801426805794</v>
+        <v>45.49430682527108</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>24.19194666121456</v>
+        <v>0.1474871846199335</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>24.30666087055431</v>
+        <v>30.21371563386321</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>24.35078316769606</v>
+        <v>44.52278871651797</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>24.20146670203876</v>
+        <v>-0.5890084116812204</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>24.37404466111384</v>
+        <v>45.76448054386751</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>24.43602067937521</v>
+        <v>70.74773864871851</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>24.42134194214057</v>
+        <v>52.96101814105982</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>24.47260010422991</v>
+        <v>68.99027692243193</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>24.52799901195985</v>
+        <v>84.18041348671164</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>24.2096540314146</v>
+        <v>3.1197553341425</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>24.43332738302271</v>
+        <v>57.32690916185486</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>24.50145153220097</v>
+        <v>75.11069960564268</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>24.26213229647168</v>
+        <v>18.08726213807687</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.27143078294067</v>
+        <v>16.4042982133637</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>24.28539462048118</v>
+        <v>29.33345056895861</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>24.23683610350414</v>
+        <v>7.520087788551859</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>24.28075812230217</v>
+        <v>21.86835144059259</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>24.28808194868479</v>
+        <v>24.32513067736785</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>24.24452884890973</v>
+        <v>11.22964697024046</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>24.30878901469572</v>
+        <v>35.35879829575886</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>24.32303119385731</v>
+        <v>40.25387878152363</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>24.28709093586509</v>
+        <v>17.66665777902045</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>24.30973813356678</v>
+        <v>22.70562508863728</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>24.31657108217309</v>
+        <v>21.84985297083558</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>24.2640176944186</v>
+        <v>25.10873709657862</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>24.26524044265884</v>
+        <v>16.79002822399455</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>24.30275606835601</v>
+        <v>33.18145682410201</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>24.25144602529864</v>
+        <v>12.46009544642316</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>24.27306888736124</v>
+        <v>21.89179526431314</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>24.29241917250964</v>
+        <v>30.24347762630162</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>24.20728780053775</v>
+        <v>11.6859325612452</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>24.24140594656113</v>
+        <v>17.98518520222027</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.25927197936009</v>
+        <v>19.72119316227507</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>24.19136043401289</v>
+        <v>4.60638500223418</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.27577262136594</v>
+        <v>20.4799562620746</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>24.26334364721492</v>
+        <v>22.46023465173623</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>24.30145144423685</v>
+        <v>26.74198492005387</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>24.30992595364142</v>
+        <v>33.28556656247397</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>24.24468885145552</v>
+        <v>9.293329299237989</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>24.33134389289339</v>
+        <v>37.31850628055408</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>24.33685432571371</v>
+        <v>37.19345313029275</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>24.25957440427122</v>
+        <v>13.27785209545018</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>24.3650477349149</v>
+        <v>45.96073886059928</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>24.37498993047895</v>
+        <v>47.21664838681879</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>24.39003863814873</v>
+        <v>49.97069186598002</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>24.4105764591013</v>
+        <v>55.47612901321888</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>24.41210200195124</v>
+        <v>54.39388498660907</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>24.30071373865015</v>
+        <v>35.66883958525351</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>24.36578604703967</v>
+        <v>49.91313821714994</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>24.39033616586571</v>
+        <v>55.50005688770049</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>24.255045554637</v>
+        <v>18.30502174286431</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>24.3242946232699</v>
+        <v>30.16876954660734</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>24.34216498869544</v>
+        <v>33.73361298567189</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>24.22840465835842</v>
+        <v>13.95203233960108</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>24.32744779623086</v>
+        <v>33.46245558708417</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>24.35092695927218</v>
+        <v>37.25831465381167</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>24.22800831991333</v>
+        <v>8.714217786233025</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.37753697260486</v>
+        <v>44.44234728350608</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.24745610732996</v>
+        <v>9.847778045447118</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>24.28865537046753</v>
+        <v>19.30954833241555</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>24.30300207015656</v>
+        <v>29.29265167233422</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>24.23798439919844</v>
+        <v>5.386863486868464</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>24.32615642106877</v>
+        <v>34.93254703657664</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>24.33876784192015</v>
+        <v>36.81741631544161</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>24.25354468583939</v>
+        <v>11.30530480259461</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>24.36171503489075</v>
+        <v>45.80406056085658</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>24.37837558067061</v>
+        <v>51.74895024293302</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>24.38755493119178</v>
+        <v>52.44724802415418</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>24.40409594329476</v>
+        <v>57.31182838101208</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>24.41411052902319</v>
+        <v>57.34479021034286</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>24.27496788190535</v>
+        <v>14.72536365148875</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>24.35299795608658</v>
+        <v>40.00195333643644</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>24.38455742836177</v>
+        <v>47.55740052791209</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>24.22951525572428</v>
+        <v>13.91527880252018</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>24.30350039286564</v>
+        <v>27.77457113404465</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>24.33137466173092</v>
+        <v>32.79983131179827</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>24.21194110554098</v>
+        <v>11.60125761818963</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>24.3145777214154</v>
+        <v>27.62145536062547</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>24.35017868091867</v>
+        <v>36.10385805955335</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>24.21560991839597</v>
+        <v>6.882825069018146</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>24.3697895602705</v>
+        <v>38.24851314464902</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>24.24121465244738</v>
+        <v>5.454104592318483</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>24.27256391336075</v>
+        <v>12.54306879318542</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>24.29410966175951</v>
+        <v>26.70647814328446</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>24.24342214031557</v>
+        <v>4.671768013554139</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>24.30973857360594</v>
+        <v>31.86795089202076</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>24.32919964589176</v>
+        <v>37.14568191426787</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>24.24858547998548</v>
+        <v>5.297227856827011</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>24.33297327706062</v>
+        <v>39.97139483184412</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>24.35678850089534</v>
+        <v>48.85074091199543</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>24.33219811063081</v>
+        <v>42.31025515352373</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>24.34680470881064</v>
+        <v>46.39984379145909</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>24.37089592813265</v>
+        <v>50.28675977401116</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>24.25875098743796</v>
+        <v>9.026942819627973</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>24.31605941663774</v>
+        <v>27.64899439265382</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>24.3615358625833</v>
+        <v>45.03404012139839</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>24.22761263394501</v>
+        <v>7.762986096617773</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>24.28278228985861</v>
+        <v>23.82389323640142</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>24.31694560933733</v>
+        <v>33.11298622323395</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>24.2217603428428</v>
+        <v>11.95985642633588</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>24.2936049411739</v>
+        <v>27.32330323573007</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>24.33300879582941</v>
+        <v>38.50342184795883</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>24.20999716653549</v>
+        <v>5.190076226155934</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.32707807669684</v>
+        <v>33.4037676464932</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>24.31126282116618</v>
+        <v>24.93916819512643</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>24.25558483731983</v>
+        <v>20.49652377077594</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.31308083517983</v>
+        <v>32.52006195824654</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.33280374209052</v>
+        <v>34.45601574611779</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.20801395479372</v>
+        <v>10.58865503921381</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>24.26193445717229</v>
+        <v>16.62567482587998</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.30005301276637</v>
+        <v>23.76336476734986</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.25327106718045</v>
+        <v>14.83755627162622</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>24.28509044799322</v>
+        <v>23.09398732578146</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>24.3215821959051</v>
+        <v>33.58121483876806</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>24.19569662071828</v>
+        <v>9.775090440423636</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>24.24897047307773</v>
+        <v>18.53591774260093</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>24.2754730374424</v>
+        <v>22.09792105530733</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>24.18610389191647</v>
+        <v>5.913575416724594</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.30412605184662</v>
+        <v>25.73856432556384</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>24.35733081111012</v>
+        <v>37.16516263415962</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.31717751110514</v>
+        <v>24.59264234146905</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>24.38188263208196</v>
+        <v>39.79179766275883</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>24.41835902480425</v>
+        <v>44.96243042826881</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>24.20275483704756</v>
+        <v>10.70251264899969</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>24.29323838344722</v>
+        <v>21.80022957090799</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>24.35714820584782</v>
+        <v>31.56462677673413</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>24.41512072650461</v>
+        <v>50.69910606078571</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>24.40975984864713</v>
+        <v>46.87495503310889</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>24.45781118073283</v>
+        <v>54.84593248597388</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>24.47426466675837</v>
+        <v>56.20535897163673</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>24.27940891217321</v>
+        <v>22.79122810238112</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>24.43933939731026</v>
+        <v>53.79044888656662</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>24.46671806754248</v>
+        <v>55.48583545685338</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>24.27760523842702</v>
+        <v>24.96988970853452</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>24.37023972638229</v>
+        <v>37.32224877393857</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>24.39396894085739</v>
+        <v>43.32356880117277</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>24.24927256553693</v>
+        <v>16.9217876535966</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>24.38670273283214</v>
+        <v>42.81738874139323</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>24.4062478307287</v>
+        <v>45.94587775691337</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>24.25446446266159</v>
+        <v>13.59256030130749</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>24.45474574343583</v>
+        <v>60.66161258864196</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>24.49695610520604</v>
+        <v>65.63518513738869</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>24.55867664430876</v>
+        <v>71.37158455602224</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>24.60332535638063</v>
+        <v>75.4430329352229</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>24.63090293124614</v>
+        <v>80.20859853166036</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>24.33516845323102</v>
+        <v>35.05631198644237</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>24.55598042387551</v>
+        <v>71.90009839098272</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>24.59418584372476</v>
+        <v>75.94685812692904</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>24.41819527501319</v>
+        <v>53.33073957709682</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>24.39004866642952</v>
+        <v>37.56903806131133</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>24.43167010559641</v>
+        <v>45.11642323022608</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>24.46234335374217</v>
+        <v>55.4167558226592</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>24.24024976000207</v>
+        <v>14.56202392690192</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>24.41942667246172</v>
+        <v>47.65528414984602</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>24.4587151184902</v>
+        <v>53.43685575335826</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>24.24912632390132</v>
+        <v>18.11224451120151</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>24.35030559080044</v>
+        <v>33.69372097510583</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>24.38209529543475</v>
+        <v>41.70961478912825</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>24.23273279449389</v>
+        <v>14.88537220408776</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>24.37843250724907</v>
+        <v>42.75215745822007</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>24.4082617202614</v>
+        <v>47.25445367769188</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>24.24267005793288</v>
+        <v>11.01619781420784</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>24.45113044515504</v>
+        <v>59.11166743986857</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>24.50183326102286</v>
+        <v>68.46916922658792</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>24.55163221076986</v>
+        <v>67.1044279019023</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>24.58915514064476</v>
+        <v>71.74661493295613</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>24.62976398757316</v>
+        <v>82.82998954089797</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>24.2993858746343</v>
+        <v>23.72383292339368</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>24.54573280545225</v>
+        <v>65.47268728295171</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>24.59468429417648</v>
+        <v>74.01233323460764</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>24.37876180768174</v>
+        <v>50.48248581961205</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>24.30627693344069</v>
+        <v>23.26775477976947</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>24.34768169454417</v>
+        <v>29.92654309555583</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>24.39499188767386</v>
+        <v>41.08820892808072</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>24.21973917730136</v>
+        <v>9.897763354434202</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>24.35650970056977</v>
+        <v>39.99850494298956</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>24.40985990063255</v>
+        <v>49.0339592576539</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>24.24746532551513</v>
+        <v>12.74393225345922</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>24.32514653805299</v>
+        <v>32.86460045922365</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>24.37076921145108</v>
+        <v>44.44865651979492</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>24.24159968203745</v>
+        <v>14.34091079872202</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>24.34776653461788</v>
+        <v>39.97860383464447</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>24.39091590187245</v>
+        <v>48.39774147531737</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>24.23609399104465</v>
+        <v>7.718346871524879</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>24.39781981311967</v>
+        <v>51.23569944844078</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>24.46039246060868</v>
+        <v>66.81082550664044</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>24.44230607691131</v>
+        <v>55.81320012377422</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>24.48962108466804</v>
+        <v>63.63378712794864</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>24.55095071538628</v>
+        <v>79.7112703369402</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>24.26415293400147</v>
+        <v>14.78712401523776</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>24.45537112317374</v>
+        <v>57.10288501748621</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>24.53079193947505</v>
+        <v>71.48077366351792</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test3/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.870004498574119</v>
+        <v>7.870004498573902</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.82812456309658</v>
+        <v>6.828124563096434</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.57590949283491</v>
+        <v>18.5759094928349</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.109907787750064</v>
+        <v>-1.109907787750185</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.693017042572546</v>
+        <v>8.693017042571984</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11.1587539609667</v>
+        <v>11.15875396096659</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.394872484495529</v>
+        <v>2.394872484495206</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>18.83366519817477</v>
+        <v>18.83366519817447</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.62035407985721</v>
+        <v>25.62035407985697</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9.168803338493362</v>
+        <v>9.168803338493223</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>13.31262665035537</v>
+        <v>13.31262665035502</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16.08156353797903</v>
+        <v>16.08156353797895</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.18963753610581</v>
+        <v>16.18963753610562</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.03753396471773</v>
+        <v>15.0375339647177</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.01374865469343</v>
+        <v>32.01374865469337</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.986331173627285</v>
+        <v>5.986331173627292</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21.82803243875649</v>
+        <v>21.82803243875637</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.81599294992825</v>
+        <v>27.81599294992823</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.161936843606536</v>
+        <v>-1.161936843606671</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.370844441089165</v>
+        <v>9.370844441088927</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>13.51651064245845</v>
+        <v>13.51651064245853</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.875563756716037</v>
+        <v>-0.8755637567159908</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22.83392004634466</v>
+        <v>22.83392004634443</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9.235283039775144</v>
+        <v>9.235283039775304</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>14.13190966983383</v>
+        <v>14.13190966983369</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>20.71021760225675</v>
+        <v>20.71021760225678</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.9663597550505045</v>
+        <v>-0.9663597550504761</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.87763950163299</v>
+        <v>21.87763950163297</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.99500927042826</v>
+        <v>22.99500927042838</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.610507260494231</v>
+        <v>4.610507260494298</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.1752593102486</v>
+        <v>29.17525931024871</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.64999462431506</v>
+        <v>32.64999462431529</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>31.49151507149464</v>
+        <v>31.49151507149455</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35.5182553942468</v>
+        <v>35.51825539424659</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>37.82869451574182</v>
+        <v>37.82869451574163</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20.81647257532579</v>
+        <v>20.81647257532625</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>44.01993235261833</v>
+        <v>44.0199323526186</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>50.47866900810148</v>
+        <v>50.47866900810146</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13.55947606744954</v>
+        <v>13.55947606744974</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.17971033195359</v>
+        <v>33.17971033195391</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.31532394013299</v>
+        <v>36.31532394013337</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.437930332317965</v>
+        <v>3.437930332318061</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.91934674895668</v>
+        <v>30.91934674895661</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.52896825500034</v>
+        <v>35.52896825500021</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.59461481989079</v>
+        <v>5.594614819890868</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>51.9200535108867</v>
+        <v>51.92005351088671</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-0.5703816889028417</v>
+        <v>-0.570381688902927</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6.048377706867431</v>
+        <v>6.048377706867548</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>17.97953377584412</v>
+        <v>17.97953377584425</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-3.522435672927802</v>
+        <v>-3.522435672927472</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>17.95153158531372</v>
+        <v>17.95153158531362</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>22.1879974311248</v>
+        <v>22.18799743112488</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5.444642553456351</v>
+        <v>5.444642553456486</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.03401061745868</v>
+        <v>28.03401061745832</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>36.76711362488237</v>
+        <v>36.76711362488224</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.38750181539104</v>
+        <v>34.38750181539059</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>39.39492548615067</v>
+        <v>39.39492548615033</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>41.62637615346407</v>
+        <v>41.62637615346403</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.392481955393194</v>
+        <v>1.392481955392746</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.28272319829193</v>
+        <v>30.28272319829176</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>38.36749948541468</v>
+        <v>38.36749948541437</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>8.492241807905799</v>
+        <v>8.492241807905835</v>
       </c>
     </row>
     <row r="64">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.099593116249206</v>
+        <v>2.099593116249167</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.10356000203498</v>
+        <v>25.10356000203507</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.79681178232513</v>
+        <v>34.79681178232516</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5.180790270096402</v>
+        <v>5.180790270096185</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.78286188548707</v>
+        <v>45.78286188548679</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-2.690251757394233</v>
+        <v>-2.690251757394197</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2.325649354294672</v>
+        <v>2.325649354294697</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>18.41672520089467</v>
+        <v>18.41672520089453</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-4.580558588973048</v>
+        <v>-4.580558588973005</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>15.85965360493899</v>
+        <v>15.85965360493904</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>24.19487700575328</v>
+        <v>24.19487700575341</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-2.801949845225824</v>
+        <v>-2.801949845225796</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>21.9352564559407</v>
+        <v>21.93525645594077</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>34.90186368560877</v>
+        <v>34.90186368560865</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>24.21719413282361</v>
+        <v>24.21719413282368</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>27.99807371860661</v>
+        <v>27.99807371860678</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.69652370690878</v>
+        <v>36.69652370690893</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1.848230272957839</v>
+        <v>-1.848230272957778</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>22.93206416715792</v>
+        <v>22.93206416715818</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>40.42669212530807</v>
+        <v>40.42669212530773</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>3.089549517418487</v>
+        <v>3.089549517418508</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>23.15760501911294</v>
+        <v>23.15760501911303</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>33.50647871614166</v>
+        <v>33.50647871614148</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1.393670097327764</v>
+        <v>1.393670097327529</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>20.5790051302815</v>
+        <v>20.57900513028131</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>34.40698207489429</v>
+        <v>34.40698207489385</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2.561219927411216</v>
+        <v>2.561219927411035</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.2995693060635</v>
+        <v>36.29956930606327</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.88046215222235</v>
+        <v>28.88046215222223</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>24.6903861395141</v>
+        <v>24.69038613951425</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>37.48866075800072</v>
+        <v>37.48866075800069</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>39.95647672601297</v>
+        <v>39.95647672601288</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.022566173177708</v>
+        <v>9.022566173177623</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>21.84870203226471</v>
+        <v>21.84870203226455</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.27520734291922</v>
+        <v>28.27520734291905</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10.55406479693673</v>
+        <v>10.55406479693658</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>22.53622604077409</v>
+        <v>22.53622604077405</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>36.77289455047371</v>
+        <v>36.77289455047358</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-4.716228154947675</v>
+        <v>-4.71622815494776</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>9.369610155935771</v>
+        <v>9.369610155935732</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>18.32476024367149</v>
+        <v>18.32476024367148</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1.443648221569319</v>
+        <v>-1.443648221569234</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>26.75948360586906</v>
+        <v>26.75948360586898</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>45.31254080782526</v>
+        <v>45.31254080782525</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.77577408381602</v>
+        <v>29.77577408381583</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>47.7004035374386</v>
+        <v>47.70040353743867</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>52.97345716802793</v>
+        <v>52.97345716802802</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6.659820282060274</v>
+        <v>6.659820282060011</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>24.96300931799147</v>
+        <v>24.96300931799139</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>39.33601601954093</v>
+        <v>39.33601601954066</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>59.42742341025338</v>
+        <v>59.42742341025298</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>50.87928602881462</v>
+        <v>50.87928602881485</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>58.95621882822353</v>
+        <v>58.95621882822336</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>61.67099778616033</v>
+        <v>61.67099778616065</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>17.82848315919209</v>
+        <v>17.828483159192</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>58.53730519419224</v>
+        <v>58.53730519419187</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>59.16577100629966</v>
+        <v>59.16577100630004</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>18.94191686987556</v>
+        <v>18.94191686987589</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.03800993622482</v>
+        <v>39.03800993622463</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>46.73453079595345</v>
+        <v>46.73453079595328</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>5.110923197618575</v>
+        <v>5.110923197618533</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.66917864930871</v>
+        <v>43.66917864930878</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>48.40774510264008</v>
+        <v>48.40774510264023</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>8.126128950006731</v>
+        <v>8.126128950006542</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>68.82633182844776</v>
+        <v>68.82633182844808</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>75.80159391306191</v>
+        <v>75.80159391306201</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>77.39870345773825</v>
+        <v>77.39870345773822</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>83.56293067456073</v>
+        <v>83.56293067456079</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>88.96927798288203</v>
+        <v>88.96927798288178</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>27.71583152443928</v>
+        <v>27.71583152443912</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>78.39227458822123</v>
+        <v>78.39227458822097</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>83.08152105005328</v>
+        <v>83.08152105005357</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>61.80115054057369</v>
+        <v>61.80115054057333</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.51678487794523</v>
+        <v>44.51678487794514</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>51.80297372926498</v>
+        <v>51.80297372926492</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>61.39093830619813</v>
+        <v>61.39093830619803</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>8.456003752859331</v>
+        <v>8.45600375285904</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>52.9002647801352</v>
+        <v>52.90026478013503</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>56.11613829708913</v>
+        <v>56.11613829708912</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>12.05970427851062</v>
+        <v>12.05970427851067</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.11597625608078</v>
+        <v>35.11597625608093</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>44.73425197272098</v>
+        <v>44.73425197272111</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>3.472985652782619</v>
+        <v>3.472985652782484</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>43.10753794192374</v>
+        <v>43.10753794192355</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>49.51557782681277</v>
+        <v>49.5155778268128</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>7.029345823990504</v>
+        <v>7.029345823990447</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>68.75375997294768</v>
+        <v>68.75375997294772</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>78.66366662377231</v>
+        <v>78.6636666237724</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>75.88616308879375</v>
+        <v>75.88616308879354</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>82.69307333190503</v>
+        <v>82.69307333190491</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>92.83783417886755</v>
+        <v>92.83783417886738</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>15.53347246783203</v>
+        <v>15.53347246783198</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>75.43048355394032</v>
+        <v>75.43048355394012</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>81.64763792083619</v>
+        <v>81.64763792083625</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>56.17196323589533</v>
+        <v>56.17196323589562</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.21118919729894</v>
+        <v>29.21118919729897</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.27372350379098</v>
+        <v>37.27372350379092</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.18758901071175</v>
+        <v>45.18758901071182</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6.791381075684697</v>
+        <v>6.791381075684452</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.78300176392998</v>
+        <v>46.78300176392976</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>52.41470912672126</v>
+        <v>52.41470912672114</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>7.794671189717938</v>
+        <v>7.79467118971786</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.10114447580806</v>
+        <v>34.10114447580791</v>
       </c>
     </row>
     <row r="169">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2.328484632119377</v>
+        <v>2.328484632119306</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>37.33535643091592</v>
+        <v>37.33535643091589</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>48.61911904888765</v>
+        <v>48.61911904888761</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.014955618714126</v>
+        <v>3.014955618714268</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>59.20064957449549</v>
+        <v>59.20064957449536</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>76.91569176218016</v>
+        <v>76.91569176217996</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>65.58751420643949</v>
+        <v>65.58751420643938</v>
       </c>
     </row>
     <row r="177">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>88.47292593372055</v>
+        <v>88.47292593372043</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>10.72027514407098</v>
+        <v>10.72027514407089</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>73.02602582586738</v>
+        <v>73.02602582586736</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>81.7042454449622</v>
+        <v>81.70424544496211</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>16.60052546159304</v>
+        <v>16.60052546159289</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>7.926008320177761</v>
+        <v>7.926008320177683</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>16.77378675624379</v>
+        <v>16.77378675624368</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1.690550500222663</v>
+        <v>1.690550500223026</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.07546020189674962</v>
+        <v>0.07546020189693436</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1.0003011054952</v>
+        <v>1.000301105495392</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.654165708254229</v>
+        <v>6.654165708254261</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>7.133779059534763</v>
+        <v>7.133779059534859</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>12.67493680700206</v>
+        <v>12.67493680700225</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>6.297845847410375</v>
+        <v>6.297845847410063</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>12.59583555807695</v>
+        <v>12.59583555807689</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>13.99778387288462</v>
+        <v>13.99778387288453</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.92525090359169</v>
+        <v>18.92525090359167</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>6.713694114958663</v>
+        <v>6.713694114958756</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>7.305826596730501</v>
+        <v>7.305826596731038</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>6.593233807145584</v>
+        <v>6.593233807145438</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>19.06275422847801</v>
+        <v>19.06275422847812</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.00761868766426</v>
+        <v>28.00761868766422</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-3.74337013380687</v>
+        <v>-3.743370133806792</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>3.362358341041993</v>
+        <v>3.362358341042334</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>7.866505633362948</v>
+        <v>7.866505633362856</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.8013971205331352</v>
+        <v>0.8013971205331529</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>14.84348152827933</v>
+        <v>14.8434815282791</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16.4360314768772</v>
+        <v>16.43603147687711</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>12.64427178502136</v>
+        <v>12.64427178502124</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>18.31221117371368</v>
+        <v>18.31221117371387</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2.430771060496717</v>
+        <v>2.430771060496735</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>11.36686451148118</v>
+        <v>11.36686451148153</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>12.61734563523592</v>
+        <v>12.61734563523612</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>9.748627049297175</v>
+        <v>9.748627049297214</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>19.08962153284991</v>
+        <v>19.0896215328498</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>22.42905460629179</v>
+        <v>22.42905460629168</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>25.31121327744781</v>
+        <v>25.31121327744776</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.45946012877721</v>
+        <v>34.45946012877731</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>34.87037955694187</v>
+        <v>34.87037955694169</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>24.75902989363761</v>
+        <v>24.75902989363749</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>33.93169789303106</v>
+        <v>33.93169789303099</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>27.19195147707544</v>
+        <v>27.19195147707586</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>12.13741200812945</v>
+        <v>12.13741200812929</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.16261362566028</v>
+        <v>28.16261362566044</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>37.22654834390005</v>
+        <v>37.22654834390008</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>2.668853768332095</v>
+        <v>2.668853768332077</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>23.34005186271254</v>
+        <v>23.34005186271259</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>35.54095620153306</v>
+        <v>35.54095620153316</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>8.686578921959022</v>
+        <v>8.686578921959079</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.30762326276793</v>
+        <v>42.30762326276806</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>5.470346368664096</v>
+        <v>5.470346368664067</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>4.783755822273474</v>
+        <v>4.783755822273395</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>14.0641010840243</v>
+        <v>14.06410108402456</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-1.07111908342106</v>
+        <v>-1.071119083420911</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>8.29786769746844</v>
+        <v>8.297867697468792</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>11.76288749174087</v>
+        <v>11.76288749174116</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>7.284553912367535</v>
+        <v>7.284553912367159</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>17.09555952729475</v>
+        <v>17.09555952729448</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>24.81691493832797</v>
+        <v>24.81691493832798</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>23.44380510131659</v>
+        <v>23.44380510131739</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>33.3377366724978</v>
+        <v>33.3377366724982</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>33.77500402377812</v>
+        <v>33.77500402377864</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>10.2422231871287</v>
+        <v>10.24222318712859</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.99891033240485</v>
+        <v>25.99891033240489</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>22.08670732049796</v>
+        <v>22.0867073204979</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>3.671450902690001</v>
+        <v>3.671450902689831</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>18.30049947053781</v>
+        <v>18.30049947053776</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.19431999028198</v>
+        <v>32.19431999028178</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-4.035673424712392</v>
+        <v>-4.035673424712634</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>11.03060209882349</v>
+        <v>11.0306020988234</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.69753659014898</v>
+        <v>30.69753659014888</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.1047770323804222</v>
+        <v>0.1047770323803938</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25.44970661310623</v>
+        <v>25.44970661310608</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>4.313146212414416</v>
+        <v>4.313146212414395</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1.473229292854523</v>
+        <v>1.473229292854562</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>12.86101526473724</v>
+        <v>12.86101526473727</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-2.793108415372632</v>
+        <v>-2.793108415372817</v>
       </c>
     </row>
     <row r="255">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>10.12516016079354</v>
+        <v>10.12516016079388</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1.719436188019735</v>
+        <v>1.719436188019799</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>10.49796249892224</v>
+        <v>10.49796249892242</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>20.61193425049141</v>
+        <v>20.6119342504915</v>
       </c>
     </row>
     <row r="260">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>18.97015042221913</v>
+        <v>18.97015042221916</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>19.45114958288635</v>
+        <v>19.45114958288639</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>6.514281688116547</v>
+        <v>6.514281688116235</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>16.79809991430255</v>
+        <v>16.79809991430201</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.91021684030614</v>
+        <v>16.9102168403064</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>2.129335956508172</v>
+        <v>2.129335956508157</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>16.49181745499908</v>
+        <v>16.49181745499883</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.99343280802896</v>
+        <v>32.99343280802901</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-2.083753323149718</v>
+        <v>-2.083753323149725</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>10.25094703947721</v>
+        <v>10.25094703947729</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.81995151309538</v>
+        <v>29.81995151309533</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>2.475875164460614</v>
+        <v>2.475875164460628</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>21.69447780141356</v>
+        <v>21.69447780141351</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>23.67837315828667</v>
+        <v>23.67837315828653</v>
       </c>
     </row>
     <row r="275">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>30.81887074327037</v>
+        <v>30.81887074327027</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>40.63154737515942</v>
+        <v>40.63154737515919</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>4.37028300407513</v>
+        <v>4.370283004074942</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.29074060067495</v>
+        <v>16.29074060067454</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.64171257324492</v>
+        <v>22.64171257324483</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>12.58733595213442</v>
+        <v>12.58733595213455</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>22.05481946044306</v>
+        <v>22.05481946044318</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.72729981532596</v>
+        <v>29.72729981532606</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-6.554909144993005</v>
+        <v>-6.55490914499299</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>1.815116483034178</v>
+        <v>1.815116483034242</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>6.567403742637055</v>
+        <v>6.567403742637033</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1.216026682367882</v>
+        <v>1.216026682367801</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>19.60018907376387</v>
+        <v>19.60018907376364</v>
       </c>
     </row>
     <row r="289">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>19.16934305793531</v>
+        <v>19.16934305793539</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>34.0171123878423</v>
+        <v>34.01711238784232</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.81934266438253</v>
+        <v>37.8193426643826</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.649288112809387</v>
+        <v>9.649288112809408</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>19.81843110636428</v>
+        <v>19.8184311063644</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>23.88733445185602</v>
+        <v>23.8873344518562</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>56.83684730400562</v>
+        <v>56.83684730400608</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>42.8370377703996</v>
+        <v>42.83703777039961</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>55.18240643327672</v>
+        <v>55.18240643327663</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>66.19157837963184</v>
+        <v>66.19157837963175</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>15.9998188996859</v>
+        <v>15.99981889968587</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>56.417954835971</v>
+        <v>56.41795483597102</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>60.79123004576659</v>
+        <v>60.79123004576654</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.1713343318432</v>
+        <v>23.17133433184316</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.38859217351086</v>
+        <v>38.38859217351125</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>45.42851283393596</v>
+        <v>45.42851283393597</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>6.808190148764346</v>
+        <v>6.808190148764439</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.81863320330997</v>
+        <v>32.81863320331003</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>41.96613536687131</v>
+        <v>41.96613536687113</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>17.92523541619587</v>
+        <v>17.92523541619605</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>62.35823603416242</v>
+        <v>62.35823603416261</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>66.14679783745544</v>
+        <v>66.14679783745564</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>68.81154717519101</v>
+        <v>68.81154717519092</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>76.68988745561303</v>
+        <v>76.6898874556131</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>83.39884421362098</v>
+        <v>83.39884421362129</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>38.68943715878073</v>
+        <v>38.68943715878076</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>76.80439779613926</v>
+        <v>76.80439779613954</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>79.8039664449787</v>
+        <v>79.80396644497917</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>52.63615179593706</v>
+        <v>52.63615179593702</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.40446080209944</v>
+        <v>25.4044608020994</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>40.55472953826069</v>
+        <v>40.55472953826071</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>60.65211512708808</v>
+        <v>60.65211512708784</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>4.227114024768071</v>
+        <v>4.227114024768127</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>45.54441004966724</v>
+        <v>45.54441004966731</v>
       </c>
     </row>
     <row r="324">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.01833619615686</v>
+        <v>14.01833619615674</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.75075702118227</v>
+        <v>30.75075702118256</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>41.9931046099219</v>
+        <v>41.99310460992187</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>2.275737689806721</v>
+        <v>2.275737689806597</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.90021812001412</v>
+        <v>28.9002181200141</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>41.77379892484312</v>
+        <v>41.77379892484302</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>11.32980792054434</v>
+        <v>11.32980792054404</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>54.34635581384043</v>
+        <v>54.34635581384031</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>65.88170815803667</v>
+        <v>65.88170815803659</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>58.98127667726199</v>
+        <v>58.98127667726213</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>70.39901957226476</v>
+        <v>70.39901957226469</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>84.03679286011995</v>
+        <v>84.03679286012004</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>24.74219123546253</v>
+        <v>24.74219123546272</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>69.5804271420341</v>
+        <v>69.5804271420343</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>77.65011951930022</v>
+        <v>77.65011951930053</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>50.95103425323028</v>
+        <v>50.95103425323005</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>14.16982285847766</v>
+        <v>14.16982285847781</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>26.30880323883804</v>
+        <v>26.30880323883791</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>45.02438667559796</v>
+        <v>45.02438667559775</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>3.583598202885227</v>
+        <v>3.583598202885327</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>37.22867896802506</v>
+        <v>37.22867896802482</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>48.83408292888367</v>
+        <v>48.83408292888335</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>12.69265013891285</v>
+        <v>12.69265013891282</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.74996851067015</v>
+        <v>31.74996851067003</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>45.62857912994282</v>
+        <v>45.62857912994293</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>2.542914108969729</v>
+        <v>2.542914108969761</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.85389470511361</v>
+        <v>25.8538947051137</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>40.13470732270057</v>
+        <v>40.13470732270058</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>9.771295440454887</v>
+        <v>9.77129544045491</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>46.8926926859974</v>
+        <v>46.8926926859971</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>64.60637984543995</v>
+        <v>64.60637984543993</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>44.51050510680852</v>
+        <v>44.51050510680843</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>60.52852512886001</v>
+        <v>60.52852512885998</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>76.73200266623434</v>
+        <v>76.73200266623437</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>15.97081310851069</v>
+        <v>15.97081310851074</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>60.16160749794618</v>
+        <v>60.16160749794624</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>69.95988607389954</v>
+        <v>69.9598860738998</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.52783636995906</v>
+        <v>15.52783636995921</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>21.33225605429887</v>
+        <v>21.33225605429867</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.32843827512131</v>
+        <v>25.32843827512124</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1.652130226293867</v>
+        <v>1.652130226293799</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>7.125511108619037</v>
+        <v>7.125511108619214</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>7.285614991106183</v>
+        <v>7.285614991106083</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>5.902192516136793</v>
+        <v>5.902192516136587</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>19.47347484919774</v>
+        <v>19.47347484919724</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>24.01542972136759</v>
+        <v>24.01542972136745</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.45014222127585</v>
+        <v>19.45014222127573</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.3818871728345</v>
+        <v>28.38188717283437</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>30.67383148732809</v>
+        <v>30.6738314873279</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>3.801386829686567</v>
+        <v>3.801386829686308</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>15.19988124941052</v>
+        <v>15.19988124941109</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>10.85577559924613</v>
+        <v>10.85577559924624</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>8.705628523086947</v>
+        <v>8.705628523087061</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>23.04238765165463</v>
+        <v>23.04238765165468</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.64691345804068</v>
+        <v>29.64691345804054</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1.79468408788885</v>
+        <v>-1.7946840878889</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>5.977450021157964</v>
+        <v>5.977450021157736</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>10.48218867456551</v>
+        <v>10.48218867456534</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>2.581397224633214</v>
+        <v>2.581397224633228</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>19.60441428792673</v>
+        <v>19.60441428792662</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>14.60551618189353</v>
+        <v>14.60551618189354</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.35111882243921</v>
+        <v>28.35111882243941</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.20959866137654</v>
+        <v>28.20959866137673</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3.915269589831858</v>
+        <v>3.91526958983178</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>21.94473090347848</v>
+        <v>21.94473090347832</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>22.1265778447117</v>
+        <v>22.12657784471159</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>8.79267852675612</v>
+        <v>8.792678526756116</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>34.12493879033136</v>
+        <v>34.12493879033178</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.25732986161827</v>
+        <v>35.25732986161838</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>39.03100430315728</v>
+        <v>39.03100430315745</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>48.26161488853057</v>
+        <v>48.26161488853064</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.70748822531455</v>
+        <v>45.70748822531418</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>8.809467197482807</v>
+        <v>8.809467197483279</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>44.79394523215258</v>
+        <v>44.79394523215319</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>37.99726857537928</v>
+        <v>37.99726857537959</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>10.97843990252967</v>
+        <v>10.97843990252975</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.51843434382936</v>
+        <v>32.51843434382923</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>38.06560945613831</v>
+        <v>38.06560945613836</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>3.289386506574282</v>
+        <v>3.289386506574203</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>26.5204720488468</v>
+        <v>26.52047204884673</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.42823124449843</v>
+        <v>36.42823124449851</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>8.275744172803773</v>
+        <v>8.275744172803691</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>47.1202934445792</v>
+        <v>47.120293444579</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.701331224270952</v>
+        <v>6.701331224270998</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>20.48881908931782</v>
+        <v>20.48881908931806</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>24.33974526624462</v>
+        <v>24.33974526624469</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>3.330423393566235</v>
+        <v>3.330423393566399</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>19.08920765361825</v>
+        <v>19.08920765361794</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.60951305851194</v>
+        <v>21.609513058512</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>9.450356225450719</v>
+        <v>9.450356225450673</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>32.11051379352909</v>
+        <v>32.11051379352924</v>
       </c>
     </row>
     <row r="416">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>38.49346810742873</v>
+        <v>38.49346810742909</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>48.24956176787757</v>
+        <v>48.24956176787785</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>43.90106794306082</v>
+        <v>43.90106794306054</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>4.233780270623296</v>
+        <v>4.233780270623058</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.28343616774308</v>
+        <v>37.28343616774293</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>32.02154672860214</v>
+        <v>32.02154672860189</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>3.121829278713832</v>
+        <v>3.121829278713722</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>22.35484843996383</v>
+        <v>22.35484843996377</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.10380061726705</v>
+        <v>33.10380061726708</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1.878835447516387</v>
+        <v>-1.878835447516526</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>15.01128754515995</v>
+        <v>15.01128754515986</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.37513199478002</v>
+        <v>32.37513199477985</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>1.450962448851495</v>
+        <v>1.450962448851634</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.1948319753367</v>
+        <v>31.19483197533656</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>6.982342947998518</v>
+        <v>6.982342947998653</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>16.50138863883197</v>
+        <v>16.50138863883202</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>23.87775028591145</v>
+        <v>23.87775028591153</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>1.81898585464771</v>
+        <v>1.818985854647842</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>15.24825903546576</v>
+        <v>15.24825903546544</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.45427214562721</v>
+        <v>20.45427214562702</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>4.067709509459984</v>
+        <v>4.067709509460077</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>23.94001095352018</v>
+        <v>23.94001095352002</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>33.58574421707634</v>
+        <v>33.58574421707603</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.67321298099749</v>
+        <v>27.67321298099755</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.2364442336321</v>
+        <v>35.23644423363219</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>35.02551925539416</v>
+        <v>35.02551925539433</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>5.892074681958878</v>
+        <v>5.892074681958793</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>31.82761593121166</v>
+        <v>31.82761593121123</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.63955587837727</v>
+        <v>28.63955587837718</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>3.768679301514428</v>
+        <v>3.768679301514446</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>19.49724791380881</v>
+        <v>19.49724791380878</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>34.61752390765717</v>
+        <v>34.61752390765716</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>0.5097428391828771</v>
+        <v>0.5097428391828061</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>12.45718022215403</v>
+        <v>12.45718022215391</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.07321987089026</v>
+        <v>32.07321987089001</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.258063904165365</v>
+        <v>4.258063904165343</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.82094969988137</v>
+        <v>24.82094969988103</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.89555003890295</v>
+        <v>27.89555003890305</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.37518585422624</v>
+        <v>23.37518585422613</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>35.68688911189679</v>
+        <v>35.68688911189663</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>41.49337708872544</v>
+        <v>41.49337708872548</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>0.5073925090628286</v>
+        <v>0.5073925090628144</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.41451057360258</v>
+        <v>19.41451057360248</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.47657022148582</v>
+        <v>25.47657022148578</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>11.85220125000917</v>
+        <v>11.85220125000911</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>24.36810197597108</v>
+        <v>24.36810197597081</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>31.95230654314528</v>
+        <v>31.95230654314511</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-5.309264290549017</v>
+        <v>-5.309264290549031</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>4.116277414250892</v>
+        <v>4.116277414250792</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>9.72345602088715</v>
+        <v>9.723456020887085</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>0.5693423204179631</v>
+        <v>0.5693423204178387</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>18.69823715035964</v>
+        <v>18.69823715035967</v>
       </c>
     </row>
     <row r="469">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>20.64381957368794</v>
+        <v>20.64381957368762</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>37.94223823197091</v>
+        <v>37.94223823197078</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>42.60700715399411</v>
+        <v>42.60700715399425</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>1.847254568306507</v>
+        <v>1.847254568306393</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>19.34204891121093</v>
+        <v>19.34204891121068</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.82485402943165</v>
+        <v>26.82485402943146</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>59.23696743086938</v>
+        <v>59.23696743086933</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>48.46181334322515</v>
+        <v>48.46181334322551</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>58.71339743660209</v>
+        <v>58.71339743660197</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>64.23749327256004</v>
+        <v>64.23749327256009</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>8.014210196282907</v>
+        <v>8.014210196283042</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>57.15187625066422</v>
+        <v>57.15187625066456</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>62.00122848556333</v>
+        <v>62.00122848556302</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>18.302039108092</v>
+        <v>18.30203910809207</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.55793476086434</v>
+        <v>40.55793476086421</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>44.75358832316545</v>
+        <v>44.75358832316552</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>5.448516122368517</v>
+        <v>5.448516122368645</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>35.32498128617533</v>
+        <v>35.32498128617542</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>42.39261106313307</v>
+        <v>42.39261106313319</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>13.45943821206336</v>
+        <v>13.45943821206315</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>60.57844743873579</v>
+        <v>60.57844743873582</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>65.75811832638945</v>
+        <v>65.75811832638934</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>69.07997702353069</v>
+        <v>69.07997702353094</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>76.7760097525954</v>
+        <v>76.77600975259531</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>81.54009296865739</v>
+        <v>81.54009296865758</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>20.60199141636629</v>
+        <v>20.60199141636634</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>71.2942439258305</v>
+        <v>71.29424392583053</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>75.82872436352801</v>
+        <v>75.8287243635282</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>55.57280174309858</v>
+        <v>55.57280174309862</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>34.69297349044332</v>
+        <v>34.69297349044328</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>46.59433061415294</v>
+        <v>46.5943306141528</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>60.80730127477813</v>
+        <v>60.80730127477799</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>0.1501296054008527</v>
+        <v>0.1501296054008705</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>47.93623795920462</v>
+        <v>47.93623795920473</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>57.886980273318</v>
+        <v>57.88698027331819</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>8.985971288095751</v>
+        <v>8.985971288095712</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.73972360450875</v>
+        <v>31.73972360450869</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>40.23964811175176</v>
+        <v>40.23964811175165</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>0.7826575211448201</v>
+        <v>0.7826575211447846</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.81192213541884</v>
+        <v>29.81192213541866</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>41.04684335302707</v>
+        <v>41.04684335302669</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>7.299431248251537</v>
+        <v>7.299431248251487</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>52.04826263714014</v>
+        <v>52.04826263714025</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>64.4419846036914</v>
+        <v>64.44198460369125</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>59.70334721836211</v>
+        <v>59.70334721836229</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>70.70875676563489</v>
+        <v>70.70875676563469</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>81.43504018240249</v>
+        <v>81.43504018240228</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>9.791828576796711</v>
+        <v>9.791828576796373</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>64.23290024845728</v>
+        <v>64.23290024845744</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>72.84089858199863</v>
+        <v>72.84089858199856</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>53.81096662931006</v>
+        <v>53.81096662931019</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>21.55677095666835</v>
+        <v>21.55677095666827</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.73183072414525</v>
+        <v>32.73183072414511</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>47.86345270266801</v>
+        <v>47.86345270266789</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>3.24466759857145</v>
+        <v>3.244667598571493</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>40.76422888415809</v>
+        <v>40.76422888415797</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>52.34745303405644</v>
+        <v>52.34745303405624</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>8.029573125186779</v>
+        <v>8.029573125186737</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.39882850608673</v>
+        <v>28.39882850608658</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>43.07787337656784</v>
+        <v>43.07787337656764</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-0.1997697646324639</v>
+        <v>-0.1997697646327339</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>21.83474837042158</v>
+        <v>21.83474837042145</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>38.19951325696304</v>
+        <v>38.19951325696268</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>4.096596614248224</v>
+        <v>4.096596614248025</v>
       </c>
     </row>
     <row r="534">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>61.35723648451067</v>
+        <v>61.35723648451078</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>40.94501818729816</v>
+        <v>40.94501818729824</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>59.63225553002327</v>
+        <v>59.63225553002329</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>74.078024220149</v>
+        <v>74.07802422014899</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>6.380949816055612</v>
+        <v>6.380949816055683</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>53.95267642192714</v>
+        <v>53.95267642192704</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>67.05629016524902</v>
+        <v>67.05629016524904</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>9.971757503625932</v>
+        <v>9.971757503625637</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.7864041941827</v>
+        <v>16.78640419418274</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>27.39479468955167</v>
+        <v>27.39479468955155</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1.321123469514436</v>
+        <v>-1.321123469514408</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.33159552090306</v>
+        <v>13.33159552090323</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>15.78914287134136</v>
+        <v>15.7891428713412</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.139814907566709</v>
+        <v>1.139814907566787</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.56136151812208</v>
+        <v>30.56136151812221</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.28543872311277</v>
+        <v>36.28543872311263</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.87086888522135</v>
+        <v>19.87086888522098</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.82743903047982</v>
+        <v>26.82743903048027</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.39857298624235</v>
+        <v>26.39857298624208</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>6.192664477283635</v>
+        <v>6.192664477283806</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.3935431264668</v>
+        <v>19.39354312646627</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>30.87135064342667</v>
+        <v>30.87135064342666</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.322592293798177</v>
+        <v>9.322592293798088</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.00699029679064</v>
+        <v>24.0069902967909</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.74777195970817</v>
+        <v>29.74777195970849</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.330645653920886</v>
+        <v>0.3306456539205875</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.71279378414083</v>
+        <v>10.71279378414051</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>12.66822590409172</v>
+        <v>12.6682259040916</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>1.183328561310201</v>
+        <v>1.183328561310251</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.89752530941681</v>
+        <v>23.89752530941666</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.62133086875632</v>
+        <v>16.62133086875633</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>33.32100288557275</v>
+        <v>33.32100288557261</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.9766735993356</v>
+        <v>35.97667359933551</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.219496051764178</v>
+        <v>4.21949605176431</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>35.82979189264984</v>
+        <v>35.82979189265041</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>36.45717857745727</v>
+        <v>36.45717857745751</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>6.972995022798024</v>
+        <v>6.97299502279791</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>50.41469000272589</v>
+        <v>50.41469000272559</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>50.13742724520398</v>
+        <v>50.13742724520414</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>52.42285631441528</v>
+        <v>52.42285631441502</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>58.80548830320603</v>
+        <v>58.80548830320595</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>57.52401392939165</v>
+        <v>57.52401392939205</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>17.54160625454838</v>
+        <v>17.54160625454839</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>55.41910908415475</v>
+        <v>55.41910908415485</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>60.14057904927913</v>
+        <v>60.14057904927956</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.04048004663881</v>
+        <v>15.04048004663873</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>36.39723662119065</v>
+        <v>36.39723662119066</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.94202238326672</v>
+        <v>35.94202238326687</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>3.8285997948784</v>
+        <v>3.828599794878439</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>32.92781465607698</v>
+        <v>32.92781465607705</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.95021570886153</v>
+        <v>34.95021570886188</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>5.615357639533137</v>
+        <v>5.615357639533059</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>54.47671950499639</v>
+        <v>54.47671950499629</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>4.640673123237349</v>
+        <v>4.640673123237548</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.822384143377</v>
+        <v>23.82238414337743</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>30.96458953303991</v>
+        <v>30.96458953304003</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>1.902792918451052</v>
+        <v>1.902792918451208</v>
       </c>
     </row>
     <row r="592">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>35.50662926762094</v>
+        <v>35.50662926762113</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>7.03862249336969</v>
+        <v>7.038622493369719</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>48.44458786387356</v>
+        <v>48.44458786387388</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>53.40566238643751</v>
+        <v>53.40566238643756</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>56.43303161041979</v>
+        <v>56.43303161041955</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>61.9543192415648</v>
+        <v>61.95431924156505</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>61.18651853315683</v>
+        <v>61.18651853315674</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>1.815827740503813</v>
+        <v>1.815827740503828</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>42.5848169252309</v>
+        <v>42.58481692523121</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>48.06458778520569</v>
+        <v>48.06458778520597</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>9.768633208397551</v>
+        <v>9.76863320839748</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.76061689456561</v>
+        <v>31.76061689456568</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>34.15458107231588</v>
+        <v>34.15458107231582</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>2.41803277573154</v>
+        <v>2.418032775731685</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>26.25158624354339</v>
+        <v>26.25158624354329</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.26323218019282</v>
+        <v>34.26323218019288</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>4.758687998410206</v>
+        <v>4.75868799841037</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>47.33532011545817</v>
+        <v>47.33532011545826</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>2.057245074271396</v>
+        <v>2.057245074271361</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>16.52758520435177</v>
+        <v>16.52758520435194</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.24571872696366</v>
+        <v>29.24571872696367</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>1.212719755351355</v>
+        <v>1.212719755350935</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>27.4125850990872</v>
+        <v>27.41258509908705</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>35.59167829823257</v>
+        <v>35.59167829823284</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>1.18982032079488</v>
+        <v>1.189820320794666</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>39.30198890195615</v>
+        <v>39.3019889019558</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>50.38918898188612</v>
+        <v>50.38918898188652</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>43.74696818205044</v>
+        <v>43.74696818205081</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>49.95722636086504</v>
+        <v>49.95722636086488</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>54.95751088756076</v>
+        <v>54.95751088756094</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>0.09367471952488771</v>
+        <v>0.09367471952520745</v>
       </c>
     </row>
     <row r="624">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>45.68725179156242</v>
+        <v>45.68725179156216</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>5.102686056717925</v>
+        <v>5.102686056717914</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.57118948730312</v>
+        <v>25.57118948730311</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>34.35686296021969</v>
+        <v>34.35686296021977</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>2.840980535935685</v>
+        <v>2.84098053593555</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.12018934414659</v>
+        <v>22.12018934414653</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>35.39020635468541</v>
+        <v>35.39020635468552</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>3.785322164325208</v>
+        <v>3.785322164325031</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.34070685370685</v>
+        <v>37.34070685370693</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.80383109012867</v>
+        <v>28.80383109012859</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.46849826454934</v>
+        <v>25.46849826454914</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>38.4531601972546</v>
+        <v>38.45316019725448</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>38.67322049862712</v>
+        <v>38.67322049862713</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>5.915145831286249</v>
+        <v>5.915145831286146</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>20.40808640748887</v>
+        <v>20.4080864074886</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.34427075514058</v>
+        <v>27.34427075514064</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>11.10794345539194</v>
+        <v>11.10794345539193</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>23.02438145732706</v>
+        <v>23.02438145732699</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.37306035027462</v>
+        <v>35.37306035027471</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-3.765966954421422</v>
+        <v>-3.765966954421067</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>8.300996334529863</v>
+        <v>8.300996334529891</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>14.87918444506827</v>
+        <v>14.8791844450682</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-1.195160530057056</v>
+        <v>-1.195160530057024</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>21.3312457497556</v>
+        <v>21.33124574975568</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.56332792253485</v>
+        <v>39.56332792253454</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>24.63768445663042</v>
+        <v>24.63768445663045</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>45.02287441268311</v>
+        <v>45.0228744126828</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>50.5087056734839</v>
+        <v>50.50870567348391</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>0.9674010011758867</v>
+        <v>0.9674010011760394</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>18.57086490745533</v>
+        <v>18.57086490745537</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.13525203689727</v>
+        <v>34.13525203689748</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>58.34064288347501</v>
+        <v>58.34064288347519</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>55.85675310363055</v>
+        <v>55.85675310363034</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>62.86414874481914</v>
+        <v>62.86414874481941</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>62.18278010731042</v>
+        <v>62.18278010731009</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>15.44515760825422</v>
+        <v>15.44515760825396</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>60.64597514064023</v>
+        <v>60.64597514064036</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>61.16545244496616</v>
+        <v>61.16545244496619</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>19.04030236232435</v>
+        <v>19.0403023623245</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>40.83298595829709</v>
+        <v>40.83298595829699</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>46.03736644748375</v>
+        <v>46.03736644748349</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>5.129244336713043</v>
+        <v>5.129244336713178</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>42.52887222928088</v>
+        <v>42.52887222928103</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>46.0990548682617</v>
+        <v>46.09905486826214</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>7.296527773845092</v>
+        <v>7.296527773845011</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>65.15871460476548</v>
+        <v>65.15871460476589</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>72.78735650949437</v>
+        <v>72.78735650949459</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>75.82121571244397</v>
+        <v>75.82121571244375</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>82.66955951516253</v>
+        <v>82.66955951516212</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>86.88697217116184</v>
+        <v>86.8869721711615</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>19.61600930878854</v>
+        <v>19.6160093087887</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>74.18380449256553</v>
+        <v>74.1838044925656</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>80.23391049091428</v>
+        <v>80.23391049091421</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>60.98068890876907</v>
+        <v>60.98068890876902</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>48.22932976046266</v>
+        <v>48.22932976046226</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>54.15501103327271</v>
+        <v>54.15501103327222</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>62.67880069152419</v>
+        <v>62.6788006915243</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>7.658177293576557</v>
+        <v>7.658177293576536</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>54.10604250785813</v>
+        <v>54.10604250785805</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>58.30295679665299</v>
+        <v>58.30295679665291</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>10.58991528122782</v>
+        <v>10.58991528122777</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.45313779341196</v>
+        <v>34.4531377934119</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.91734650015468</v>
+        <v>42.91734650015472</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>2.488335268184546</v>
+        <v>2.48833526818462</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>39.62515008643847</v>
+        <v>39.6251500864384</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>46.52057541971485</v>
+        <v>46.52057541971475</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>4.323062731265033</v>
+        <v>4.323062731265061</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>61.43309773746221</v>
+        <v>61.43309773746225</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>74.63779814398299</v>
+        <v>74.63779814398315</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>72.14768040043367</v>
+        <v>72.14768040043356</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>78.87875612460623</v>
+        <v>78.87875612460613</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>89.53691482232414</v>
+        <v>89.53691482232412</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>8.009391266199792</v>
+        <v>8.00939126619976</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>66.9855497288105</v>
+        <v>66.98554972881057</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>77.1767032327452</v>
+        <v>77.17670323274483</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>56.91564764062836</v>
+        <v>56.91564764062875</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.78150181742911</v>
+        <v>29.78150181742856</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>37.24517509130938</v>
+        <v>37.24517509130911</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>46.64626556412033</v>
+        <v>46.64626556412027</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>6.813538872955817</v>
+        <v>6.81353887295576</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>46.32237884051926</v>
+        <v>46.32237884051925</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>54.52336649135196</v>
+        <v>54.52336649135171</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>5.856141608267436</v>
+        <v>5.856141608267706</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.82647305544153</v>
+        <v>29.82647305544161</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>45.49430682527108</v>
+        <v>45.4943068252709</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>0.1474871846199335</v>
+        <v>0.1474871846198766</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.21371563386321</v>
+        <v>30.21371563386337</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>44.52278871651797</v>
+        <v>44.52278871651796</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-0.5890084116812204</v>
+        <v>-0.5890084116812275</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.76448054386751</v>
+        <v>45.7644805438676</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>70.74773864871851</v>
+        <v>70.74773864871827</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>52.96101814105982</v>
+        <v>52.96101814105992</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>68.99027692243193</v>
+        <v>68.99027692243195</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>84.18041348671164</v>
+        <v>84.18041348671136</v>
       </c>
     </row>
     <row r="719">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>57.32690916185486</v>
+        <v>57.326909161855</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>75.11069960564268</v>
+        <v>75.11069960564231</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>18.08726213807687</v>
+        <v>18.08726213807693</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.4042982133637</v>
+        <v>16.40429821336385</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.33345056895861</v>
+        <v>29.33345056895869</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>7.520087788551859</v>
+        <v>7.520087788551855</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>21.86835144059259</v>
+        <v>21.86835144059255</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>24.32513067736785</v>
+        <v>24.32513067736797</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>11.22964697024046</v>
+        <v>11.22964697024057</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>35.35879829575886</v>
+        <v>35.35879829575855</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>40.25387878152363</v>
+        <v>40.25387878152371</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>17.66665777902045</v>
+        <v>17.66665777902023</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>22.70562508863728</v>
+        <v>22.70562508863721</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>21.84985297083558</v>
+        <v>21.84985297083569</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.10873709657862</v>
+        <v>25.10873709657838</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>16.79002822399455</v>
+        <v>16.7900282239946</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>33.18145682410201</v>
+        <v>33.18145682410152</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>12.46009544642316</v>
+        <v>12.4600954464232</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>21.89179526431314</v>
+        <v>21.89179526431323</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.24347762630162</v>
+        <v>30.24347762630179</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>11.6859325612452</v>
+        <v>11.68593256124493</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>17.98518520222027</v>
+        <v>17.98518520222013</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>19.72119316227507</v>
+        <v>19.72119316227521</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>4.60638500223418</v>
+        <v>4.606385002234109</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>20.4799562620746</v>
+        <v>20.47995626207469</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.46023465173623</v>
+        <v>22.46023465173631</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.74198492005387</v>
+        <v>26.74198492005366</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.28556656247397</v>
+        <v>33.28556656247368</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>9.293329299237989</v>
+        <v>9.293329299237925</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>37.31850628055408</v>
+        <v>37.31850628055422</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>37.19345313029275</v>
+        <v>37.19345313029292</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>13.27785209545018</v>
+        <v>13.27785209545009</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>45.96073886059928</v>
+        <v>45.96073886059949</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>47.21664838681879</v>
+        <v>47.21664838681842</v>
       </c>
     </row>
     <row r="754">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>55.47612901321888</v>
+        <v>55.47612901321875</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>54.39388498660907</v>
+        <v>54.39388498660925</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>35.66883958525351</v>
+        <v>35.66883958525408</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>49.91313821714994</v>
+        <v>49.91313821715042</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>55.50005688770049</v>
+        <v>55.50005688770028</v>
       </c>
     </row>
     <row r="760">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.16876954660734</v>
+        <v>30.16876954660738</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.73361298567189</v>
+        <v>33.73361298567225</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>13.95203233960108</v>
+        <v>13.95203233960083</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.46245558708417</v>
+        <v>33.46245558708394</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.25831465381167</v>
+        <v>37.258314653812</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>8.714217786233025</v>
+        <v>8.714217786233078</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>44.44234728350608</v>
+        <v>44.44234728350591</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>9.847778045447118</v>
+        <v>9.847778045447138</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>19.30954833241555</v>
+        <v>19.30954833241546</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.29265167233422</v>
+        <v>29.29265167233439</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>5.386863486868464</v>
+        <v>5.386863486868418</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>34.93254703657664</v>
+        <v>34.93254703657656</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>36.81741631544161</v>
+        <v>36.81741631544119</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>11.30530480259461</v>
+        <v>11.30530480259435</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>45.80406056085658</v>
+        <v>45.80406056085624</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>51.74895024293302</v>
+        <v>51.7489502429329</v>
       </c>
     </row>
     <row r="777">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>57.31182838101208</v>
+        <v>57.31182838101204</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>57.34479021034286</v>
+        <v>57.34479021034269</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>14.72536365148875</v>
+        <v>14.72536365148824</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>40.00195333643644</v>
+        <v>40.00195333643633</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>47.55740052791209</v>
+        <v>47.55740052791183</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>13.91527880252018</v>
+        <v>13.91527880252014</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>27.77457113404465</v>
+        <v>27.7745711340445</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>32.79983131179827</v>
+        <v>32.79983131179838</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>11.60125761818963</v>
+        <v>11.60125761818969</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.62145536062547</v>
+        <v>27.6214553606257</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>36.10385805955335</v>
+        <v>36.10385805955347</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>6.882825069018146</v>
+        <v>6.882825069018168</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38.24851314464902</v>
+        <v>38.24851314464929</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>5.454104592318483</v>
+        <v>5.45410459231827</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>12.54306879318542</v>
+        <v>12.54306879318528</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>26.70647814328446</v>
+        <v>26.70647814328454</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>4.671768013554139</v>
+        <v>4.671768013554022</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.86795089202076</v>
+        <v>31.86795089202047</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>37.14568191426787</v>
+        <v>37.14568191426739</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>5.297227856827011</v>
+        <v>5.297227856827117</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>39.97139483184412</v>
+        <v>39.97139483184416</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>48.85074091199543</v>
+        <v>48.85074091199579</v>
       </c>
     </row>
     <row r="800">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>46.39984379145909</v>
+        <v>46.39984379145891</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>50.28675977401116</v>
+        <v>50.28675977401128</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>9.026942819627973</v>
+        <v>9.026942819627983</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>27.64899439265382</v>
+        <v>27.64899439265356</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>45.03404012139839</v>
+        <v>45.03404012139768</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>7.762986096617773</v>
+        <v>7.762986096617642</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>23.82389323640142</v>
+        <v>23.82389323640153</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>33.11298622323395</v>
+        <v>33.11298622323386</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>11.95985642633588</v>
+        <v>11.95985642633606</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>27.32330323573007</v>
+        <v>27.32330323572993</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>38.50342184795883</v>
+        <v>38.50342184795895</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>5.190076226155934</v>
+        <v>5.190076226156052</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.4037676464932</v>
+        <v>33.40376764649312</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>24.93916819512643</v>
+        <v>24.93916819512666</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>20.49652377077594</v>
+        <v>20.49652377077599</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>32.52006195824654</v>
+        <v>32.52006195824637</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>34.45601574611779</v>
+        <v>34.45601574611763</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.58865503921381</v>
+        <v>10.58865503921388</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>16.62567482587998</v>
+        <v>16.62567482587956</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>23.76336476734986</v>
+        <v>23.76336476734936</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>14.83755627162622</v>
+        <v>14.83755627162619</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>23.09398732578146</v>
+        <v>23.09398732578143</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.58121483876806</v>
+        <v>33.58121483876778</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>9.775090440423636</v>
+        <v>9.775090440423766</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>18.53591774260093</v>
+        <v>18.53591774260095</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.09792105530733</v>
+        <v>22.09792105530738</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.913575416724594</v>
+        <v>5.913575416724392</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.73856432556384</v>
+        <v>25.73856432556371</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>37.16516263415962</v>
+        <v>37.1651626341595</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.59264234146905</v>
+        <v>24.59264234146923</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>39.79179766275883</v>
+        <v>39.79179766275874</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>44.96243042826881</v>
+        <v>44.96243042826894</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>10.70251264899969</v>
+        <v>10.70251264899941</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>21.80022957090799</v>
+        <v>21.80022957090796</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.56462677673413</v>
+        <v>31.56462677673395</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>50.69910606078571</v>
+        <v>50.69910606078548</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.87495503310889</v>
+        <v>46.874955033109</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>54.84593248597388</v>
+        <v>54.84593248597425</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>56.20535897163673</v>
+        <v>56.20535897163681</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>22.79122810238112</v>
+        <v>22.79122810238118</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>53.79044888656662</v>
+        <v>53.79044888656669</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>55.48583545685338</v>
+        <v>55.48583545685323</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>24.96988970853452</v>
+        <v>24.96988970853461</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>37.32224877393857</v>
+        <v>37.32224877393821</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.32356880117277</v>
+        <v>43.32356880117268</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>16.9217876535966</v>
+        <v>16.92178765359681</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>42.81738874139323</v>
+        <v>42.81738874139295</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>45.94587775691337</v>
+        <v>45.94587775691357</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>13.59256030130749</v>
+        <v>13.59256030130765</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>60.66161258864196</v>
+        <v>60.66161258864204</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>65.63518513738869</v>
+        <v>65.63518513738873</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>71.37158455602224</v>
+        <v>71.37158455602247</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>75.4430329352229</v>
+        <v>75.44303293522259</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>80.20859853166036</v>
+        <v>80.20859853166021</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>35.05631198644237</v>
+        <v>35.05631198644233</v>
       </c>
     </row>
     <row r="856">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>75.94685812692904</v>
+        <v>75.9468581269293</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>53.33073957709682</v>
+        <v>53.33073957709726</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>37.56903806131133</v>
+        <v>37.56903806131169</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>45.11642323022608</v>
+        <v>45.116423230226</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>55.4167558226592</v>
+        <v>55.41675582265898</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>14.56202392690192</v>
+        <v>14.56202392690195</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>47.65528414984602</v>
+        <v>47.65528414984623</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>53.43685575335826</v>
+        <v>53.43685575335836</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>18.11224451120151</v>
+        <v>18.1122445112015</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>33.69372097510583</v>
+        <v>33.69372097510599</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.70961478912825</v>
+        <v>41.70961478912843</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>14.88537220408776</v>
+        <v>14.88537220408788</v>
       </c>
     </row>
     <row r="869">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>47.25445367769188</v>
+        <v>47.2544536776918</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>11.01619781420784</v>
+        <v>11.01619781420762</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>59.11166743986857</v>
+        <v>59.11166743986865</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>68.46916922658792</v>
+        <v>68.46916922658794</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>67.1044279019023</v>
+        <v>67.10442790190227</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>71.74661493295613</v>
+        <v>71.74661493295599</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>82.82998954089797</v>
+        <v>82.82998954089796</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.72383292339368</v>
+        <v>23.72383292339357</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>65.47268728295171</v>
+        <v>65.47268728295188</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>74.01233323460764</v>
+        <v>74.01233323460809</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>50.48248581961205</v>
+        <v>50.48248581961194</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>23.26775477976947</v>
+        <v>23.26775477976962</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.92654309555583</v>
+        <v>29.92654309555576</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>41.08820892808072</v>
+        <v>41.08820892808082</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>9.897763354434202</v>
+        <v>9.897763354434552</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>39.99850494298956</v>
+        <v>39.99850494298934</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>49.0339592576539</v>
+        <v>49.03395925765399</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>12.74393225345922</v>
+        <v>12.74393225345946</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.86460045922365</v>
+        <v>32.86460045922352</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>44.44865651979492</v>
+        <v>44.44865651979489</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>14.34091079872202</v>
+        <v>14.34091079872185</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>39.97860383464447</v>
+        <v>39.97860383464402</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>48.39774147531737</v>
+        <v>48.39774147531724</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>7.718346871524879</v>
+        <v>7.718346871524687</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>51.23569944844078</v>
+        <v>51.23569944844097</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>66.81082550664044</v>
+        <v>66.81082550664027</v>
       </c>
     </row>
     <row r="896">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>63.63378712794864</v>
+        <v>63.63378712794854</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>79.7112703369402</v>
+        <v>79.71127033694015</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>14.78712401523776</v>
+        <v>14.78712401523781</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>57.10288501748621</v>
+        <v>57.10288501748605</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>71.48077366351792</v>
+        <v>71.48077366351784</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.553</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.051</v>
+        <v>17.405</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.781</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.527</v>
+        <v>13.822</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.978</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.027</v>
+        <v>2.367</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.870004498573902</v>
+        <v>7.758311614601119</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.828124563096434</v>
+        <v>12.57476370675846</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.5759094928349</v>
+        <v>20.38425716949908</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.109907787750185</v>
+        <v>1.242987220633342</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.693017042571984</v>
+        <v>13.34025135873268</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11.15875396096659</v>
+        <v>14.60790851012881</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.394872484495206</v>
+        <v>5.004746414469032</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>18.83366519817447</v>
+        <v>25.69984195301945</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.62035407985697</v>
+        <v>28.29163043943468</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9.168803338493223</v>
+        <v>14.07671851054984</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>13.31262665035502</v>
+        <v>17.55026707631758</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16.08156353797895</v>
+        <v>18.80362315812383</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.18963753610562</v>
+        <v>13.46621254188065</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.0375339647177</v>
+        <v>13.05640614158055</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.01374865469337</v>
+        <v>28.49567357612283</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.986331173627292</v>
+        <v>8.335155302224248</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21.82803243875637</v>
+        <v>24.8913981512928</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.81599294992823</v>
+        <v>29.22922983399392</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.161936843606671</v>
+        <v>-0.762945690057677</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.370844441088927</v>
+        <v>8.850527536497697</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>13.51651064245853</v>
+        <v>15.41992471300044</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.8755637567159908</v>
+        <v>1.6632449077226</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22.83392004634443</v>
+        <v>25.75455511652711</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9.235283039775304</v>
+        <v>9.113030727321284</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>14.13190966983369</v>
+        <v>17.77758315342907</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>20.71021760225678</v>
+        <v>21.28758641451213</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.9663597550504761</v>
+        <v>0.7533045187530298</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.87763950163297</v>
+        <v>23.16798827032369</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.99500927042838</v>
+        <v>24.76372950800414</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.610507260494298</v>
+        <v>3.953082873218619</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.17525931024871</v>
+        <v>35.17811919618022</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.64999462431529</v>
+        <v>35.31484779994604</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>31.49151507149455</v>
+        <v>35.17051274413226</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35.51825539424659</v>
+        <v>41.57261271467155</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>37.82869451574163</v>
+        <v>40.98509874203106</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20.81647257532625</v>
+        <v>14.28817650003782</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>44.0199323526186</v>
+        <v>38.80453899978301</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>50.47866900810146</v>
+        <v>42.46544074158066</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13.55947606744974</v>
+        <v>15.77464143051926</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.17971033195391</v>
+        <v>31.01057771084623</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.31532394013337</v>
+        <v>34.33351606654206</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.437930332318061</v>
+        <v>0.6569556899665763</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.91934674895661</v>
+        <v>30.54485678483823</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.52896825500021</v>
+        <v>34.62209295625895</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.594614819890868</v>
+        <v>2.406388838424185</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>51.92005351088671</v>
+        <v>49.96496043351551</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-0.570381688902927</v>
+        <v>3.518622294903658</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6.048377706867548</v>
+        <v>12.49402482565479</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>17.97953377584425</v>
+        <v>22.72765787209814</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-3.522435672927472</v>
+        <v>0.57057585752775</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>17.95153158531362</v>
+        <v>22.11000918069735</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>22.18799743112488</v>
+        <v>24.52279867000703</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5.444642553456486</v>
+        <v>5.811123850582671</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.03401061745832</v>
+        <v>35.60229719465564</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>36.76711362488224</v>
+        <v>40.56939050038251</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.38750181539059</v>
+        <v>38.61750717682956</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>39.39492548615033</v>
+        <v>41.07791739731431</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>41.62637615346403</v>
+        <v>49.00163260074403</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.392481955392746</v>
+        <v>4.827148621717093</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.28272319829176</v>
+        <v>27.41382120112568</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>38.36749948541437</v>
+        <v>33.79071161299289</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>8.492241807905835</v>
+        <v>9.688576654694526</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.28505566602333</v>
+        <v>30.10047357467704</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>34.45232453838422</v>
+        <v>34.09362155351921</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.099593116249167</v>
+        <v>0.458746139290735</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.10356000203507</v>
+        <v>26.06070011012782</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.79681178232516</v>
+        <v>34.17413111264695</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5.180790270096185</v>
+        <v>4.213454192389417</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.78286188548679</v>
+        <v>47.46875453143615</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-2.690251757394197</v>
+        <v>1.65242139719167</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2.325649354294697</v>
+        <v>9.316126719806107</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>18.41672520089453</v>
+        <v>21.53465478594616</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-4.580558588973005</v>
+        <v>-0.09135096164759915</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>15.85965360493904</v>
+        <v>19.73498371104317</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>24.19487700575341</v>
+        <v>26.95255715874744</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-2.801949845225796</v>
+        <v>0.3615167679504196</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>21.93525645594077</v>
+        <v>29.05594676895828</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>34.90186368560865</v>
+        <v>38.80648368560415</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>24.21719413282368</v>
+        <v>30.73313801744492</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>27.99807371860678</v>
+        <v>34.47921351645045</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.69652370690893</v>
+        <v>42.68147100679001</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1.848230272957778</v>
+        <v>2.01672166494124</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>22.93206416715818</v>
+        <v>23.26352643277267</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>40.42669212530773</v>
+        <v>39.27414403585363</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>3.089549517418508</v>
+        <v>6.417822892507051</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>23.15760501911303</v>
+        <v>26.01618948605779</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>33.50647871614148</v>
+        <v>32.03799224920877</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1.393670097327529</v>
+        <v>0.3713234857346279</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>20.57900513028131</v>
+        <v>22.47921928320008</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>34.40698207489385</v>
+        <v>31.74897655325571</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2.561219927411035</v>
+        <v>1.125557121150035</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.29956930606327</v>
+        <v>36.52636543146432</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.88046215222223</v>
+        <v>30.11639221829698</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>24.69038613951425</v>
+        <v>22.48152114140601</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>37.48866075800069</v>
+        <v>39.89445651387076</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>39.95647672601288</v>
+        <v>39.68173232794896</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.022566173177623</v>
+        <v>8.043167071247712</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>21.84870203226455</v>
+        <v>20.75822402358717</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.27520734291905</v>
+        <v>28.87812997339807</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10.55406479693658</v>
+        <v>12.58174039363976</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>22.53622604077405</v>
+        <v>27.05861822452031</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>36.77289455047358</v>
+        <v>38.54260853740124</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-4.71622815494776</v>
+        <v>-0.808840372575137</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>9.369610155935732</v>
+        <v>7.682594100672873</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>18.32476024367148</v>
+        <v>16.52334987408567</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1.443648221569234</v>
+        <v>1.231789007421522</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>26.75948360586898</v>
+        <v>24.85288134953882</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>45.31254080782525</v>
+        <v>48.03769539190596</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.77577408381583</v>
+        <v>26.95849334422081</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>47.70040353743867</v>
+        <v>47.12655223600384</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>52.97345716802802</v>
+        <v>52.68208455719304</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6.659820282060011</v>
+        <v>6.571894090002175</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>24.96300931799139</v>
+        <v>22.7914092824641</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>39.33601601954066</v>
+        <v>36.20033646290231</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>59.42742341025298</v>
+        <v>56.86567147879113</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>50.87928602881485</v>
+        <v>51.85473550490454</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>58.95621882822336</v>
+        <v>58.72252996748207</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>61.67099778616065</v>
+        <v>59.34188325142553</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>17.828483159192</v>
+        <v>17.91610943953437</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>58.53730519419187</v>
+        <v>55.66208265718165</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>59.16577100630004</v>
+        <v>58.81689775698887</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>18.94191686987589</v>
+        <v>21.51649884601099</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.03800993622463</v>
+        <v>37.72996470989722</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>46.73453079595328</v>
+        <v>45.96006137694226</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>5.110923197618533</v>
+        <v>1.687388524734583</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.66917864930878</v>
+        <v>44.59334728087252</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>48.40774510264023</v>
+        <v>48.2337705093338</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>8.126128950006542</v>
+        <v>5.128878537427831</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>68.82633182844808</v>
+        <v>68.19278585435902</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>75.80159391306201</v>
+        <v>72.28015021728653</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>77.39870345773822</v>
+        <v>76.05284130288514</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>83.56293067456079</v>
+        <v>80.76275817707332</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>88.96927798288178</v>
+        <v>83.91962584344689</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>27.71583152443912</v>
+        <v>27.84913514461338</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>78.39227458822097</v>
+        <v>76.45829588361664</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>83.08152105005357</v>
+        <v>79.64283328766005</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>61.80115054057333</v>
+        <v>59.37257056138469</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.51678487794514</v>
+        <v>47.56508964442033</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>51.80297372926492</v>
+        <v>52.65622771500593</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>61.39093830619803</v>
+        <v>59.86378520265353</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>8.45600375285904</v>
+        <v>10.96267617492642</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>52.90026478013503</v>
+        <v>51.31411962671852</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>56.11613829708912</v>
+        <v>56.46078310079897</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>12.05970427851067</v>
+        <v>13.17533147015867</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.11597625608093</v>
+        <v>34.67602641696366</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>44.73425197272111</v>
+        <v>44.94328893876325</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>3.472985652782484</v>
+        <v>-0.005706423406341088</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>43.10753794192355</v>
+        <v>41.68061274378988</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>49.5155778268128</v>
+        <v>45.24260732423112</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>7.029345823990447</v>
+        <v>5.350972814773829</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>68.75375997294772</v>
+        <v>66.72245108493107</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>78.6636666237724</v>
+        <v>74.42053140628406</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>75.88616308879354</v>
+        <v>74.08085359669977</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>82.69307333190491</v>
+        <v>80.42105627605652</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>92.83783417886738</v>
+        <v>87.1160953709919</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>15.53347246783198</v>
+        <v>12.29182935223891</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>75.43048355394012</v>
+        <v>74.96833064985186</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>81.64763792083625</v>
+        <v>80.30870007356033</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>56.17196323589562</v>
+        <v>53.61074940665285</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.21118919729897</v>
+        <v>30.40507284531454</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.27372350379092</v>
+        <v>37.36829702151358</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.18758901071182</v>
+        <v>44.16088765684105</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6.791381075684452</v>
+        <v>7.237444206470816</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.78300176392976</v>
+        <v>45.02541480550106</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>52.41470912672114</v>
+        <v>51.09162016307415</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>7.79467118971786</v>
+        <v>9.031265379362313</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.10114447580791</v>
+        <v>32.88621709515289</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.96907211518769</v>
+        <v>46.00299090917927</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2.328484632119306</v>
+        <v>0.6752441363104538</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>37.33535643091589</v>
+        <v>36.48825191999532</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>48.61911904888761</v>
+        <v>46.15561769741818</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.014955618714268</v>
+        <v>1.489135869820341</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>59.20064957449536</v>
+        <v>58.95566061999267</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>76.91569176217996</v>
+        <v>72.9761449817789</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>65.58751420643938</v>
+        <v>64.61286461273691</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>78.95878785315145</v>
+        <v>78.00886281119274</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>88.47292593372043</v>
+        <v>86.40426122905644</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>10.72027514407089</v>
+        <v>7.803284247223015</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>73.02602582586736</v>
+        <v>71.27468276380597</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>81.70424544496211</v>
+        <v>78.82618582298662</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>16.60052546159289</v>
+        <v>18.11325248934897</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>7.926008320177683</v>
+        <v>20.03508149797941</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>16.77378675624368</v>
+        <v>23.71992823718445</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1.690550500223026</v>
+        <v>11.13712208348861</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.07546020189693436</v>
+        <v>17.17848925605043</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1.000301105495392</v>
+        <v>16.494972164878</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.654165708254261</v>
+        <v>15.74068731859173</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>7.133779059534859</v>
+        <v>25.56289723374188</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>12.67493680700225</v>
+        <v>26.05804873991428</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>6.297845847410063</v>
+        <v>18.86402714703339</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>12.59583555807689</v>
+        <v>22.71864028373238</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>13.99778387288453</v>
+        <v>23.3980292902462</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.92525090359167</v>
+        <v>23.421896138182</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>6.713694114958756</v>
+        <v>19.75035745935861</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>7.305826596731038</v>
+        <v>26.13847780998824</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>6.593233807145438</v>
+        <v>13.36510147076551</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>19.06275422847812</v>
+        <v>24.6934162687979</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.00761868766422</v>
+        <v>27.92910167679614</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-3.743370133806792</v>
+        <v>8.023872195505632</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>3.362358341042334</v>
+        <v>11.91245078264559</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>7.866505633362856</v>
+        <v>14.49496298491698</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.8013971205331529</v>
+        <v>10.43217487098094</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>14.8434815282791</v>
+        <v>20.91701730209603</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16.43603147687711</v>
+        <v>19.47040293385597</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>12.64427178502124</v>
+        <v>23.55162741234811</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>18.31221117371387</v>
+        <v>25.14911844099017</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2.430771060496735</v>
+        <v>11.30561934302397</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>11.36686451148153</v>
+        <v>24.42086392138325</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>12.61734563523612</v>
+        <v>25.68462198145529</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>9.748627049297214</v>
+        <v>14.84362165989023</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>19.0896215328498</v>
+        <v>34.73981097640559</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>22.42905460629168</v>
+        <v>34.38191971866155</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>25.31121327744776</v>
+        <v>35.25856585405349</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.45946012877731</v>
+        <v>41.18370835688695</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>34.87037955694169</v>
+        <v>41.17623528595068</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>24.75902989363749</v>
+        <v>25.33258165991032</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>33.93169789303099</v>
+        <v>37.81121247749771</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>27.19195147707586</v>
+        <v>37.50533031448118</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>12.13741200812929</v>
+        <v>17.79750862272599</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.16261362566044</v>
+        <v>29.32838259883266</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>37.22654834390008</v>
+        <v>33.47576086632285</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>2.668853768332077</v>
+        <v>9.075248353688533</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>23.34005186271259</v>
+        <v>26.30711764419387</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>35.54095620153316</v>
+        <v>31.99511954953155</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>8.686578921959079</v>
+        <v>11.60050164277067</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.30762326276806</v>
+        <v>38.54571384142127</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>5.470346368664067</v>
+        <v>15.29164874883675</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>4.783755822273395</v>
+        <v>19.67771350725307</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>14.06410108402456</v>
+        <v>23.89294136311513</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-1.071119083420911</v>
+        <v>10.24265964226063</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>8.297867697468792</v>
+        <v>23.35242193653223</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>11.76288749174116</v>
+        <v>24.42037503363481</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>7.284553912367159</v>
+        <v>13.67389158452974</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>17.09555952729448</v>
+        <v>32.91381409650027</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>24.81691493832798</v>
+        <v>36.30584850327476</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>23.44380510131739</v>
+        <v>35.37244787950759</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>33.3377366724982</v>
+        <v>38.94643132621247</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>33.77500402377864</v>
+        <v>42.29413731472708</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>10.24222318712859</v>
+        <v>18.2176868836254</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.99891033240489</v>
+        <v>31.08467145069579</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>22.0867073204979</v>
+        <v>33.18210850015965</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>3.671450902689831</v>
+        <v>13.1658635380807</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>18.30049947053776</v>
+        <v>25.44306093824695</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.19431999028178</v>
+        <v>33.02484413645875</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-4.035673424712634</v>
+        <v>8.333964320204881</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>11.0306020988234</v>
+        <v>20.33266052536852</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.69753659014888</v>
+        <v>31.94113613706641</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.1047770323803938</v>
+        <v>11.09925290550283</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25.44970661310608</v>
+        <v>32.10155541365198</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>4.313146212414395</v>
+        <v>13.97001974935658</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1.473229292854562</v>
+        <v>16.44005775723965</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>12.86101526473727</v>
+        <v>21.91257839297848</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-2.793108415372817</v>
+        <v>10.13017582872417</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>5.470805600319743</v>
+        <v>21.72680427504645</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>10.12516016079388</v>
+        <v>24.79263073480906</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1.719436188019799</v>
+        <v>11.69205393580276</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>10.49796249892242</v>
+        <v>28.50941251410119</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>20.6119342504915</v>
+        <v>34.14988170670689</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>11.51015741130678</v>
+        <v>28.59539654360318</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>18.97015042221916</v>
+        <v>32.17573215203959</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>19.45114958288639</v>
+        <v>35.62811942098775</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>6.514281688116235</v>
+        <v>15.44770639598771</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>16.79809991430201</v>
+        <v>26.11814891729113</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.9102168403064</v>
+        <v>31.93276199388001</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>2.129335956508157</v>
+        <v>11.47700106915284</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>16.49181745499883</v>
+        <v>22.54705254119197</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.99343280802901</v>
+        <v>30.62892027646703</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-2.083753323149725</v>
+        <v>8.543982442541605</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>10.25094703947729</v>
+        <v>18.54759273673898</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.81995151309533</v>
+        <v>30.18343572952098</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>2.475875164460628</v>
+        <v>10.27354500696853</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>21.69447780141351</v>
+        <v>26.74211072860136</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>23.67837315828653</v>
+        <v>23.6872587730908</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.85325427424347</v>
+        <v>21.39141263949815</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>30.81887074327027</v>
+        <v>32.22920019274778</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>40.63154737515919</v>
+        <v>35.36919654012234</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>4.370283004074942</v>
+        <v>12.88438978461907</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.29074060067454</v>
+        <v>18.48655845672875</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.64171257324483</v>
+        <v>23.224716555078</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>12.58733595213455</v>
+        <v>18.71990848246932</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>22.05481946044318</v>
+        <v>27.04711864724719</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.72729981532606</v>
+        <v>32.04329693577189</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-6.55490914499299</v>
+        <v>7.751665503135559</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>1.815116483034242</v>
+        <v>11.89628191025129</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>6.567403742637033</v>
+        <v>15.6567400474028</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1.216026682367801</v>
+        <v>10.96312465539552</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>19.60018907376364</v>
+        <v>22.58614440154869</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>25.54643284502573</v>
+        <v>32.31559208373612</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>19.16934305793539</v>
+        <v>24.54976514359142</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>34.01711238784232</v>
+        <v>34.32046459936125</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.8193426643826</v>
+        <v>36.62746123795315</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.649288112809408</v>
+        <v>14.19102417334653</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>19.8184311063644</v>
+        <v>21.38901570946974</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>23.8873344518562</v>
+        <v>27.04969488129928</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>56.83684730400608</v>
+        <v>46.84922011728194</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>42.83703777039961</v>
+        <v>40.20178205088949</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>55.18240643327663</v>
+        <v>49.07515392503051</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>66.19157837963175</v>
+        <v>50.8234977692016</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>15.99981889968587</v>
+        <v>19.57415945275883</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>56.41795483597102</v>
+        <v>46.3243630760917</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>60.79123004576654</v>
+        <v>50.31586701508159</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.17133433184316</v>
+        <v>25.05867875214158</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.38859217351125</v>
+        <v>35.33684350988521</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>45.42851283393597</v>
+        <v>40.66880148643233</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>6.808190148764439</v>
+        <v>10.55384589152314</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.81863320331003</v>
+        <v>33.99439578111528</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>41.96613536687113</v>
+        <v>39.12895748792914</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>17.92523541619605</v>
+        <v>17.12710831213615</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>62.35823603416261</v>
+        <v>52.52586807774445</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>66.14679783745564</v>
+        <v>56.51930292483242</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>68.81154717519092</v>
+        <v>57.98004748738741</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>76.6898874556131</v>
+        <v>62.24057342823444</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>83.39884421362129</v>
+        <v>65.08593747852581</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>38.68943715878076</v>
+        <v>32.08270063705284</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>76.80439779613954</v>
+        <v>60.48905344556759</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>79.80396644497917</v>
+        <v>63.31400572284767</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>52.63615179593702</v>
+        <v>48.06342431097015</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.4044608020994</v>
+        <v>32.83385495365443</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>40.55472953826071</v>
+        <v>39.68086223947152</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>60.65211512708784</v>
+        <v>50.28451081997059</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>4.227114024768127</v>
+        <v>13.94987548711155</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>45.54441004966731</v>
+        <v>41.12110796565661</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>55.99857554148937</v>
+        <v>48.5410590604212</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.01833619615674</v>
+        <v>18.43309062439754</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.75075702118256</v>
+        <v>31.73273245584799</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>41.99310460992187</v>
+        <v>39.24669487536706</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>2.275737689806597</v>
+        <v>8.914453690020203</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.9002181200141</v>
+        <v>32.07612688060899</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>41.77379892484302</v>
+        <v>38.76383309651517</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>11.32980792054404</v>
+        <v>13.78691402664277</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>54.34635581384031</v>
+        <v>47.68180930887671</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>65.88170815803659</v>
+        <v>57.35514124189519</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>58.98127667726213</v>
+        <v>53.46703886195496</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>70.39901957226469</v>
+        <v>59.14399552287293</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>84.03679286012004</v>
+        <v>66.72171731803775</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>24.74219123546272</v>
+        <v>21.10037152691077</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>69.5804271420343</v>
+        <v>56.31099409582627</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>77.65011951930053</v>
+        <v>63.67414043172357</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>50.95103425323005</v>
+        <v>45.14179269902722</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>14.16982285847781</v>
+        <v>22.4929657806614</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>26.30880323883791</v>
+        <v>28.99643949707103</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>45.02438667559775</v>
+        <v>39.87149024950315</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>3.583598202885327</v>
+        <v>12.07392357015615</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>37.22867896802482</v>
+        <v>34.81387363457062</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>48.83408292888335</v>
+        <v>44.22969436746458</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>12.69265013891282</v>
+        <v>15.64782893350825</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.74996851067003</v>
+        <v>30.60316724053733</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>45.62857912994293</v>
+        <v>39.54311442820407</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>2.542914108969761</v>
+        <v>9.130133664386186</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.8538947051137</v>
+        <v>29.55799952613168</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>40.13470732270058</v>
+        <v>38.62112231336368</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>9.77129544045491</v>
+        <v>11.60030193237012</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>46.8926926859971</v>
+        <v>43.31843810317582</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>64.60637984543993</v>
+        <v>56.65204615859665</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>44.51050510680843</v>
+        <v>44.70945016570499</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>60.52852512885998</v>
+        <v>52.79357652712677</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>76.73200266623437</v>
+        <v>64.02567981820582</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>15.97081310851074</v>
+        <v>14.92027701166321</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>60.16160749794624</v>
+        <v>48.33922978963528</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>69.9598860738998</v>
+        <v>60.54566794938587</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.52783636995921</v>
+        <v>17.35424308795245</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>21.33225605429867</v>
+        <v>23.95529431266079</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.32843827512124</v>
+        <v>26.76177546598134</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1.652130226293799</v>
+        <v>10.39767074223423</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>7.125511108619214</v>
+        <v>15.82220821379219</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>7.285614991106083</v>
+        <v>16.51935684932069</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>5.902192516136587</v>
+        <v>13.38075604918768</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>19.47347484919724</v>
+        <v>27.31599788182388</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>24.01542972136745</v>
+        <v>29.70712796676949</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.45014222127573</v>
+        <v>23.75750794196003</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.38188717283437</v>
+        <v>28.5095046932528</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>30.6738314873279</v>
+        <v>30.32176983712878</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>3.801386829686308</v>
+        <v>15.89974241670284</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>15.19988124941109</v>
+        <v>20.72046282400824</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>10.85577559924624</v>
+        <v>24.23115578714823</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>8.705628523087061</v>
+        <v>15.35875569279579</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>23.04238765165468</v>
+        <v>25.41250253694787</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.64691345804054</v>
+        <v>28.1592805040222</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1.7946840878889</v>
+        <v>8.008044802083731</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>5.977450021157736</v>
+        <v>12.51603726618583</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>10.48218867456534</v>
+        <v>15.49297189484709</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>2.581397224633228</v>
+        <v>10.09490225749908</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>19.60441428792662</v>
+        <v>22.50257289405673</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>14.60551618189354</v>
+        <v>18.48091618599933</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.35111882243941</v>
+        <v>28.53964233207408</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.20959866137673</v>
+        <v>28.10926703353076</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3.91526958983178</v>
+        <v>11.06037334335014</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>21.94473090347832</v>
+        <v>27.42112261297599</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>22.12657784471159</v>
+        <v>27.74222271954318</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>8.792678526756116</v>
+        <v>13.04401002080461</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>34.12493879033178</v>
+        <v>37.91678453120256</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.25732986161838</v>
+        <v>38.4662223256567</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>39.03100430315745</v>
+        <v>40.76080140686976</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>48.26161488853064</v>
+        <v>44.5172325696978</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.70748822531418</v>
+        <v>44.87662961222364</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>8.809467197483279</v>
+        <v>18.92133861806604</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>44.79394523215319</v>
+        <v>42.88195860296261</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>37.99726857537959</v>
+        <v>42.14547659841788</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>10.97843990252975</v>
+        <v>16.30352842025617</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.51843434382923</v>
+        <v>30.63454158308842</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>38.06560945613836</v>
+        <v>33.83357900103047</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>3.289386506574203</v>
+        <v>8.875190022558357</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>26.52047204884673</v>
+        <v>27.59088660010963</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.42823124449851</v>
+        <v>31.03573928372223</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>8.275744172803691</v>
+        <v>10.72677800676196</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>47.120293444579</v>
+        <v>40.58461279351829</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.701331224270998</v>
+        <v>13.5942842168711</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>20.48881908931806</v>
+        <v>22.78147484279545</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>24.33974526624469</v>
+        <v>25.93329673030471</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>3.330423393566399</v>
+        <v>10.33031707293618</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>19.08920765361794</v>
+        <v>25.44692392056141</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.609513058512</v>
+        <v>26.99439709032217</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>9.450356225450673</v>
+        <v>13.88512254214888</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>32.11051379352924</v>
+        <v>36.06556207382282</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>37.41428820033917</v>
+        <v>40.12092905235825</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>38.49346810742909</v>
+        <v>41.22843992520657</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>48.24956176787785</v>
+        <v>42.84724297405329</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>43.90106794306054</v>
+        <v>44.61870115225192</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>4.233780270623058</v>
+        <v>14.08875740326179</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.28343616774293</v>
+        <v>34.26613703484828</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>32.02154672860189</v>
+        <v>34.18030966472844</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>3.121829278713722</v>
+        <v>11.19003258022619</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>22.35484843996377</v>
+        <v>27.94122066033406</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.10380061726708</v>
+        <v>33.42701625867777</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1.878835447516526</v>
+        <v>8.438612170778878</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>15.01128754515986</v>
+        <v>21.38151905532076</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.37513199477985</v>
+        <v>32.22026264703439</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>1.450962448851634</v>
+        <v>10.80549607185755</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.19483197533656</v>
+        <v>34.28261757182418</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>6.982342947998653</v>
+        <v>13.24781623902968</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>16.50138863883202</v>
+        <v>20.68730289240055</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>23.87775028591153</v>
+        <v>25.42260220008278</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>1.818985854647842</v>
+        <v>10.19060486927787</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>15.24825903546544</v>
+        <v>23.65514962532799</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.45427214562702</v>
+        <v>28.87204356042102</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>4.067709509460077</v>
+        <v>11.20996966585862</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>23.94001095352002</v>
+        <v>32.6274799545711</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>33.58574421707603</v>
+        <v>39.21319261690309</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.67321298099755</v>
+        <v>33.69886644094566</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.23644423363219</v>
+        <v>37.53929289324267</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>35.02551925539433</v>
+        <v>40.43728189090665</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>5.892074681958793</v>
+        <v>14.53004099158839</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>31.82761593121123</v>
+        <v>32.63280496665617</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.63955587837718</v>
+        <v>34.6208140687203</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>3.768679301514446</v>
+        <v>10.73046136346283</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>19.49724791380878</v>
+        <v>23.39863103348824</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>34.61752390765716</v>
+        <v>31.25358448785536</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>0.5097428391828061</v>
+        <v>8.590387055167849</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>12.45718022215391</v>
+        <v>18.62422368896867</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.07321987089001</v>
+        <v>30.92404783814448</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.258063904165343</v>
+        <v>10.09841092923948</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.82094969988103</v>
+        <v>26.91742676148247</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.89555003890305</v>
+        <v>25.36893083299177</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.37518585422613</v>
+        <v>22.90607507034639</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>35.68688911189663</v>
+        <v>33.80144580860998</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>41.49337708872548</v>
+        <v>35.26336077637929</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>0.5073925090628144</v>
+        <v>11.76014043483819</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.41451057360248</v>
+        <v>19.49504754728651</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.47657022148578</v>
+        <v>24.77907532244544</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>11.85220125000911</v>
+        <v>16.71962731913605</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>24.36810197597081</v>
+        <v>27.21015076176499</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>31.95230654314511</v>
+        <v>32.3344855898963</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-5.309264290549031</v>
+        <v>7.846931945052518</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>4.116277414250792</v>
+        <v>11.81894715808804</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>9.723456020887085</v>
+        <v>15.93715501980148</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>0.5693423204178387</v>
+        <v>10.18681781518646</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>18.69823715035967</v>
+        <v>21.50855170279414</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.79235960548007</v>
+        <v>33.23556988645545</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>20.64381957368762</v>
+        <v>24.32427055893454</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>37.94223823197078</v>
+        <v>35.78065500083015</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>42.60700715399425</v>
+        <v>40.34254249620367</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>1.847254568306393</v>
+        <v>12.05782497998135</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>19.34204891121068</v>
+        <v>21.05801337033064</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.82485402943146</v>
+        <v>28.37803012720419</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>59.23696743086933</v>
+        <v>47.89881323871681</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>48.46181334322551</v>
+        <v>43.73878626006051</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>58.71339743660197</v>
+        <v>50.63065408330029</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>64.23749327256009</v>
+        <v>50.02834757063695</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>8.014210196283042</v>
+        <v>15.29107507859952</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>57.15187625066456</v>
+        <v>46.91586202787178</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>62.00122848556302</v>
+        <v>51.17731567896263</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>18.30203910809207</v>
+        <v>21.30450719298842</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.55793476086421</v>
+        <v>36.497589390737</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>44.75358832316552</v>
+        <v>39.73611707013253</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>5.448516122368645</v>
+        <v>10.12545956407941</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>35.32498128617542</v>
+        <v>35.53814188377532</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>42.39261106313319</v>
+        <v>38.07223453187342</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>13.45943821206315</v>
+        <v>14.59506610923358</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>60.57844743873582</v>
+        <v>53.13842586545911</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>65.75811832638934</v>
+        <v>55.58956750195121</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>69.07997702353094</v>
+        <v>60.54277355767745</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>76.77600975259531</v>
+        <v>63.31522116517188</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>81.54009296865758</v>
+        <v>65.651723837633</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>20.60199141636634</v>
+        <v>24.71297516998611</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>71.29424392583053</v>
+        <v>60.19605889605289</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>75.8287243635282</v>
+        <v>62.68506628537</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>55.57280174309862</v>
+        <v>48.54856465086466</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>34.69297349044328</v>
+        <v>36.52910997655634</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>46.5943306141528</v>
+        <v>42.31839732289396</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>60.80730127477799</v>
+        <v>51.2861029530098</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>0.1501296054008705</v>
+        <v>10.32384800260013</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>47.93623795920473</v>
+        <v>42.37095174415485</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>57.88698027331819</v>
+        <v>48.88589854130734</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>8.985971288095712</v>
+        <v>15.25104814754872</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.73972360450869</v>
+        <v>32.63606107318539</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>40.23964811175165</v>
+        <v>38.2932416355148</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>0.7826575211447846</v>
+        <v>8.471601248370607</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.81192213541866</v>
+        <v>30.53677034946584</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>41.04684335302669</v>
+        <v>38.31836500785999</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>7.299431248251487</v>
+        <v>12.64723909408806</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>52.04826263714025</v>
+        <v>46.29687229795427</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>64.44198460369125</v>
+        <v>56.28226980791182</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>59.70334721836229</v>
+        <v>54.29154135944607</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>70.70875676563469</v>
+        <v>59.98206376553703</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>81.43504018240228</v>
+        <v>66.99587473944422</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>9.791828576796373</v>
+        <v>15.42483767786665</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>64.23290024845744</v>
+        <v>54.82170588053002</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>72.84089858199856</v>
+        <v>62.05332924891822</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>53.81096662931019</v>
+        <v>46.41557510927835</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>21.55677095666827</v>
+        <v>23.79793111038427</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.73183072414511</v>
+        <v>31.01252448017812</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>47.86345270266789</v>
+        <v>41.09632235501449</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>3.244667598571493</v>
+        <v>10.41734825801841</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>40.76422888415797</v>
+        <v>37.38244189375393</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>52.34745303405624</v>
+        <v>46.02202959739095</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>8.029573125186737</v>
+        <v>13.5498391949702</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.39882850608658</v>
+        <v>29.4231350381854</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>43.07787337656764</v>
+        <v>38.7038135929367</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-0.1997697646327339</v>
+        <v>8.922194008195582</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>21.83474837042145</v>
+        <v>26.30186921743576</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>38.19951325696268</v>
+        <v>39.10028232684849</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>4.096596614248025</v>
+        <v>10.88975028923166</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.11584302370447</v>
+        <v>38.19114099599675</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>61.35723648451078</v>
+        <v>56.04327354920993</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>40.94501818729824</v>
+        <v>40.97938362708096</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>59.63225553002329</v>
+        <v>52.21677736152569</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>74.07802422014899</v>
+        <v>65.04235574125073</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>6.380949816055683</v>
+        <v>12.42814276399522</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>53.95267642192704</v>
+        <v>45.90342563575543</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>67.05629016524904</v>
+        <v>59.49638031729572</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>9.971757503625637</v>
+        <v>11.00217811417066</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.78640419418274</v>
+        <v>18.10046454960678</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>27.39479468955155</v>
+        <v>28.38879237546668</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1.321123469514408</v>
+        <v>2.19711691296569</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.33159552090323</v>
+        <v>13.16165124917025</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>15.7891428713412</v>
+        <v>15.46837046307352</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.139814907566787</v>
+        <v>4.688544206488412</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.56136151812221</v>
+        <v>29.64255105886061</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.28543872311263</v>
+        <v>35.15814019413688</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.87086888522098</v>
+        <v>20.75106131245728</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.82743903048027</v>
+        <v>26.47553838257644</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.39857298624208</v>
+        <v>27.00316667611622</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>6.192664477283806</v>
+        <v>10.06591769227992</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.39354312646627</v>
+        <v>16.73675086271952</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>30.87135064342666</v>
+        <v>27.69130009747373</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.322592293798088</v>
+        <v>11.67832927490898</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.0069902967909</v>
+        <v>25.44161542880747</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.74777195970849</v>
+        <v>28.28692359425583</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.3306456539205875</v>
+        <v>1.358460655039458</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.71279378414051</v>
+        <v>9.757295289713493</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>12.6682259040916</v>
+        <v>14.3434535888915</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>1.183328561310251</v>
+        <v>3.345967125511891</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.89752530941666</v>
+        <v>24.01910425081116</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.62133086875633</v>
+        <v>15.71820041231525</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>33.32100288557261</v>
+        <v>31.26851986872443</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.97667359933551</v>
+        <v>32.43643362979173</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.21949605176431</v>
+        <v>3.139755383711371</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>35.82979189265041</v>
+        <v>34.52119706268873</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>36.45717857745751</v>
+        <v>33.86659042900786</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>6.97299502279791</v>
+        <v>5.461940290297548</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>50.41469000272559</v>
+        <v>49.84219784790859</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>50.13742724520414</v>
+        <v>50.12212838893538</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>52.42285631441502</v>
+        <v>50.4822695100481</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>58.80548830320595</v>
+        <v>57.34156572372991</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>57.52401392939205</v>
+        <v>55.58694000950167</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>17.54160625454839</v>
+        <v>15.55958388305746</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>55.41910908415485</v>
+        <v>50.11463552593308</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>60.14057904927956</v>
+        <v>52.21590626731528</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.04048004663873</v>
+        <v>16.39559806036219</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>36.39723662119066</v>
+        <v>34.06524052156486</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.94202238326687</v>
+        <v>35.18020856783567</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>3.828599794878439</v>
+        <v>2.017991115681458</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>32.92781465607705</v>
+        <v>32.15594620979439</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.95021570886188</v>
+        <v>32.78967650520869</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>5.615357639533059</v>
+        <v>3.625059172319798</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>54.47671950499629</v>
+        <v>50.52605835802746</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>4.640673123237548</v>
+        <v>6.103884082292193</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.82238414337743</v>
+        <v>22.18947206081233</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>30.96458953304003</v>
+        <v>28.94960338847103</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>1.902792918451208</v>
+        <v>2.518876620994106</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.97219889767826</v>
+        <v>31.74688104360263</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>35.50662926762113</v>
+        <v>33.66415060349713</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>7.038622493369719</v>
+        <v>7.31085098879408</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>48.44458786387388</v>
+        <v>48.87249930482407</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>53.40566238643756</v>
+        <v>53.42896720644321</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>56.43303161041955</v>
+        <v>55.12600182412213</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>61.95431924156505</v>
+        <v>59.14714331968123</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>61.18651853315674</v>
+        <v>59.9518028914832</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>1.815827740503828</v>
+        <v>6.999763536427324</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>42.58481692523121</v>
+        <v>38.55724706900324</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>48.06458778520597</v>
+        <v>41.87727806539341</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>9.76863320839748</v>
+        <v>9.458739139369083</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.76061689456568</v>
+        <v>32.8754628358144</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>34.15458107231582</v>
+        <v>35.5344647048907</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>2.418032775731685</v>
+        <v>2.581870539329056</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>26.25158624354329</v>
+        <v>27.77651373933397</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.26323218019288</v>
+        <v>35.47006063839058</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>4.75868799841037</v>
+        <v>5.69726063821556</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>47.33532011545826</v>
+        <v>47.81509031763912</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>2.057245074271361</v>
+        <v>3.87979018866757</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>16.52758520435194</v>
+        <v>16.96793386563603</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.24571872696367</v>
+        <v>26.5742530035014</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>1.212719755350935</v>
+        <v>2.344086973845009</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>27.41258509908705</v>
+        <v>26.50968602870738</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>35.59167829823284</v>
+        <v>36.39259672280129</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>1.189820320794666</v>
+        <v>2.836872303281663</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>39.3019889019558</v>
+        <v>41.47579260057168</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>50.38918898188652</v>
+        <v>51.02245560592945</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>43.74696818205081</v>
+        <v>44.2533377026084</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>49.95722636086488</v>
+        <v>50.62651644734704</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>54.95751088756094</v>
+        <v>54.3004687362869</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>0.09367471952520745</v>
+        <v>5.533600463953984</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.41524912231431</v>
+        <v>32.0476767061006</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>45.68725179156216</v>
+        <v>41.80083266715253</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>5.102686056717914</v>
+        <v>6.602077390184359</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.57118948730311</v>
+        <v>26.27845286886991</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>34.35686296021977</v>
+        <v>32.5824815073921</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>2.84098053593555</v>
+        <v>2.05656505921867</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.12018934414653</v>
+        <v>22.02352777840366</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>35.39020635468552</v>
+        <v>33.59162611033878</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>3.785322164325031</v>
+        <v>2.723731087097498</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.34070685370693</v>
+        <v>35.53135609540734</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.80383109012859</v>
+        <v>29.74908909959218</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.46849826454914</v>
+        <v>22.36638350158101</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>38.45316019725448</v>
+        <v>37.52130807021739</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>38.67322049862713</v>
+        <v>38.52787257978477</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>5.915145831286146</v>
+        <v>7.206246682941558</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>20.4080864074886</v>
+        <v>20.87676923602848</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.34427075514064</v>
+        <v>28.23684398595173</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>11.10794345539193</v>
+        <v>11.99520908845459</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>23.02438145732699</v>
+        <v>25.87132395848604</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.37306035027471</v>
+        <v>35.71402992298373</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-3.765966954421067</v>
+        <v>1.267318263617689</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>8.300996334529891</v>
+        <v>7.925530066192586</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>14.8791844450682</v>
+        <v>13.04416267786258</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-1.195160530057024</v>
+        <v>2.528107818055542</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>21.33124574975568</v>
+        <v>20.20435042853793</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.56332792253454</v>
+        <v>39.23853424798303</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>24.63768445663045</v>
+        <v>24.34343295466385</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>45.0228744126828</v>
+        <v>44.19714976423779</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>50.50870567348391</v>
+        <v>50.10225507523251</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>0.9674010011760394</v>
+        <v>5.915146448357621</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>18.57086490745537</v>
+        <v>19.46394750660915</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.13525203689748</v>
+        <v>32.24607809988409</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>58.34064288347519</v>
+        <v>55.26496589617384</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>55.85675310363034</v>
+        <v>55.75524641588502</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>62.86414874481941</v>
+        <v>60.81706803050727</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>62.18278010731009</v>
+        <v>59.08747018795039</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>15.44515760825396</v>
+        <v>14.99706094363224</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>60.64597514064036</v>
+        <v>56.74504539592361</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>61.16545244496619</v>
+        <v>59.0749502157993</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>19.0403023623245</v>
+        <v>18.80486930946135</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>40.83298595829699</v>
+        <v>38.67547760548216</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>46.03736644748349</v>
+        <v>44.1335146880574</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>5.129244336713178</v>
+        <v>3.33128163567747</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>42.52887222928103</v>
+        <v>43.28254178669392</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>46.09905486826214</v>
+        <v>43.46221905470429</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>7.296527773845011</v>
+        <v>5.520728700580726</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>65.15871460476589</v>
+        <v>64.8098081582914</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>72.78735650949459</v>
+        <v>67.9872339735107</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>75.82121571244375</v>
+        <v>74.76442159658615</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>82.66955951516212</v>
+        <v>78.57909764345979</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>86.8869721711615</v>
+        <v>80.88779397605569</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>19.6160093087887</v>
+        <v>21.06555484200017</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>74.1838044925656</v>
+        <v>73.08646370395893</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>80.23391049091421</v>
+        <v>76.30353105932234</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>60.98068890876902</v>
+        <v>58.84210216525979</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>48.22932976046226</v>
+        <v>49.67743175962926</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>54.15501103327222</v>
+        <v>54.39907129474332</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>62.6788006915243</v>
+        <v>61.01913617992172</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>7.658177293576536</v>
+        <v>8.74368350361198</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>54.10604250785805</v>
+        <v>52.85428954377777</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>58.30295679665291</v>
+        <v>57.1662786587018</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>10.58991528122777</v>
+        <v>11.13964404746029</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.4531377934119</v>
+        <v>35.10549524714961</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.91734650015472</v>
+        <v>42.96280607760529</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>2.48833526818462</v>
+        <v>1.949748504517927</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>39.6251500864384</v>
+        <v>36.47729731466918</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>46.52057541971475</v>
+        <v>43.35426146532926</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>4.323062731265061</v>
+        <v>6.062956680190492</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>61.43309773746225</v>
+        <v>59.00347809422929</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>74.63779814398315</v>
+        <v>70.77387365608431</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>72.14768040043356</v>
+        <v>70.9183712665519</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>78.87875612460613</v>
+        <v>76.24438678955289</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>89.53691482232412</v>
+        <v>83.99399502785433</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>8.00939126619976</v>
+        <v>9.895386318027349</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>66.98554972881057</v>
+        <v>67.38503828347092</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>77.17670323274483</v>
+        <v>76.9176713704106</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>56.91564764062875</v>
+        <v>54.30136890155197</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.78150181742856</v>
+        <v>28.16330411036868</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>37.24517509130911</v>
+        <v>36.83797677229014</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>46.64626556412027</v>
+        <v>46.63642395689919</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>6.81353887295576</v>
+        <v>6.629677117178709</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>46.32237884051925</v>
+        <v>47.06996635760763</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>54.52336649135171</v>
+        <v>53.33267628264642</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>5.856141608267706</v>
+        <v>8.04527107976114</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.82647305544161</v>
+        <v>29.87503818957942</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>45.4943068252709</v>
+        <v>43.30549027616813</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>0.1474871846198766</v>
+        <v>2.033386371336476</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.21371563386337</v>
+        <v>28.9621555194155</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>44.52278871651796</v>
+        <v>45.11215263134075</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-0.5890084116812275</v>
+        <v>2.430736344979515</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.7644805438676</v>
+        <v>44.79484296076267</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>70.74773864871827</v>
+        <v>68.81420500308857</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>52.96101814105992</v>
+        <v>49.79741840582001</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>68.99027692243195</v>
+        <v>64.93700719695462</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>84.18041348671136</v>
+        <v>82.72424313965989</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>3.1197553341425</v>
+        <v>6.115259119936869</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>57.326909161855</v>
+        <v>54.41620880665863</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>75.11069960564231</v>
+        <v>72.36802742635039</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>18.08726213807693</v>
+        <v>18.65529776466854</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.40429821336385</v>
+        <v>19.87857270153231</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.33345056895869</v>
+        <v>28.49001014954604</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>7.520087788551855</v>
+        <v>10.21779916251815</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>21.86835144059255</v>
+        <v>22.05719335400145</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>24.32513067736797</v>
+        <v>23.57616348897125</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>11.22964697024057</v>
+        <v>14.05462331359865</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>35.35879829575855</v>
+        <v>32.95645293324242</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>40.25387878152371</v>
+        <v>35.39647263518082</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>17.66665777902023</v>
+        <v>20.43530002133107</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>22.70562508863721</v>
+        <v>23.69337319359378</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>21.84985297083569</v>
+        <v>23.83847966307935</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.10873709657838</v>
+        <v>23.41533349675097</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>16.7900282239946</v>
+        <v>20.57075861215539</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>33.18145682410152</v>
+        <v>32.49695573915812</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>12.4600954464232</v>
+        <v>14.83944973058249</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>21.89179526431323</v>
+        <v>25.45787325589444</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.24347762630179</v>
+        <v>29.76644550427242</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>11.68593256124493</v>
+        <v>11.48643430862392</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>17.98518520222013</v>
+        <v>16.68200915008421</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>19.72119316227521</v>
+        <v>18.46033598481878</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>4.606385002234109</v>
+        <v>9.414025422615193</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>20.47995626207469</v>
+        <v>22.25785430143653</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.46023465173631</v>
+        <v>21.68536728683025</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.74198492005366</v>
+        <v>28.00053451553605</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.28556656247368</v>
+        <v>30.39793468010501</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>9.293329299237925</v>
+        <v>10.21977531549843</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>37.31850628055422</v>
+        <v>32.78900954873646</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>37.19345313029292</v>
+        <v>33.59261552200419</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>13.27785209545009</v>
+        <v>13.50044937801106</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>45.96073886059949</v>
+        <v>43.53097632334947</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>47.21664838681842</v>
+        <v>43.16997028211554</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>49.97069186598002</v>
+        <v>42.93855683857883</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>55.47612901321875</v>
+        <v>48.44057269669338</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>54.39388498660925</v>
+        <v>47.78033831789104</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>35.66883958525408</v>
+        <v>27.35904897568194</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>49.91313821715042</v>
+        <v>41.4223542295582</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>55.50005688770028</v>
+        <v>44.85329247757437</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>18.30502174286431</v>
+        <v>20.80391598226407</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.16876954660738</v>
+        <v>31.21454992804631</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.73361298567225</v>
+        <v>33.63208928637879</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>13.95203233960083</v>
+        <v>12.20332143543815</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.46245558708394</v>
+        <v>31.01700615786137</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.258314653812</v>
+        <v>34.14816683685522</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>8.714217786233078</v>
+        <v>10.39084832931209</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>44.44234728350591</v>
+        <v>42.14011862943943</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>9.847778045447138</v>
+        <v>14.70070263796802</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>19.30954833241546</v>
+        <v>23.01524837151016</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.29265167233439</v>
+        <v>28.52210783058919</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>5.386863486868418</v>
+        <v>9.152100694497584</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>34.93254703657656</v>
+        <v>31.28412427438096</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>36.81741631544119</v>
+        <v>32.82755984370218</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>11.30530480259435</v>
+        <v>13.12598505467771</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>45.80406056085624</v>
+        <v>42.78936377506902</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>51.7489502429329</v>
+        <v>46.18441461054309</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>52.44724802415418</v>
+        <v>45.8837567885336</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>57.31182838101204</v>
+        <v>49.64372831646816</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>57.34479021034269</v>
+        <v>51.90335493983399</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>14.72536365148824</v>
+        <v>19.1219962672164</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>40.00195333643633</v>
+        <v>35.5898364271772</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>47.55740052791183</v>
+        <v>40.71600258463778</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>13.91527880252014</v>
+        <v>15.83157355740483</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>27.7745711340445</v>
+        <v>28.84357279857781</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>32.79983131179838</v>
+        <v>33.17531199631951</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>11.60125761818969</v>
+        <v>12.00800451328918</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.6214553606257</v>
+        <v>26.79439637850366</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>36.10385805955347</v>
+        <v>34.79122460101408</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>6.882825069018168</v>
+        <v>11.05419855007041</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38.24851314464929</v>
+        <v>38.80521473615876</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>5.45410459231827</v>
+        <v>11.63103846968135</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>12.54306879318528</v>
+        <v>17.66283396053655</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>26.70647814328454</v>
+        <v>25.62769569050893</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>4.671768013554022</v>
+        <v>9.182126456522809</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.86795089202047</v>
+        <v>29.7822147465724</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>37.14568191426739</v>
+        <v>34.02408810581326</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>5.297227856827117</v>
+        <v>9.758877344866463</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>39.97139483184416</v>
+        <v>38.6361572733849</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>48.85074091199579</v>
+        <v>44.07003368546668</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>42.31025515352373</v>
+        <v>38.39432379366011</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>46.39984379145891</v>
+        <v>42.15042643963402</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>50.28675977401128</v>
+        <v>45.45743800657138</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>9.026942819627983</v>
+        <v>15.24172481885603</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>27.64899439265356</v>
+        <v>28.26630778122928</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>45.03404012139768</v>
+        <v>40.78192620146805</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>7.762986096617642</v>
+        <v>12.63981513162615</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>23.82389323640153</v>
+        <v>25.48380574281462</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>33.11298622323386</v>
+        <v>31.44852472536399</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>11.95985642633606</v>
+        <v>12.05186143944661</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>27.32330323572993</v>
+        <v>25.12344832783575</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>38.50342184795895</v>
+        <v>34.07190533389321</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>5.190076226156052</v>
+        <v>8.975467026825875</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.40376764649312</v>
+        <v>33.31223353483075</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>24.93916819512666</v>
+        <v>24.83028734803629</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>20.49652377077599</v>
+        <v>21.86250156461909</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>32.52006195824637</v>
+        <v>32.69058396098695</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>34.45601574611763</v>
+        <v>35.18142117223953</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.58865503921388</v>
+        <v>12.84080368972464</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>16.62567482587956</v>
+        <v>19.33731942829359</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>23.76336476734936</v>
+        <v>24.38164728606078</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>14.83755627162619</v>
+        <v>17.46009821342489</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>23.09398732578143</v>
+        <v>25.82508322604448</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.58121483876778</v>
+        <v>32.99527459994599</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>9.775090440423766</v>
+        <v>11.41218559807705</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>18.53591774260095</v>
+        <v>16.27585623052072</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.09792105530738</v>
+        <v>19.55977474742694</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.913575416724392</v>
+        <v>9.762909278078379</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.73856432556371</v>
+        <v>23.58379256969769</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>37.1651626341595</v>
+        <v>36.42225466953236</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.59264234146923</v>
+        <v>24.74809455510758</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>39.79179766275874</v>
+        <v>38.29774759589939</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>44.96243042826894</v>
+        <v>41.22022669254675</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>10.70251264899941</v>
+        <v>13.00517062042005</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>21.80022957090796</v>
+        <v>21.98828467172548</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.56462677673395</v>
+        <v>30.41827898245771</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>50.69910606078548</v>
+        <v>47.82565455590417</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.874955033109</v>
+        <v>44.59013927972831</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>54.84593248597425</v>
+        <v>51.67808406305987</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>56.20535897163681</v>
+        <v>51.7306226225944</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>22.79122810238118</v>
+        <v>22.53090942066937</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>53.79044888656669</v>
+        <v>48.27203183035229</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>55.48583545685323</v>
+        <v>50.97754553341284</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>24.96988970853461</v>
+        <v>25.699958280801</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>37.32224877393821</v>
+        <v>35.46707948116227</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.32356880117268</v>
+        <v>40.63394239629226</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>16.92178765359681</v>
+        <v>13.36399163274797</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>42.81738874139295</v>
+        <v>38.95766884977624</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>45.94587775691357</v>
+        <v>41.28130099261105</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>13.59256030130765</v>
+        <v>13.80545945748965</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>60.66161258864204</v>
+        <v>54.86694457111212</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>65.63518513738873</v>
+        <v>58.40971129004261</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>71.37158455602247</v>
+        <v>62.05302433185354</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>75.44303293522259</v>
+        <v>66.1392786168206</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>80.20859853166021</v>
+        <v>68.53516939829413</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>35.05631198644233</v>
+        <v>31.88655370294034</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>71.90009839098272</v>
+        <v>62.52057064849724</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>75.9468581269293</v>
+        <v>64.94402509576636</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>53.33073957709726</v>
+        <v>50.32669014160672</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>37.56903806131169</v>
+        <v>38.99239869427267</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>45.116423230226</v>
+        <v>44.00632342605893</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>55.41675582265898</v>
+        <v>51.49934811745715</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>14.56202392690195</v>
+        <v>17.06783384741252</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>47.65528414984623</v>
+        <v>44.86110510032434</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>53.43685575335836</v>
+        <v>49.49275483219864</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>18.1122445112015</v>
+        <v>19.4467938024854</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>33.69372097510599</v>
+        <v>32.85991773737256</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.70961478912843</v>
+        <v>39.74344031842914</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>14.88537220408788</v>
+        <v>12.37487905684925</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>42.75215745822007</v>
+        <v>36.62864459706793</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>47.2544536776918</v>
+        <v>41.32049071880009</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>11.01619781420762</v>
+        <v>13.22150807756696</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>59.11166743986865</v>
+        <v>52.07096534676153</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>68.46916922658794</v>
+        <v>60.80881336194899</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>67.10442790190227</v>
+        <v>59.94963986621396</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>71.74661493295599</v>
+        <v>63.82619561860641</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>82.82998954089796</v>
+        <v>70.97266596418885</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.72383292339357</v>
+        <v>21.86371034017767</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>65.47268728295188</v>
+        <v>58.74487754003655</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>74.01233323460809</v>
+        <v>65.83575291128335</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>50.48248581961194</v>
+        <v>46.99166668406032</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>23.26775477976962</v>
+        <v>25.29660319153709</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.92654309555576</v>
+        <v>30.99343138470534</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>41.08820892808082</v>
+        <v>39.72557694544017</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>9.897763354434552</v>
+        <v>13.35960774062141</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>39.99850494298934</v>
+        <v>39.86453637015335</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>49.03395925765399</v>
+        <v>46.68983908578496</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>12.74393225345946</v>
+        <v>15.81326312174492</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.86460045922352</v>
+        <v>31.32026051601904</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>44.44865651979489</v>
+        <v>40.42350246972318</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>14.34091079872185</v>
+        <v>12.64244016719121</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>39.97860383464402</v>
+        <v>33.9278731557295</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>48.39774147531724</v>
+        <v>42.71990991613676</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>7.718346871524687</v>
+        <v>9.569681339429994</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>51.23569944844097</v>
+        <v>46.28644350597467</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>66.81082550664027</v>
+        <v>59.6222998123106</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>55.81320012377422</v>
+        <v>48.69820668733928</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>63.63378712794854</v>
+        <v>56.94730155886663</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>79.71127033694015</v>
+        <v>69.19287714281757</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>14.78712401523781</v>
+        <v>15.05233787746446</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>57.10288501748605</v>
+        <v>50.55116517989375</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>71.48077366351784</v>
+        <v>63.71011205526297</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test3/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.541</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.405</v>
+        <v>18.657</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.734</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.822</v>
+        <v>16.592</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.993</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.367</v>
+        <v>1.543</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.758311614601119</v>
+        <v>10.828381550354</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.57476370675846</v>
+        <v>15.46966905709352</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20.38425716949908</v>
+        <v>22.1605306802126</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.242987220633342</v>
+        <v>4.796434683781762</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.34025135873268</v>
+        <v>16.19067509383277</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.60790851012881</v>
+        <v>18.21691337016956</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.004746414469032</v>
+        <v>7.459816367297471</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.69984195301945</v>
+        <v>28.19408127296205</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.29163043943468</v>
+        <v>30.3050200715283</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14.07671851054984</v>
+        <v>16.96720908700157</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.55026707631758</v>
+        <v>20.34338669455516</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>18.80362315812383</v>
+        <v>22.24927909669457</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.46621254188065</v>
+        <v>14.80291101537813</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.05640614158055</v>
+        <v>16.13340252715589</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.49567357612283</v>
+        <v>28.46586612834894</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.335155302224248</v>
+        <v>12.05685314396725</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.8913981512928</v>
+        <v>25.78279689928389</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.22922983399392</v>
+        <v>29.80648626482761</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.762945690057677</v>
+        <v>4.52598762710306</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8.850527536497697</v>
+        <v>11.79575831405391</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15.41992471300044</v>
+        <v>17.85055918899955</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.6632449077226</v>
+        <v>5.147491985734334</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.75455511652711</v>
+        <v>26.97092308761556</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9.113030727321284</v>
+        <v>12.15868512556381</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>17.77758315342907</v>
+        <v>21.96649823283626</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>21.28758641451213</v>
+        <v>23.34123438140696</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.7533045187530298</v>
+        <v>4.501768002707749</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.16798827032369</v>
+        <v>25.05245523406311</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>24.76372950800414</v>
+        <v>26.53327319079434</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.953082873218619</v>
+        <v>7.534547662244574</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35.17811919618022</v>
+        <v>36.27029704722248</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.31484779994604</v>
+        <v>36.62839709144307</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.17051274413226</v>
+        <v>35.72214208047336</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.57261271467155</v>
+        <v>40.74997172143185</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.98509874203106</v>
+        <v>40.69349065483421</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>14.28817650003782</v>
+        <v>16.57506866266227</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>38.80453899978301</v>
+        <v>38.1890091712479</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.46544074158066</v>
+        <v>40.94969380265873</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>15.77464143051926</v>
+        <v>17.61316597534338</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.01057771084623</v>
+        <v>32.05396387917764</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.33351606654206</v>
+        <v>34.44030595748983</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.6569556899665763</v>
+        <v>4.624207537758224</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.54485678483823</v>
+        <v>30.56122672343321</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.62209295625895</v>
+        <v>34.38290159538945</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2.406388838424185</v>
+        <v>5.905337330751628</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>49.96496043351551</v>
+        <v>48.343653104079</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3.518622294903658</v>
+        <v>6.954017122749324</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>12.49402482565479</v>
+        <v>15.95407500765569</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>22.72765787209814</v>
+        <v>23.94187564976036</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.57057585752775</v>
+        <v>4.209395394426327</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>22.11000918069735</v>
+        <v>24.12259030378817</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>24.52279867000703</v>
+        <v>26.05465056062683</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5.811123850582671</v>
+        <v>8.744475211730546</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>35.60229719465564</v>
+        <v>36.44183754989754</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>40.56939050038251</v>
+        <v>40.39293200400466</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>38.61750717682956</v>
+        <v>39.04694012112294</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>41.07791739731431</v>
+        <v>43.03451472591352</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>49.00163260074403</v>
+        <v>47.93411262784358</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4.827148621717093</v>
+        <v>7.317170489481374</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27.41382120112568</v>
+        <v>27.37069533639015</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>33.79071161299289</v>
+        <v>32.48044848627316</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>9.688576654694526</v>
+        <v>11.82364267034286</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.10047357467704</v>
+        <v>30.39508574264129</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>34.09362155351921</v>
+        <v>33.46865420001996</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.458746139290735</v>
+        <v>4.259842832117688</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.06070011012782</v>
+        <v>26.53966038412049</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.17413111264695</v>
+        <v>33.85297102181104</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.213454192389417</v>
+        <v>7.138511015452234</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>47.46875453143615</v>
+        <v>45.35649473515394</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1.65242139719167</v>
+        <v>6.370475823357157</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>9.316126719806107</v>
+        <v>13.78766208674442</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>21.53465478594616</v>
+        <v>23.40371528569251</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.09135096164759915</v>
+        <v>3.974857293562202</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>19.73498371104317</v>
+        <v>22.39363913704699</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>26.95255715874744</v>
+        <v>28.59483645256223</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.3615167679504196</v>
+        <v>4.399729134426689</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.05594676895828</v>
+        <v>31.334437253389</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38.80648368560415</v>
+        <v>39.40994597000348</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>30.73313801744492</v>
+        <v>32.41835886500887</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.47921351645045</v>
+        <v>35.91477597042196</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.68147100679001</v>
+        <v>42.84540582107387</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2.01672166494124</v>
+        <v>6.369797375590238</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>23.26352643277267</v>
+        <v>24.57888360214165</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>39.27414403585363</v>
+        <v>37.23387853069563</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6.417822892507051</v>
+        <v>9.608012428970646</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.01618948605779</v>
+        <v>26.81503148108193</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>32.03799224920877</v>
+        <v>31.77315289415797</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.3713234857346279</v>
+        <v>4.521467099195988</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>22.47921928320008</v>
+        <v>23.62201465195305</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>31.74897655325571</v>
+        <v>32.08373575734801</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.125557121150035</v>
+        <v>4.709810909508946</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.52636543146432</v>
+        <v>36.08095488721638</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.11639221829698</v>
+        <v>30.09547055493126</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>22.48152114140601</v>
+        <v>23.75026729458337</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>39.89445651387076</v>
+        <v>38.99655033554185</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>39.68173232794896</v>
+        <v>39.07563509606784</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>8.043167071247712</v>
+        <v>10.38525699020577</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>20.75822402358717</v>
+        <v>22.19846572000242</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.87812997339807</v>
+        <v>29.55327198508917</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>12.58174039363976</v>
+        <v>15.00611595274281</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>27.05861822452031</v>
+        <v>28.17800525017289</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.54260853740124</v>
+        <v>37.61193372694783</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-0.808840372575137</v>
+        <v>3.469146517274439</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>7.682594100672873</v>
+        <v>11.0796677003222</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>16.52334987408567</v>
+        <v>18.85915621878037</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1.231789007421522</v>
+        <v>5.171369089617617</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>24.85288134953882</v>
+        <v>26.30620282943476</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>48.03769539190596</v>
+        <v>46.08782442898304</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>26.95849334422081</v>
+        <v>27.76389050303926</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>47.12655223600384</v>
+        <v>45.54676351147926</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>52.68208455719304</v>
+        <v>50.28085078966877</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6.571894090002175</v>
+        <v>9.750318531658941</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>22.7914092824641</v>
+        <v>24.29980867116289</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36.20033646290231</v>
+        <v>36.02808468301984</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>56.86567147879113</v>
+        <v>54.45896604632489</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>51.85473550490454</v>
+        <v>49.5486322323272</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>58.72252996748207</v>
+        <v>55.90899147247038</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>59.34188325142553</v>
+        <v>56.80269833673879</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>17.91610943953437</v>
+        <v>18.5763332914302</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>55.66208265718165</v>
+        <v>53.1527772555639</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>58.81689775698887</v>
+        <v>56.18128573741386</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>21.51649884601099</v>
+        <v>22.5555645468508</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.72996470989722</v>
+        <v>37.73637671271952</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>45.96006137694226</v>
+        <v>44.09174735065091</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1.687388524734583</v>
+        <v>5.273556175550514</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>44.59334728087252</v>
+        <v>42.60013369068967</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>48.2337705093338</v>
+        <v>45.42538119755588</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>5.128878537427831</v>
+        <v>8.168128972460377</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>68.19278585435902</v>
+        <v>63.527190071047</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>72.28015021728653</v>
+        <v>67.03514326189136</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>76.05284130288514</v>
+        <v>69.70378247622081</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>80.76275817707332</v>
+        <v>74.44101361654023</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>83.91962584344689</v>
+        <v>77.75509351989956</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>27.84913514461338</v>
+        <v>27.27298906513936</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>76.45829588361664</v>
+        <v>71.16681980751873</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>79.64283328766005</v>
+        <v>73.07890292013717</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>59.37257056138469</v>
+        <v>56.29927235312547</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>47.56508964442033</v>
+        <v>45.38120424536852</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>52.65622771500593</v>
+        <v>50.58393551143264</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>59.86378520265353</v>
+        <v>56.8165167323998</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.96267617492642</v>
+        <v>12.78826709315319</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>51.31411962671852</v>
+        <v>49.37049624278856</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>56.46078310079897</v>
+        <v>53.86006786370697</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>13.17533147015867</v>
+        <v>15.23172809867868</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.67602641696366</v>
+        <v>34.79262549418057</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>44.94328893876325</v>
+        <v>42.93957924386623</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-0.005706423406341088</v>
+        <v>4.629647745842806</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>41.68061274378988</v>
+        <v>39.58856537179287</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>45.24260732423112</v>
+        <v>42.70612195062007</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>5.350972814773829</v>
+        <v>8.860222649909691</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>66.72245108493107</v>
+        <v>61.94723828798158</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>74.42053140628406</v>
+        <v>68.62279614865695</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>74.08085359669977</v>
+        <v>68.39259047816498</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>80.42105627605652</v>
+        <v>74.36033359083575</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>87.1160953709919</v>
+        <v>80.072540224241</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>12.29182935223891</v>
+        <v>14.48778033195319</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>74.96833064985186</v>
+        <v>69.40804653662946</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>80.30870007356033</v>
+        <v>73.75434997847753</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>53.61074940665285</v>
+        <v>50.63656120911574</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.40507284531454</v>
+        <v>30.3811039316601</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.36829702151358</v>
+        <v>36.58958432162623</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.16088765684105</v>
+        <v>43.49865581629082</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>7.237444206470816</v>
+        <v>10.83360159286993</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>45.02541480550106</v>
+        <v>44.03973362527335</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>51.09162016307415</v>
+        <v>49.18905580603433</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>9.031265379362313</v>
+        <v>12.07259552479339</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>32.88621709515289</v>
+        <v>33.07921588262557</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>46.00299090917927</v>
+        <v>43.61277835883894</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.6752441363104538</v>
+        <v>4.755795199909304</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.48825191999532</v>
+        <v>35.4534523518364</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>46.15561769741818</v>
+        <v>43.83199260925432</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1.489135869820341</v>
+        <v>5.4786160708754</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>58.95566061999267</v>
+        <v>55.09803777191502</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>72.9761449817789</v>
+        <v>66.95576621190739</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>64.61286461273691</v>
+        <v>59.95916521671558</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>78.00886281119274</v>
+        <v>71.95084512474342</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>86.40426122905644</v>
+        <v>79.20702168029229</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>7.803284247223015</v>
+        <v>10.79040659367458</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>71.27468276380597</v>
+        <v>65.91718730639849</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>78.82618582298662</v>
+        <v>72.6939246137263</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>18.11325248934897</v>
+        <v>23.42446293296097</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>20.03508149797941</v>
+        <v>24.87076577297232</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>23.71992823718445</v>
+        <v>27.83185076197977</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>11.13712208348861</v>
+        <v>19.23546585314494</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.17848925605043</v>
+        <v>24.20637499714767</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>16.494972164878</v>
+        <v>24.20434486238438</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>15.74068731859173</v>
+        <v>21.65963467005945</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.56289723374188</v>
+        <v>29.15245070616781</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>26.05804873991428</v>
+        <v>29.9394926790809</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>18.86402714703339</v>
+        <v>24.62277655857801</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>22.71864028373238</v>
+        <v>26.74145560381814</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>23.3980292902462</v>
+        <v>27.24732151426853</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.421896138182</v>
+        <v>26.12890226622255</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.75035745935861</v>
+        <v>25.09788698193507</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.13847780998824</v>
+        <v>29.75570069706276</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>13.36510147076551</v>
+        <v>21.12610734478886</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.6934162687979</v>
+        <v>27.54915871938131</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>27.92910167679614</v>
+        <v>29.5103087127431</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>8.023872195505632</v>
+        <v>18.26019738355313</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>11.91245078264559</v>
+        <v>20.4761241206093</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>14.49496298491698</v>
+        <v>21.86830691430942</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>10.43217487098094</v>
+        <v>18.90732967429545</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>20.91701730209603</v>
+        <v>25.87342611940323</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>19.47040293385597</v>
+        <v>24.23351407014697</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.55162741234811</v>
+        <v>27.26303239588059</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.14911844099017</v>
+        <v>28.38537577537381</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>11.30561934302397</v>
+        <v>19.39934108405711</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.42086392138325</v>
+        <v>28.33862701996519</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.68462198145529</v>
+        <v>29.16270088048412</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>14.84362165989023</v>
+        <v>21.32249305121402</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>34.73981097640559</v>
+        <v>34.62734048719169</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>34.38191971866155</v>
+        <v>34.53360864338897</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>35.25856585405349</v>
+        <v>34.63703843177142</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>41.18370835688695</v>
+        <v>37.97460033253182</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>41.17623528595068</v>
+        <v>37.83555506943059</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.33258165991032</v>
+        <v>27.88745427884415</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>37.81121247749771</v>
+        <v>35.91983873102192</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>37.50533031448118</v>
+        <v>36.28686166743143</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>17.79750862272599</v>
+        <v>23.73494650075084</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.32838259883266</v>
+        <v>30.47561384954636</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.47576086632285</v>
+        <v>32.37711608698429</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>9.075248353688533</v>
+        <v>18.44475636372332</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.30711764419387</v>
+        <v>28.86730390413939</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>31.99511954953155</v>
+        <v>31.55504694037037</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>11.60050164277067</v>
+        <v>19.66093784770637</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>38.54571384142127</v>
+        <v>36.90533967017014</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>15.29164874883675</v>
+        <v>21.87021145906176</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>19.67771350725307</v>
+        <v>24.95702280429728</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>23.89294136311513</v>
+        <v>27.64605925649926</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>10.24265964226063</v>
+        <v>18.86968102870773</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>23.35242193653223</v>
+        <v>28.02524198668173</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>24.42037503363481</v>
+        <v>28.59857383181036</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>13.67389158452974</v>
+        <v>20.79319493092977</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>32.91381409650027</v>
+        <v>33.91124319247004</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>36.30584850327476</v>
+        <v>35.71248940383596</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>35.37244787950759</v>
+        <v>35.04153947553379</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>38.94643132621247</v>
+        <v>37.46836071279188</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.29413731472708</v>
+        <v>38.74176405887297</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>18.2176868836254</v>
+        <v>23.09894785366361</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.08467145069579</v>
+        <v>31.71367416914623</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>33.18210850015965</v>
+        <v>33.6219272726391</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>13.1658635380807</v>
+        <v>21.03158219405525</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.44306093824695</v>
+        <v>28.40759650682878</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>33.02484413645875</v>
+        <v>31.95462069971533</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>8.333964320204881</v>
+        <v>18.09598534065632</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>20.33266052536852</v>
+        <v>25.71418988979656</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.94113613706641</v>
+        <v>31.50230805706438</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>11.09925290550283</v>
+        <v>19.50426092398299</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>32.10155541365198</v>
+        <v>32.52427763439969</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>13.97001974935658</v>
+        <v>20.93063169172741</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>16.44005775723965</v>
+        <v>23.19450943187249</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>21.91257839297848</v>
+        <v>26.43785784088452</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>10.13017582872417</v>
+        <v>18.83293901757761</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>21.72680427504645</v>
+        <v>26.91060061577054</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>24.79263073480906</v>
+        <v>28.97999862658213</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>11.69205393580276</v>
+        <v>19.55546304216138</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.50941251410119</v>
+        <v>31.22847227234364</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34.14988170670689</v>
+        <v>34.4359939791379</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.59539654360318</v>
+        <v>31.26500860545726</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>32.17573215203959</v>
+        <v>33.42373630993724</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.62811942098775</v>
+        <v>35.04973126641374</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>15.44770639598771</v>
+        <v>21.83849356199657</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.11814891729113</v>
+        <v>28.92190181789133</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>31.93276199388001</v>
+        <v>33.30627124474139</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>11.47700106915284</v>
+        <v>20.02443293275313</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.54705254119197</v>
+        <v>26.67532555400948</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.62892027646703</v>
+        <v>30.68484013579235</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>8.543982442541605</v>
+        <v>18.39842412107396</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>18.54759273673898</v>
+        <v>24.65717422802675</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.18343572952098</v>
+        <v>30.67795351045474</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.27354500696853</v>
+        <v>18.94833604290018</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.74211072860136</v>
+        <v>29.63029348698211</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>23.6872587730908</v>
+        <v>27.0928890046671</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>21.39141263949815</v>
+        <v>25.69088162249392</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.22920019274778</v>
+        <v>31.81232477799669</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>35.36919654012234</v>
+        <v>33.46875622459879</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>12.88438978461907</v>
+        <v>20.49195785394497</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.48655845672875</v>
+        <v>24.1267684479097</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>23.224716555078</v>
+        <v>27.11114420279669</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>18.71990848246932</v>
+        <v>23.51805390446795</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.04711864724719</v>
+        <v>28.70238760149588</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>32.04329693577189</v>
+        <v>31.85147896134602</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>7.751665503135559</v>
+        <v>17.9424996822245</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>11.89628191025129</v>
+        <v>20.51416555044899</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15.6567400474028</v>
+        <v>22.80363174218562</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>10.96312465539552</v>
+        <v>19.34824259047904</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>22.58614440154869</v>
+        <v>26.74056047776758</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>32.31559208373612</v>
+        <v>32.41682061607157</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>24.54976514359142</v>
+        <v>27.62524375286728</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>34.32046459936125</v>
+        <v>33.91573122536332</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>36.62746123795315</v>
+        <v>35.13816387450726</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>14.19102417334653</v>
+        <v>21.19940013175276</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>21.38901570946974</v>
+        <v>25.92216848443353</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>27.04969488129928</v>
+        <v>29.23933138028219</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>46.84922011728194</v>
+        <v>40.44806090785754</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>40.20178205088949</v>
+        <v>37.44857569715588</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>49.07515392503051</v>
+        <v>41.99512549410013</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>50.8234977692016</v>
+        <v>42.54978480649233</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.57415945275883</v>
+        <v>24.45865723383267</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>46.3243630760917</v>
+        <v>40.81764032285757</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>50.31586701508159</v>
+        <v>42.20508420885622</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.05867875214158</v>
+        <v>27.28051380822036</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.33684350988521</v>
+        <v>33.52677220854702</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>40.66880148643233</v>
+        <v>36.48981131868006</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>10.55384589152314</v>
+        <v>19.13347598025213</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.99439578111528</v>
+        <v>33.14125695149558</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>39.12895748792914</v>
+        <v>35.79464583773918</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>17.12710831213615</v>
+        <v>22.31774576029619</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>52.52586807774445</v>
+        <v>44.30768904581947</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>56.51930292483242</v>
+        <v>46.00836717166581</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>57.98004748738741</v>
+        <v>46.98777422224439</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>62.24057342823444</v>
+        <v>49.32243235441688</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>65.08593747852581</v>
+        <v>51.20921625424801</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32.08270063705284</v>
+        <v>31.45881035548518</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>60.48905344556759</v>
+        <v>48.49125788159097</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>63.31400572284767</v>
+        <v>49.89152602112955</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>48.06342431097015</v>
+        <v>41.16242537810138</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>32.83385495365443</v>
+        <v>32.77932179795593</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>39.68086223947152</v>
+        <v>36.73772935027641</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>50.28451081997059</v>
+        <v>42.52864591438775</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.94987548711155</v>
+        <v>21.38793409512967</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>41.12110796565661</v>
+        <v>37.46887252428967</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>48.5410590604212</v>
+        <v>41.10492469157218</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.43309062439754</v>
+        <v>23.71016383239516</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.73273245584799</v>
+        <v>31.69480034101263</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>39.24669487536706</v>
+        <v>35.69443711243341</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>8.914453690020203</v>
+        <v>18.48311938347877</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>32.07612688060899</v>
+        <v>32.09389544217914</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>38.76383309651517</v>
+        <v>35.45709756350308</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>13.78691402664277</v>
+        <v>20.98700762212724</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>47.68180930887671</v>
+        <v>41.35363296200519</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>57.35514124189519</v>
+        <v>46.56781371781143</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>53.46703886195496</v>
+        <v>44.66851357035894</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>59.14399552287293</v>
+        <v>48.11043584901618</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>66.72171731803775</v>
+        <v>52.16926977678692</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>21.10037152691077</v>
+        <v>24.85143139741374</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>56.31099409582627</v>
+        <v>45.99644687559809</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>63.67414043172357</v>
+        <v>49.9527392983648</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>45.14179269902722</v>
+        <v>39.21716342815652</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>22.4929657806614</v>
+        <v>26.87495218825478</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.99643949707103</v>
+        <v>30.45269417606559</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>39.87149024950315</v>
+        <v>36.08106989288768</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>12.07392357015615</v>
+        <v>20.48323033812274</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.81387363457062</v>
+        <v>33.9703657041533</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>44.22969436746458</v>
+        <v>38.73286092308174</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>15.64782893350825</v>
+        <v>22.15701995738146</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.60316724053733</v>
+        <v>30.92862545899927</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>39.54311442820407</v>
+        <v>35.94153251966989</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>9.130133664386186</v>
+        <v>18.50522171374598</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.55799952613168</v>
+        <v>30.64166536951089</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.62112231336368</v>
+        <v>35.47149306623962</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>11.60030193237012</v>
+        <v>19.46777551044418</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>43.31843810317582</v>
+        <v>38.55295016635164</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>56.65204615859665</v>
+        <v>45.91558027793577</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>44.70945016570499</v>
+        <v>39.44688611535311</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>52.79357652712677</v>
+        <v>44.37673529011533</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>64.02567981820582</v>
+        <v>50.43382950902088</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>14.92027701166321</v>
+        <v>21.56408435472242</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>48.33922978963528</v>
+        <v>41.60250110168164</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>60.54566794938587</v>
+        <v>48.42731976011133</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>17.35424308795245</v>
+        <v>22.54846473372765</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>23.95529431266079</v>
+        <v>26.39045812542851</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.76177546598134</v>
+        <v>29.16074613682376</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>10.39767074223423</v>
+        <v>18.04352728690478</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>15.82220821379219</v>
+        <v>22.89124021558327</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>16.51935684932069</v>
+        <v>23.70571279643783</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>13.38075604918768</v>
+        <v>19.76893084923417</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.31599788182388</v>
+        <v>30.14284424608382</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.70712796676949</v>
+        <v>32.03051139380366</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>23.75750794196003</v>
+        <v>26.88782077381473</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.5095046932528</v>
+        <v>29.77975208374879</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>30.32176983712878</v>
+        <v>30.88039991394101</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>15.89974241670284</v>
+        <v>21.98389776702711</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>20.72046282400824</v>
+        <v>25.12086830432245</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>24.23115578714823</v>
+        <v>28.55671240591594</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>15.35875569279579</v>
+        <v>21.6046727915182</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.41250253694787</v>
+        <v>27.54866870242731</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.1592805040222</v>
+        <v>29.44732592138897</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>8.008044802083731</v>
+        <v>17.44393618416303</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>12.51603726618583</v>
+        <v>20.11833449789414</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.49297189484709</v>
+        <v>22.21133251008341</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>10.09490225749908</v>
+        <v>17.94102768110951</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>22.50257289405673</v>
+        <v>26.45047243442803</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>18.48091618599933</v>
+        <v>23.27353162731077</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.53964233207408</v>
+        <v>29.94013502635976</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.10926703353076</v>
+        <v>29.6021982658103</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>11.06037334335014</v>
+        <v>18.40801835942516</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.42112261297599</v>
+        <v>29.808334921684</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>27.74222271954318</v>
+        <v>30.18905657320843</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>13.04401002080461</v>
+        <v>19.7432139317918</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>37.91678453120256</v>
+        <v>36.45855120951167</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.4662223256567</v>
+        <v>37.01236885706788</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>40.76080140686976</v>
+        <v>37.94134523847458</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>44.5172325696978</v>
+        <v>39.99277134994006</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.87662961222364</v>
+        <v>40.28540440235553</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>18.92133861806604</v>
+        <v>23.69310987761373</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>42.88195860296261</v>
+        <v>39.03989902545475</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.14547659841788</v>
+        <v>39.71651110849092</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>16.30352842025617</v>
+        <v>22.52409963727115</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.63454158308842</v>
+        <v>30.9751027119037</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>33.83357900103047</v>
+        <v>32.62211509195744</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>8.875190022558357</v>
+        <v>17.55082187243671</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>27.59088660010963</v>
+        <v>29.39524468957561</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>31.03573928372223</v>
+        <v>31.13588451804957</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>10.72677800676196</v>
+        <v>18.31531254257379</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>40.58461279351829</v>
+        <v>37.8918414068998</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>13.5942842168711</v>
+        <v>20.131194698664</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.78147484279545</v>
+        <v>26.15070995196527</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.93329673030471</v>
+        <v>28.28518334737144</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>10.33031707293618</v>
+        <v>17.94699114888999</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.44692392056141</v>
+        <v>28.99755008911845</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>26.99439709032217</v>
+        <v>29.80909380945472</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.88512254214888</v>
+        <v>20.18806015571631</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.06556207382282</v>
+        <v>35.71055993002584</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>40.12092905235825</v>
+        <v>38.05517129303638</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>41.22843992520657</v>
+        <v>38.43254548050032</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>42.84724297405329</v>
+        <v>40.57762975906488</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>44.61870115225192</v>
+        <v>40.7602712365841</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>14.08875740326179</v>
+        <v>20.7058518447592</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>34.26613703484828</v>
+        <v>33.30850161380064</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>34.18030966472844</v>
+        <v>34.09018169130888</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.19003258022619</v>
+        <v>19.14865903829048</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.94122066033406</v>
+        <v>29.54012024297866</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.42701625867777</v>
+        <v>32.08008451217387</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>8.438612170778878</v>
+        <v>17.27372610788016</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>21.38151905532076</v>
+        <v>25.95487272598119</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.22026264703439</v>
+        <v>31.90919190553403</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>10.80549607185755</v>
+        <v>18.4141552468706</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>34.28261757182418</v>
+        <v>33.92406961501335</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>13.24781623902968</v>
+        <v>19.93713945940335</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.68730289240055</v>
+        <v>24.92979783665992</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.42260220008278</v>
+        <v>27.99864458866818</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>10.19060486927787</v>
+        <v>17.94251035779608</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>23.65514962532799</v>
+        <v>27.74832113030609</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.87204356042102</v>
+        <v>31.03771562248623</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>11.20996966585862</v>
+        <v>18.5199954396201</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.6274799545711</v>
+        <v>33.70504397065771</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>39.21319261690309</v>
+        <v>37.43429582097966</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>33.69886644094566</v>
+        <v>34.30182636185226</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>37.53929289324267</v>
+        <v>36.74482904301703</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>40.43728189090665</v>
+        <v>38.30443617816936</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>14.53004099158839</v>
+        <v>20.62185634932105</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>32.63280496665617</v>
+        <v>31.98250291219677</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.6208140687203</v>
+        <v>34.57797190996351</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>10.73046136346283</v>
+        <v>18.77513635094525</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>23.39863103348824</v>
+        <v>26.77735582589418</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>31.25358448785536</v>
+        <v>31.00039623852097</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>8.590387055167849</v>
+        <v>17.54076736739305</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>18.62422368896867</v>
+        <v>24.21687694840189</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.92404783814448</v>
+        <v>31.04231335873238</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>10.09841092923948</v>
+        <v>17.93493992557729</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.91742676148247</v>
+        <v>29.52559417370513</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.36893083299177</v>
+        <v>27.68027970176021</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.90607507034639</v>
+        <v>26.15137610618248</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>33.80144580860998</v>
+        <v>32.83502756236022</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>35.26336077637929</v>
+        <v>33.58123099073288</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>11.76014043483819</v>
+        <v>19.19695537044475</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.49504754728651</v>
+        <v>24.19478883284212</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>24.77907532244544</v>
+        <v>27.52664888374895</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>16.71962731913605</v>
+        <v>22.00433719901999</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.21015076176499</v>
+        <v>28.57320105137579</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>32.3344855898963</v>
+        <v>32.08752391885869</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>7.846931945052518</v>
+        <v>16.97218652731886</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>11.81894715808804</v>
+        <v>19.83881816668102</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.93715501980148</v>
+        <v>22.65007260712658</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>10.18681781518646</v>
+        <v>17.91615011101835</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>21.50855170279414</v>
+        <v>26.01147961124835</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.23556988645545</v>
+        <v>33.51867452783802</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>24.32427055893454</v>
+        <v>27.36019165593994</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.78065500083015</v>
+        <v>35.03259340997436</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>40.34254249620367</v>
+        <v>37.66857095997141</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>12.05782497998135</v>
+        <v>19.29173868976291</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>21.05801337033064</v>
+        <v>25.39839802288964</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.37803012720419</v>
+        <v>30.38137825793922</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>47.89881323871681</v>
+        <v>41.66613624291311</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>43.73878626006051</v>
+        <v>39.37474856408068</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>50.63065408330029</v>
+        <v>43.39224601438935</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>50.02834757063695</v>
+        <v>42.67359302285571</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>15.29107507859952</v>
+        <v>21.68989905197343</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>46.91586202787178</v>
+        <v>41.23903629847718</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>51.17731567896263</v>
+        <v>43.35684555927068</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>21.30450719298842</v>
+        <v>25.43395782354151</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>36.497589390737</v>
+        <v>34.24497883326878</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>39.73611707013253</v>
+        <v>36.3548146938424</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>10.12545956407941</v>
+        <v>18.05990740655074</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>35.53814188377532</v>
+        <v>34.42517633816856</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>38.07223453187342</v>
+        <v>35.46249644415132</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>14.59506610923358</v>
+        <v>20.23595337169092</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>53.13842586545911</v>
+        <v>45.33090651145359</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>55.58956750195121</v>
+        <v>46.55849408928461</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>60.54277355767745</v>
+        <v>49.60169789627842</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>63.31522116517188</v>
+        <v>50.91579215614355</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>65.651723837633</v>
+        <v>52.92102178256535</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>24.71297516998611</v>
+        <v>26.85252066538028</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>60.19605889605289</v>
+        <v>49.37478066859276</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>62.68506628537</v>
+        <v>50.77516365859869</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>48.54856465086466</v>
+        <v>42.1252406730901</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>36.52910997655634</v>
+        <v>35.07755306060177</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>42.31839732289396</v>
+        <v>38.55899818043245</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>51.2861029530098</v>
+        <v>43.69667482514214</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>10.32384800260013</v>
+        <v>18.70712558634303</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>42.37095174415485</v>
+        <v>38.40014976993825</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>48.88589854130734</v>
+        <v>41.87387954482102</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>15.25104814754872</v>
+        <v>21.45791708546228</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.63606107318539</v>
+        <v>32.1307576975622</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.2932416355148</v>
+        <v>35.3865221453065</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>8.471601248370607</v>
+        <v>17.54557054839065</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>30.53677034946584</v>
+        <v>31.41454762337289</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>38.31836500785999</v>
+        <v>35.50969027023724</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>12.64723909408806</v>
+        <v>19.52766554707913</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>46.29687229795427</v>
+        <v>41.3098126971023</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>56.28226980791182</v>
+        <v>47.08623502898389</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>54.29154135944607</v>
+        <v>46.23665310846989</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>59.98206376553703</v>
+        <v>49.67537416566013</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>66.99587473944422</v>
+        <v>53.87975291892714</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>15.42483767786665</v>
+        <v>21.43994482020022</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>54.82170588053002</v>
+        <v>46.29415600137729</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>62.05332924891822</v>
+        <v>50.35863649420956</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>46.41557510927835</v>
+        <v>40.36810234434211</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>23.79793111038427</v>
+        <v>27.24342350187717</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.01252448017812</v>
+        <v>31.35850524793607</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>41.09632235501449</v>
+        <v>36.9178346132436</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>10.41734825801841</v>
+        <v>18.62110901656539</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.38244189375393</v>
+        <v>35.54628285558218</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>46.02202959739095</v>
+        <v>40.10342098291496</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>13.5498391949702</v>
+        <v>20.30391882936451</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.4231350381854</v>
+        <v>30.34608962177323</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>38.7038135929367</v>
+        <v>35.86543631476356</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>8.922194008195582</v>
+        <v>17.64359695657505</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.30186921743576</v>
+        <v>28.91392607138424</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>39.10028232684849</v>
+        <v>36.06473250177954</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>10.88975028923166</v>
+        <v>18.4842136699812</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.19114099599675</v>
+        <v>36.41359662692064</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>56.04327354920993</v>
+        <v>46.81081976012726</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>40.97938362708096</v>
+        <v>38.13166982247355</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>52.21677736152569</v>
+        <v>45.13295466151058</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>65.04235574125073</v>
+        <v>52.60825356567551</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>12.42814276399522</v>
+        <v>19.65842153746636</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>45.90342563575543</v>
+        <v>41.10252019128495</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>59.49638031729572</v>
+        <v>48.95225379092004</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>11.00217811417066</v>
+        <v>14.35444585922928</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>18.10046454960678</v>
+        <v>20.08603521846276</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.38879237546668</v>
+        <v>28.66063072473157</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>2.19711691296569</v>
+        <v>7.188212953228525</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.16165124917025</v>
+        <v>16.65365491062915</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>15.46837046307352</v>
+        <v>18.74613325173362</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.688544206488412</v>
+        <v>9.095106574785898</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.64255105886061</v>
+        <v>30.58388893928634</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>35.15814019413688</v>
+        <v>34.66851094191309</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>20.75106131245728</v>
+        <v>22.534384393046</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.47553838257644</v>
+        <v>27.45219091947473</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.00316667611622</v>
+        <v>28.43384582850586</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.06591769227992</v>
+        <v>14.37414436230436</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>16.73675086271952</v>
+        <v>19.69633006052389</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.69130009747373</v>
+        <v>28.83627430099497</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>11.67832927490898</v>
+        <v>15.04922372468839</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.44161542880747</v>
+        <v>26.31423424574022</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.28692359425583</v>
+        <v>28.87045951040069</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>1.358460655039458</v>
+        <v>7.572699414996272</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>9.757295289713493</v>
+        <v>13.42141755947071</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>14.3434535888915</v>
+        <v>18.03229079832428</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>3.345967125511891</v>
+        <v>8.101239383074912</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>24.01910425081116</v>
+        <v>25.2684415677414</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>15.71820041231525</v>
+        <v>18.47805789092744</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>31.26851986872443</v>
+        <v>31.57808757823479</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>32.43643362979173</v>
+        <v>31.34936054784865</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.139755383711371</v>
+        <v>7.954999428703097</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>34.52119706268873</v>
+        <v>33.89289027094767</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.86659042900786</v>
+        <v>33.3602042631717</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>5.461940290297548</v>
+        <v>9.950490593947073</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>49.84219784790859</v>
+        <v>46.62072177009867</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>50.12212838893538</v>
+        <v>46.81112933757078</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>50.4822695100481</v>
+        <v>46.78830832355048</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>57.34156572372991</v>
+        <v>51.42724176658476</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>55.58694000950167</v>
+        <v>50.97549413711879</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>15.55958388305746</v>
+        <v>18.65015815295492</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>50.11463552593308</v>
+        <v>47.8575198480942</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>52.21590626731528</v>
+        <v>51.08050387798832</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>16.39559806036219</v>
+        <v>18.74887689573407</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>34.06524052156486</v>
+        <v>33.73480508406045</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.18020856783567</v>
+        <v>34.57270923550806</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>2.017991115681458</v>
+        <v>7.594075499730675</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>32.15594620979439</v>
+        <v>31.86439758939784</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>32.78967650520869</v>
+        <v>32.77219379051909</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>3.625059172319798</v>
+        <v>8.536861314955381</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>50.52605835802746</v>
+        <v>47.1013897397368</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>6.103884082292193</v>
+        <v>10.18921461570106</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.18947206081233</v>
+        <v>23.70415176747098</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.94960338847103</v>
+        <v>28.71140095609893</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>2.518876620994106</v>
+        <v>7.394508488642117</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.74688104360263</v>
+        <v>31.94723450844866</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>33.66415060349713</v>
+        <v>33.31605466133406</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>7.31085098879408</v>
+        <v>11.22750530621979</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>48.87249930482407</v>
+        <v>45.83496063419577</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>53.42896720644321</v>
+        <v>49.12350402807689</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>55.12600182412213</v>
+        <v>50.89410652964888</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>59.14714331968123</v>
+        <v>54.93854551075353</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>59.9518028914832</v>
+        <v>54.90705944836257</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>6.999763536427324</v>
+        <v>11.22048367205601</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>38.55724706900324</v>
+        <v>36.87822613445383</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>41.87727806539341</v>
+        <v>39.69843451807414</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>9.458739139369083</v>
+        <v>12.98900823446184</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.8754628358144</v>
+        <v>32.44121410758882</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>35.5344647048907</v>
+        <v>34.1920287618252</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>2.581870539329056</v>
+        <v>7.424738631586511</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.77651373933397</v>
+        <v>28.15546577641192</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>35.47006063839058</v>
+        <v>34.79587633817939</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>5.69726063821556</v>
+        <v>9.861049056115476</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>47.81509031763912</v>
+        <v>44.75829982075623</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>3.87979018866757</v>
+        <v>9.491983505696655</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>16.96793386563603</v>
+        <v>19.95608801894315</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.5742530035014</v>
+        <v>27.24180448030114</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>2.344086973845009</v>
+        <v>7.371316651425225</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.50968602870738</v>
+        <v>27.58133852441976</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>36.39259672280129</v>
+        <v>35.47192316331287</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>2.836872303281663</v>
+        <v>7.873032740951654</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>41.47579260057168</v>
+        <v>40.01113421778004</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>51.02245560592945</v>
+        <v>47.3797935254994</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>44.2533377026084</v>
+        <v>41.9600599898329</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>50.62651644734704</v>
+        <v>47.30449191573622</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>54.3004687362869</v>
+        <v>50.53047372254703</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>5.533600463953984</v>
+        <v>10.2705390420562</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>32.0476767061006</v>
+        <v>31.77641780235036</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>41.80083266715253</v>
+        <v>39.61161970572036</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>6.602077390184359</v>
+        <v>10.83704312718843</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.27845286886991</v>
+        <v>27.19774561327475</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.5824815073921</v>
+        <v>32.20606795203576</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>2.05656505921867</v>
+        <v>7.589300015355647</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.02352777840366</v>
+        <v>23.51812195036971</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>33.59162611033878</v>
+        <v>32.76131125889235</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>2.723731087097498</v>
+        <v>7.774573966619901</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.53135609540734</v>
+        <v>34.67178865866121</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.74908909959218</v>
+        <v>29.82262152795856</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.36638350158101</v>
+        <v>23.99312068474075</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>37.52130807021739</v>
+        <v>36.51890762954111</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>38.52787257978477</v>
+        <v>37.58968717016082</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>7.206246682941558</v>
+        <v>11.21876048482729</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>20.87676923602848</v>
+        <v>22.67423401237295</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.23684398595173</v>
+        <v>28.95145265013158</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>11.99520908845459</v>
+        <v>15.23077382481598</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.87132395848604</v>
+        <v>26.87058777656685</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.71402992298373</v>
+        <v>34.75007133567363</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>1.267318263617689</v>
+        <v>6.489064199859868</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>7.925530066192586</v>
+        <v>12.08042052546982</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>13.04416267786258</v>
+        <v>16.56908208786984</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>2.528107818055542</v>
+        <v>7.512571929806967</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>20.20435042853793</v>
+        <v>22.95958536326448</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.23853424798303</v>
+        <v>37.55402371411555</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>24.34343295466385</v>
+        <v>26.1965129235053</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>44.19714976423779</v>
+        <v>42.12653943798016</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>50.10225507523251</v>
+        <v>46.89823371007284</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>5.915146448357621</v>
+        <v>10.36513610522218</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>19.46394750660915</v>
+        <v>21.88669420444813</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.24607809988409</v>
+        <v>32.36312075665706</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>55.26496589617384</v>
+        <v>51.48515832593272</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>55.75524641588502</v>
+        <v>51.18916905997601</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>60.81706803050727</v>
+        <v>55.52723535160909</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>59.08747018795039</v>
+        <v>54.57297749165674</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>14.99706094363224</v>
+        <v>17.61986528522902</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>56.74504539592361</v>
+        <v>52.34780358662198</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>59.0749502157993</v>
+        <v>54.49043615922481</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>18.80486930946135</v>
+        <v>21.33850337872641</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.67547760548216</v>
+        <v>37.36336380253606</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>44.1335146880574</v>
+        <v>41.78849845462596</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>3.33128163567747</v>
+        <v>8.152260022151882</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>43.28254178669392</v>
+        <v>41.12570505088118</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>43.46221905470429</v>
+        <v>40.7644094363998</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>5.520728700580726</v>
+        <v>9.9935393126575</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>64.8098081582914</v>
+        <v>58.98844033960333</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>67.9872339735107</v>
+        <v>61.63941478598697</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>74.76442159658615</v>
+        <v>66.55557669151781</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>78.57909764345979</v>
+        <v>69.43431754676784</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>80.88779397605569</v>
+        <v>72.3873445078319</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>21.06555484200017</v>
+        <v>22.46294046598284</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>73.08646370395893</v>
+        <v>65.86155670875937</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>76.30353105932234</v>
+        <v>68.31578610735126</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>58.84210216525979</v>
+        <v>54.24499365086177</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>49.67743175962926</v>
+        <v>45.86383426301654</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>54.39907129474332</v>
+        <v>50.35813973822486</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>61.01913617992172</v>
+        <v>56.00884882766326</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>8.74368350361198</v>
+        <v>12.48589475574798</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>52.85428954377777</v>
+        <v>49.06985292170546</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>57.1662786587018</v>
+        <v>52.67298034933899</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>11.13964404746029</v>
+        <v>14.72263299121509</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>35.10549524714961</v>
+        <v>34.51176869331141</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.96280607760529</v>
+        <v>40.71053647941054</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>1.949748504517927</v>
+        <v>7.591733246305616</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>36.47729731466918</v>
+        <v>35.41153096863885</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.35426146532926</v>
+        <v>40.57364530198446</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>6.062956680190492</v>
+        <v>10.59063201205553</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>59.00347809422929</v>
+        <v>54.12617625363728</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>70.77387365608431</v>
+        <v>63.57799591014999</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>70.9183712665519</v>
+        <v>63.7749365762091</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>76.24438678955289</v>
+        <v>68.31880290680266</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>83.99399502785433</v>
+        <v>74.71981190043512</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>9.895386318027349</v>
+        <v>13.81269071642823</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>67.38503828347092</v>
+        <v>60.87242582277548</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>76.9176713704106</v>
+        <v>68.54121611640799</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>54.30136890155197</v>
+        <v>49.68085486961921</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.16330411036868</v>
+        <v>28.68092107968808</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.83797677229014</v>
+        <v>35.91532440180787</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>46.63642395689919</v>
+        <v>44.20373625829608</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>6.629677117178709</v>
+        <v>11.03690069120647</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>47.06996635760763</v>
+        <v>44.32953283198135</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>53.33267628264642</v>
+        <v>48.89639479114312</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>8.04527107976114</v>
+        <v>12.38021743762937</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.87503818957942</v>
+        <v>30.41787898575159</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>43.30549027616813</v>
+        <v>40.98767084010073</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.033386371336476</v>
+        <v>7.763185062030672</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.9621555194155</v>
+        <v>29.33040835713331</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>45.11215263134075</v>
+        <v>42.37913138276065</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>2.430736344979515</v>
+        <v>8.099685293513076</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>44.79484296076267</v>
+        <v>42.60996789649309</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>68.81420500308857</v>
+        <v>61.95036489024982</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>49.79741840582001</v>
+        <v>46.7270965597565</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>64.93700719695462</v>
+        <v>59.14894493084589</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>82.72424313965989</v>
+        <v>73.54039726744512</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>6.115259119936869</v>
+        <v>11.23611906227258</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>54.41620880665863</v>
+        <v>50.74714696534541</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>72.36802742635039</v>
+        <v>64.60711089534983</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>18.65529776466854</v>
+        <v>22.55667543485458</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>19.87857270153231</v>
+        <v>23.83471900342696</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.49001014954604</v>
+        <v>29.29868774773793</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>10.21779916251815</v>
+        <v>17.33843272931984</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>22.05719335400145</v>
+        <v>25.08322725941974</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>23.57616348897125</v>
+        <v>26.19801447614891</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>14.05462331359865</v>
+        <v>19.58207122082364</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>32.95645293324242</v>
+        <v>33.04688832882351</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>35.39647263518082</v>
+        <v>34.32236075139349</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>20.43530002133107</v>
+        <v>24.09529655042244</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>23.69337319359378</v>
+        <v>26.37049881712133</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>23.83847966307935</v>
+        <v>26.71612840447269</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>23.41533349675097</v>
+        <v>25.82715958695638</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>20.57075861215539</v>
+        <v>24.72074640697191</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>32.49695573915812</v>
+        <v>32.41110885125245</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>14.83944973058249</v>
+        <v>20.7361930189188</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.45787325589444</v>
+        <v>27.47989295835177</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.76644550427242</v>
+        <v>30.36253249548883</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>11.48643430862392</v>
+        <v>18.17603771596872</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>16.68200915008421</v>
+        <v>21.2542345458789</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>18.46033598481878</v>
+        <v>22.91746985064368</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>9.414025422615193</v>
+        <v>16.96907205919453</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>22.25785430143653</v>
+        <v>25.4777389421725</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>21.68536728683025</v>
+        <v>24.93795281688015</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.00053451553605</v>
+        <v>29.17279243496998</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.39793468010501</v>
+        <v>30.3641389206895</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>10.21977531549843</v>
+        <v>17.43314897391679</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.78900954873646</v>
+        <v>31.97081246954801</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>33.59261552200419</v>
+        <v>32.28648954227242</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>13.50044937801106</v>
+        <v>19.40102858659158</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>43.53097632334947</v>
+        <v>39.01160917514221</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.16997028211554</v>
+        <v>38.6878412626828</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>42.93855683857883</v>
+        <v>38.4201968656906</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>48.44057269669338</v>
+        <v>41.6885458799178</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>47.78033831789104</v>
+        <v>41.63624202873053</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>27.35904897568194</v>
+        <v>28.6912519909657</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>41.4223542295582</v>
+        <v>38.44428848430346</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>44.85329247757437</v>
+        <v>40.5461077631774</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>20.80391598226407</v>
+        <v>24.33573440605631</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.21454992804631</v>
+        <v>31.44520026286885</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.63208928637879</v>
+        <v>32.78225352997588</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>12.20332143543815</v>
+        <v>18.33311656948251</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.01700615786137</v>
+        <v>30.76981854795525</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>34.14816683685522</v>
+        <v>32.77026479016065</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.39084832931209</v>
+        <v>17.72393166846931</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>42.14011862943943</v>
+        <v>38.97318623888236</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>14.70070263796802</v>
+        <v>20.09839779757758</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>23.01524837151016</v>
+        <v>25.90953837229763</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.52210783058919</v>
+        <v>29.33255782878983</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>9.152100694497584</v>
+        <v>16.80349381478585</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.28412427438096</v>
+        <v>31.06152273222125</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.82755984370218</v>
+        <v>32.12089356911103</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>13.12598505467771</v>
+        <v>19.30370839877733</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>42.78936377506902</v>
+        <v>38.75502675974708</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>46.18441461054309</v>
+        <v>40.78472751265286</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>45.8837567885336</v>
+        <v>40.84468178175223</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>49.64372831646816</v>
+        <v>43.28746607375336</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>51.90335493983399</v>
+        <v>44.48705234300476</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>19.1219962672164</v>
+        <v>22.23720887975435</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>35.5898364271772</v>
+        <v>33.99641489009456</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>40.71600258463778</v>
+        <v>37.22302968643071</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>15.83157355740483</v>
+        <v>21.03896920356685</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.84357279857781</v>
+        <v>29.86149224441018</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.17531199631951</v>
+        <v>32.33823991095682</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>12.00800451328918</v>
+        <v>18.11223249266519</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>26.79439637850366</v>
+        <v>27.96129997742653</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.79122460101408</v>
+        <v>33.09462855945427</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>11.05419855007041</v>
+        <v>18.03005337646589</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38.80521473615876</v>
+        <v>36.2955117748752</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>11.63103846968135</v>
+        <v>18.66066961560981</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>17.66283396053655</v>
+        <v>22.92866720064179</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.62769569050893</v>
+        <v>27.62229679576959</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>9.182126456522809</v>
+        <v>16.86770108391527</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.7822147465724</v>
+        <v>29.9234780439434</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.02408810581326</v>
+        <v>32.82326586307943</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>9.758877344866463</v>
+        <v>17.28316503508886</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.6361572733849</v>
+        <v>35.89711744477401</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>44.07003368546668</v>
+        <v>39.30541664086105</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>38.39432379366011</v>
+        <v>36.39891614471606</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>42.15042643963402</v>
+        <v>38.57987180535906</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>45.45743800657138</v>
+        <v>41.08976615437208</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>15.24172481885603</v>
+        <v>20.26144351659322</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.26630778122928</v>
+        <v>29.67428200273824</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>40.78192620146805</v>
+        <v>37.42589889748562</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>12.63981513162615</v>
+        <v>19.17209216591343</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.48380574281462</v>
+        <v>27.57299933666205</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>31.44852472536399</v>
+        <v>31.32171428932409</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>12.05186143944661</v>
+        <v>18.36501404775156</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>25.12344832783575</v>
+        <v>26.95952731009379</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.07190533389321</v>
+        <v>32.744860193624</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>8.975467026825875</v>
+        <v>16.80275639767001</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.31223353483075</v>
+        <v>32.65787061071882</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>24.83028734803629</v>
+        <v>27.15547561691226</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.86250156461909</v>
+        <v>25.26063333422058</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>32.69058396098695</v>
+        <v>32.35588419892549</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.18142117223953</v>
+        <v>33.99063108608048</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>12.84080368972464</v>
+        <v>19.13701040676794</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>19.33731942829359</v>
+        <v>23.68442175092779</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.38164728606078</v>
+        <v>27.07355425649486</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>17.46009821342489</v>
+        <v>22.07529440337639</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.82508322604448</v>
+        <v>27.72609486940443</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.99527459994599</v>
+        <v>32.3358391611167</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>11.41218559807705</v>
+        <v>17.81248128140933</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>16.27585623052072</v>
+        <v>21.00060941675523</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>19.55977474742694</v>
+        <v>23.64094290333011</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>9.762909278078379</v>
+        <v>17.31510522825565</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>23.58379256969769</v>
+        <v>26.2092704727998</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.42225466953236</v>
+        <v>34.44263207264425</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.74809455510758</v>
+        <v>27.07849240965847</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>38.29774759589939</v>
+        <v>36.03575616605588</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>41.22022669254675</v>
+        <v>38.10202049948937</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>13.00517062042005</v>
+        <v>19.22779589220502</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>21.98828467172548</v>
+        <v>25.3777098315899</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.41827898245771</v>
+        <v>30.47471842849155</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>47.82565455590417</v>
+        <v>42.23178015635536</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>44.59013927972831</v>
+        <v>40.29801285913577</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>51.67808406305987</v>
+        <v>44.71076168888654</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>51.7306226225944</v>
+        <v>44.84925886384596</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>22.53090942066937</v>
+        <v>25.29585007182868</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>48.27203183035229</v>
+        <v>42.72568325054061</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>50.97754553341284</v>
+        <v>44.20831122497117</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.699958280801</v>
+        <v>27.3728659238374</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>35.46707948116227</v>
+        <v>34.0668087478038</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.63394239629226</v>
+        <v>37.2507958293056</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>13.36399163274797</v>
+        <v>18.99800730664149</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>38.95766884977624</v>
+        <v>35.84286161853711</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>41.28130099261105</v>
+        <v>37.2604710545801</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>13.80545945748965</v>
+        <v>19.71578320790924</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>54.86694457111212</v>
+        <v>46.77770561118768</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>58.40971129004261</v>
+        <v>48.89087655936638</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>62.05302433185354</v>
+        <v>50.96659444930471</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>66.1392786168206</v>
+        <v>53.72491350383049</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>68.53516939829413</v>
+        <v>55.66822000240371</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.88655370294034</v>
+        <v>31.24958205532385</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>62.52057064849724</v>
+        <v>51.70122672172968</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>64.94402509576636</v>
+        <v>53.07284965070135</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>50.32669014160672</v>
+        <v>43.79325285963839</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>38.99239869427267</v>
+        <v>36.23912121632028</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>44.00632342605893</v>
+        <v>39.79172385206752</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>51.49934811745715</v>
+        <v>44.79371158456987</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>17.06783384741252</v>
+        <v>21.7444423046733</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>44.86110510032434</v>
+        <v>40.29186557743572</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>49.49275483219864</v>
+        <v>43.22985822499805</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>19.4467938024854</v>
+        <v>23.22141232392557</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>32.85991773737256</v>
+        <v>32.39194017605875</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>39.74344031842914</v>
+        <v>36.63112996868138</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>12.37487905684925</v>
+        <v>18.46278432171568</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>36.62864459706793</v>
+        <v>34.15432766230035</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>41.32049071880009</v>
+        <v>37.22540918058078</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>13.22150807756696</v>
+        <v>19.47579771305876</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>52.07096534676153</v>
+        <v>44.79345158714936</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>60.80881336194899</v>
+        <v>50.24433369335308</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>59.94963986621396</v>
+        <v>49.61942191487002</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>63.82619561860641</v>
+        <v>52.42698491146742</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>70.97266596418885</v>
+        <v>57.03553368805511</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>21.86371034017767</v>
+        <v>24.42774616632608</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>58.74487754003655</v>
+        <v>48.88378319858432</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>65.83575291128335</v>
+        <v>53.31513299394733</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>46.99166668406032</v>
+        <v>41.44866535638478</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.29660319153709</v>
+        <v>27.74019537546888</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>30.99343138470534</v>
+        <v>31.42665815467562</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>39.72557694544017</v>
+        <v>37.01179032989059</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>13.35960774062141</v>
+        <v>19.75709907908789</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>39.86453637015335</v>
+        <v>37.08051768180351</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>46.68983908578496</v>
+        <v>41.24468719718907</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>15.81326312174492</v>
+        <v>21.23683882625866</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.32026051601904</v>
+        <v>31.31974779078879</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>40.42350246972318</v>
+        <v>37.17203695698792</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>12.64244016719121</v>
+        <v>18.65292913193299</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>33.9278731557295</v>
+        <v>32.44688334296054</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.71990991613676</v>
+        <v>38.24985267532772</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>9.569681339429994</v>
+        <v>17.13660550426171</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>46.28644350597467</v>
+        <v>40.82541079717161</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>59.6222998123106</v>
+        <v>49.46752542423295</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>48.69820668733928</v>
+        <v>42.71579522349066</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>56.94730155886663</v>
+        <v>47.93164105403277</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>69.19287714281757</v>
+        <v>55.75238960945235</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>15.05233787746446</v>
+        <v>20.57628405810318</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>50.55116517989375</v>
+        <v>43.84225255863146</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>63.71011205526297</v>
+        <v>52.13878680765453</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.485</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.657</v>
+        <v>17.167</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.616</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.592</v>
+        <v>12.945</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.997</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.543</v>
+        <v>3.965</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.828381550354</v>
+        <v>7.812939139651462</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.46966905709352</v>
+        <v>8.736269201793856</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.1605306802126</v>
+        <v>19.20823445986937</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.796434683781762</v>
+        <v>-1.155456326625185</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.19067509383277</v>
+        <v>11.3796215918769</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18.21691337016956</v>
+        <v>13.71838322465086</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.459816367297471</v>
+        <v>2.870073235402554</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.19408127296205</v>
+        <v>23.46937775737797</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.3050200715283</v>
+        <v>28.3024134643357</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16.96720908700157</v>
+        <v>11.24249097799503</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.34338669455516</v>
+        <v>14.88652355139566</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>22.24927909669457</v>
+        <v>17.50477301380398</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.80291101537813</v>
+        <v>13.24346150168392</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16.13340252715589</v>
+        <v>13.78256201008747</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.46586612834894</v>
+        <v>30.56453900303355</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12.05685314396725</v>
+        <v>6.821177272324626</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.78279689928389</v>
+        <v>22.37629061744472</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.80648626482761</v>
+        <v>28.04618811897862</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.52598762710306</v>
+        <v>-1.333468468276667</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11.79575831405391</v>
+        <v>9.764204855760092</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.85055918899955</v>
+        <v>14.66345203454752</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5.147491985734334</v>
+        <v>-0.8791003632221397</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.97092308761556</v>
+        <v>23.52979101363762</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12.15868512556381</v>
+        <v>10.36568485016364</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21.96649823283626</v>
+        <v>18.81044833032207</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>23.34123438140696</v>
+        <v>22.27509756886404</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.501768002707749</v>
+        <v>-0.2183975747922702</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.05245523406311</v>
+        <v>24.33299148505187</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.53327319079434</v>
+        <v>24.57084134557522</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.534547662244574</v>
+        <v>5.443548616999209</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36.27029704722248</v>
+        <v>33.70128206280449</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.62839709144307</v>
+        <v>35.37014419779444</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.72214208047336</v>
+        <v>33.09682641897432</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>40.74997172143185</v>
+        <v>37.06151778253053</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.69349065483421</v>
+        <v>40.41801654479539</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>16.57506866266227</v>
+        <v>18.55465187526882</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>38.1890091712479</v>
+        <v>40.31360133336166</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>40.94969380265873</v>
+        <v>45.94908778192629</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.61316597534338</v>
+        <v>14.41932283944578</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.05396387917764</v>
+        <v>33.67945804443149</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.44030595748983</v>
+        <v>36.10604532124455</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4.624207537758224</v>
+        <v>3.353417922551351</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.56122672343321</v>
+        <v>29.4820739574978</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.38290159538945</v>
+        <v>35.14813280022855</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.905337330751628</v>
+        <v>5.16036546101849</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>48.343653104079</v>
+        <v>51.46454176106592</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6.954017122749324</v>
+        <v>0.4570161297986424</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>15.95407500765569</v>
+        <v>11.02488152666637</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>23.94187564976036</v>
+        <v>19.8116063163646</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4.209395394426327</v>
+        <v>-2.086354686280892</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>24.12259030378817</v>
+        <v>21.20872265426543</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>26.05465056062683</v>
+        <v>23.84078429368212</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>8.744475211730546</v>
+        <v>5.523606173708203</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36.44183754989754</v>
+        <v>32.78243402655047</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>40.39293200400466</v>
+        <v>38.35305840967047</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>39.04694012112294</v>
+        <v>37.47555472256562</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>43.03451472591352</v>
+        <v>42.02292106639275</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>47.93411262784358</v>
+        <v>45.6260386323104</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>7.317170489481374</v>
+        <v>1.370294081603685</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27.37069533639015</v>
+        <v>27.911568567948</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>32.48044848627316</v>
+        <v>35.56405442610237</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>11.82364267034286</v>
+        <v>9.349396401286153</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.39508574264129</v>
+        <v>29.99670409267653</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.46865420001996</v>
+        <v>34.274876453567</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4.259842832117688</v>
+        <v>2.239243894614606</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.53966038412049</v>
+        <v>24.47910924509073</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>33.85297102181104</v>
+        <v>34.24034168351882</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>7.138511015452234</v>
+        <v>4.763091730049133</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.35649473515394</v>
+        <v>45.60456023634929</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6.370475823357157</v>
+        <v>-0.6286114989278175</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>13.78766208674442</v>
+        <v>7.113438918271989</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23.40371528569251</v>
+        <v>20.36240405330358</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3.974857293562202</v>
+        <v>-1.822582678366718</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>22.39363913704699</v>
+        <v>20.13428197537004</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.59483645256223</v>
+        <v>27.14291690020799</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4.399729134426689</v>
+        <v>-1.060303078829115</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>31.334437253389</v>
+        <v>27.91830549167494</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.40994597000348</v>
+        <v>37.91836637971702</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>32.41835886500887</v>
+        <v>29.89001198472758</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.91477597042196</v>
+        <v>33.42229152523525</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.84540582107387</v>
+        <v>42.02657066253707</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.369797375590238</v>
+        <v>-1.176375061090383</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>24.57888360214165</v>
+        <v>21.68381062040119</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>37.23387853069563</v>
+        <v>37.6231941391361</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>9.608012428970646</v>
+        <v>5.590855565062366</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.81503148108193</v>
+        <v>24.87194444270954</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>31.77315289415797</v>
+        <v>33.22749160878898</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4.521467099195988</v>
+        <v>2.218019275665352</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>23.62201465195305</v>
+        <v>21.06017955345683</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>32.08373575734801</v>
+        <v>33.76198985954564</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>4.709810909508946</v>
+        <v>2.92100555881785</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.08095488721638</v>
+        <v>36.67320446880127</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.09547055493126</v>
+        <v>28.97518725088888</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>23.75026729458337</v>
+        <v>24.42073153198465</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>38.99655033554185</v>
+        <v>36.74548682729903</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>39.07563509606784</v>
+        <v>38.67094159543737</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.38525699020577</v>
+        <v>6.868822987892724</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22.19846572000242</v>
+        <v>21.06537687143658</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.55327198508917</v>
+        <v>29.16629744928369</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>15.00611595274281</v>
+        <v>11.32456658922304</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.17800525017289</v>
+        <v>24.52079965150084</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>37.61193372694783</v>
+        <v>36.57254377507269</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3.469146517274439</v>
+        <v>-4.968366960765081</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>11.0796677003222</v>
+        <v>10.12823016609904</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>18.85915621878037</v>
+        <v>18.30150926790999</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>5.171369089617617</v>
+        <v>-1.561660319480797</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>26.30620282943476</v>
+        <v>27.27558545000451</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.08782442898304</v>
+        <v>45.20084403183982</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>27.76389050303926</v>
+        <v>29.48075192890663</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>45.54676351147926</v>
+        <v>47.40929546326262</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>50.28085078966877</v>
+        <v>51.22344816712367</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.750318531658941</v>
+        <v>5.4805387099371</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>24.29980867116289</v>
+        <v>24.54424599919935</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36.02808468301984</v>
+        <v>38.69465359789552</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.45896604632489</v>
+        <v>57.92682106249777</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>49.5486322323272</v>
+        <v>50.25328795930395</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>55.90899147247038</v>
+        <v>58.1494503510237</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>56.80269833673879</v>
+        <v>60.00396115807186</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>18.5763332914302</v>
+        <v>16.95797969539125</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>53.1527772555639</v>
+        <v>55.33697318855575</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>56.18128573741386</v>
+        <v>58.18089499663492</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>22.5555645468508</v>
+        <v>19.62679999196482</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.73637671271952</v>
+        <v>39.93061285324113</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>44.09174735065091</v>
+        <v>46.82841997381303</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>5.273556175550514</v>
+        <v>4.560516272676935</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.60013369068967</v>
+        <v>42.32362884799185</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>45.42538119755588</v>
+        <v>47.06889627598733</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>8.168128972460377</v>
+        <v>7.835313554396439</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>63.527190071047</v>
+        <v>67.79676703657735</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.03514326189136</v>
+        <v>73.81069227710435</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>69.70378247622081</v>
+        <v>75.38554901042221</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>74.44101361654023</v>
+        <v>81.21492323309658</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>77.75509351989956</v>
+        <v>86.09144718786386</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>27.27298906513936</v>
+        <v>26.2727355957509</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>71.16681980751873</v>
+        <v>75.864056403364</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>73.07890292013717</v>
+        <v>80.14884849145464</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>56.29927235312547</v>
+        <v>59.79185169418417</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>45.38120424536852</v>
+        <v>44.7543372011252</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>50.58393551143264</v>
+        <v>51.22581714996237</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>56.8165167323998</v>
+        <v>59.77007865096746</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>12.78826709315319</v>
+        <v>9.410463945752724</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>49.37049624278856</v>
+        <v>50.60855666828396</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>53.86006786370697</v>
+        <v>55.99184412348497</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>15.23172809867868</v>
+        <v>13.21371786863319</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.79262549418057</v>
+        <v>36.41975232995513</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>42.93957924386623</v>
+        <v>45.11172413572359</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>4.629647745842806</v>
+        <v>3.160410382743059</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.58856537179287</v>
+        <v>41.37587475676219</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>42.70612195062007</v>
+        <v>47.6943960063926</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>8.860222649909691</v>
+        <v>6.707484013772891</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>61.94723828798158</v>
+        <v>67.12089230465153</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>68.62279614865695</v>
+        <v>76.09796044005583</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>68.39259047816498</v>
+        <v>74.17877336725644</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>74.36033359083575</v>
+        <v>80.36717301297237</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>80.072540224241</v>
+        <v>89.51180608565483</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>14.48778033195319</v>
+        <v>14.95401922136988</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>69.40804653662946</v>
+        <v>73.38039334679624</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>73.75434997847753</v>
+        <v>79.14918523006186</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>50.63656120911574</v>
+        <v>54.61972426099058</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.3811039316601</v>
+        <v>29.80479556701949</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36.58958432162623</v>
+        <v>37.2792741899552</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>43.49865581629082</v>
+        <v>44.72075966881761</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>10.83360159286993</v>
+        <v>7.496765088384024</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>44.03973362527335</v>
+        <v>45.07397254194755</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>49.18905580603433</v>
+        <v>53.14441534968339</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>12.07259552479339</v>
+        <v>10.65272634954991</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.07921588262557</v>
+        <v>35.17792382102553</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>43.61277835883894</v>
+        <v>47.14406371568443</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>4.755795199909304</v>
+        <v>2.333945880808233</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.4534523518364</v>
+        <v>35.55977000589988</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>43.83199260925432</v>
+        <v>46.90605166811265</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>5.4786160708754</v>
+        <v>2.967041781954929</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>55.09803777191502</v>
+        <v>58.08940868061925</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>66.95576621190739</v>
+        <v>74.63138252098022</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>59.95916521671558</v>
+        <v>64.06234064418419</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>71.95084512474342</v>
+        <v>77.17893256673958</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>79.20702168029229</v>
+        <v>85.44414532228666</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>10.79040659367458</v>
+        <v>9.852725486329653</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>65.91718730639849</v>
+        <v>70.86490283270244</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>72.6939246137263</v>
+        <v>79.12203736877163</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.42446293296097</v>
+        <v>15.77854579631007</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>24.87076577297232</v>
+        <v>14.1778643523809</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.83185076197977</v>
+        <v>21.2218786157273</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>19.23546585314494</v>
+        <v>4.579633670632511</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.20637499714767</v>
+        <v>11.5150708797535</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>24.20434486238438</v>
+        <v>12.52465698491747</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>21.65963467005945</v>
+        <v>8.961953633937775</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.15245070616781</v>
+        <v>20.41178733850197</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.9394926790809</v>
+        <v>23.24411818438719</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>24.62277655857801</v>
+        <v>12.92545175118998</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>26.74145560381814</v>
+        <v>17.68983273468238</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>27.24732151426853</v>
+        <v>19.13758800680053</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.12890226622255</v>
+        <v>17.595032169735</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.09788698193507</v>
+        <v>14.7344348898314</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.75570069706276</v>
+        <v>21.17657613397988</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>21.12610734478886</v>
+        <v>9.54427469345427</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.54915871938131</v>
+        <v>20.25707155498248</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.5103087127431</v>
+        <v>26.83096507075532</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>18.26019738355313</v>
+        <v>1.401767588307877</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>20.4761241206093</v>
+        <v>8.198996645625829</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>21.86830691430942</v>
+        <v>11.75276206966717</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>18.90732967429545</v>
+        <v>3.712740032145085</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.87342611940323</v>
+        <v>17.6996110360972</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>24.23351407014697</v>
+        <v>17.54033823889424</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>27.26303239588059</v>
+        <v>21.85814415785585</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.38537577537381</v>
+        <v>23.98187239709019</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>19.39934108405711</v>
+        <v>5.552724612521587</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.33862701996519</v>
+        <v>21.48316262457794</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.16270088048412</v>
+        <v>21.70344216560755</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>21.32249305121402</v>
+        <v>10.93992433169446</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>34.62734048719169</v>
+        <v>29.84213420385654</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>34.53360864338897</v>
+        <v>30.71076575110274</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.63703843177142</v>
+        <v>32.00344191897317</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.97460033253182</v>
+        <v>38.92748414743053</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>37.83555506943059</v>
+        <v>40.19185164325494</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.88745427884415</v>
+        <v>22.52523044645276</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>35.91983873102192</v>
+        <v>36.62745981529791</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.28686166743143</v>
+        <v>34.98217991593641</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>23.73494650075084</v>
+        <v>15.5268352768944</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.47561384954636</v>
+        <v>29.46389223001314</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.37711608698429</v>
+        <v>34.54375734797261</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>18.44475636372332</v>
+        <v>6.547758051184751</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.86730390413939</v>
+        <v>25.05608248046127</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>31.55504694037037</v>
+        <v>34.06338671059834</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.66093784770637</v>
+        <v>10.17016091867839</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>36.90533967017014</v>
+        <v>42.02400803678793</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>21.87021145906176</v>
+        <v>9.08331934247952</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>24.95702280429728</v>
+        <v>16.26005993851983</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>27.64605925649926</v>
+        <v>21.76239340146218</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>18.86968102870773</v>
+        <v>4.533752014197393</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.02524198668173</v>
+        <v>20.19775779236891</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.59857383181036</v>
+        <v>22.21536133538428</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>20.79319493092977</v>
+        <v>10.66493589796977</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>33.91124319247004</v>
+        <v>30.52075215930621</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>35.71248940383596</v>
+        <v>34.30535021766524</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>35.04153947553379</v>
+        <v>33.46398034858876</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>37.46836071279188</v>
+        <v>40.50475554146161</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>38.74176405887297</v>
+        <v>42.47874794277212</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>23.09894785366361</v>
+        <v>13.801345765803</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.71367416914623</v>
+        <v>31.70096734962008</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>33.6219272726391</v>
+        <v>32.45970876167338</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>21.03158219405525</v>
+        <v>9.509790873881762</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.40759650682878</v>
+        <v>23.75793312793391</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.95462069971533</v>
+        <v>31.50719992097646</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>18.09598534065632</v>
+        <v>2.494384861682704</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.71418988979656</v>
+        <v>16.81207674073694</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.50230805706438</v>
+        <v>30.90521041248648</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>19.50426092398299</v>
+        <v>5.213434233608233</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>32.52427763439969</v>
+        <v>29.33226076884359</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>20.93063169172741</v>
+        <v>8.006608769629899</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>23.19450943187249</v>
+        <v>12.08343538250813</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.43785784088452</v>
+        <v>20.6748794541139</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>18.83293901757761</v>
+        <v>3.942222306391947</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>26.91060061577054</v>
+        <v>18.68388342645842</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.97999862658213</v>
+        <v>22.92604853140858</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>19.55546304216138</v>
+        <v>6.496008886310509</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>31.22847227234364</v>
+        <v>25.43593612626101</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34.4359939791379</v>
+        <v>32.40424139299387</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>31.26500860545726</v>
+        <v>25.02883199449927</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>33.42373630993724</v>
+        <v>30.30571520879293</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.04973126641374</v>
+        <v>33.03820609518701</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>21.83849356199657</v>
+        <v>10.98227499157626</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.92190181789133</v>
+        <v>23.86230319311287</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.30627124474139</v>
+        <v>29.76127794575701</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>20.02443293275313</v>
+        <v>8.173930907301425</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.67532555400948</v>
+        <v>21.29091504939209</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.68484013579235</v>
+        <v>31.69796160469628</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>18.39842412107396</v>
+        <v>4.385963465782048</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>24.65717422802675</v>
+        <v>16.21316017051224</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.67795351045474</v>
+        <v>30.36055430784678</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>18.94833604290018</v>
+        <v>6.537636475789064</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.63029348698211</v>
+        <v>26.18742818919787</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.0928890046671</v>
+        <v>23.30915362878236</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>25.69088162249392</v>
+        <v>19.85664271521781</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>31.81232477799669</v>
+        <v>29.59731371347494</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>33.46875622459879</v>
+        <v>35.56127484840344</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>20.49195785394497</v>
+        <v>6.65098760589229</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.1267684479097</v>
+        <v>16.79895601139797</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>27.11114420279669</v>
+        <v>23.6097039825474</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>23.51805390446795</v>
+        <v>14.23817426293534</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.70238760149588</v>
+        <v>22.97304348713379</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>31.85147896134602</v>
+        <v>30.46066412343076</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>17.9424996822245</v>
+        <v>-0.4918343018803029</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>20.51416555044899</v>
+        <v>8.099038023066587</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.80363174218562</v>
+        <v>12.81492180026129</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>19.34824259047904</v>
+        <v>4.414422645043658</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>26.74056047776758</v>
+        <v>21.88248196489937</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>32.41682061607157</v>
+        <v>29.75715043875647</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>27.62524375286728</v>
+        <v>22.34416038462501</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>33.91573122536332</v>
+        <v>34.55927649284175</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>35.13816387450726</v>
+        <v>37.5241083998222</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>21.19940013175276</v>
+        <v>10.51814967215731</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.92216848443353</v>
+        <v>19.8794468913097</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.23933138028219</v>
+        <v>26.76714163717626</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>40.44806090785754</v>
+        <v>51.32797313403911</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>37.44857569715588</v>
+        <v>42.07903007281664</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>41.99512549410013</v>
+        <v>51.18700311554247</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>42.54978480649233</v>
+        <v>57.71545080306052</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>24.45865723383267</v>
+        <v>17.41192515231175</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>40.81764032285757</v>
+        <v>50.51007483464545</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>42.20508420885622</v>
+        <v>54.35165961393138</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>27.28051380822036</v>
+        <v>23.34481490054132</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.52677220854702</v>
+        <v>36.78158850629575</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>36.48981131868006</v>
+        <v>42.74956969737321</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>19.13347598025213</v>
+        <v>9.270707203776247</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.14125695149558</v>
+        <v>33.37040785656034</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>35.79464583773918</v>
+        <v>40.05256820129257</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>22.31774576029619</v>
+        <v>16.746998988371</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>44.30768904581947</v>
+        <v>57.67160706737798</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>46.00836717166581</v>
+        <v>61.40369064076796</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>46.98777422224439</v>
+        <v>64.03190830156142</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>49.32243235441688</v>
+        <v>68.87021217204418</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>51.20921625424801</v>
+        <v>73.89497576483996</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.45881035548518</v>
+        <v>32.80006171793043</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>48.49125788159097</v>
+        <v>66.75062975010016</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>49.89152602112955</v>
+        <v>71.2596795485486</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>41.16242537810138</v>
+        <v>49.84696724901873</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>32.77932179795593</v>
+        <v>30.52648926241696</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>36.73772935027641</v>
+        <v>40.88655385658266</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>42.52864591438775</v>
+        <v>54.74777883043222</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>21.38793409512967</v>
+        <v>10.21743363727926</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>37.46887252428967</v>
+        <v>43.71051188154722</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>41.10492469157218</v>
+        <v>51.7302255691121</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>23.71016383239516</v>
+        <v>16.643316242274</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.69480034101263</v>
+        <v>32.14275781940805</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.69443711243341</v>
+        <v>40.64405694395135</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>18.48311938347877</v>
+        <v>6.549115664350499</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>32.09389544217914</v>
+        <v>31.49440905012652</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>35.45709756350308</v>
+        <v>40.11429380903053</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>20.98700762212724</v>
+        <v>12.89467119379321</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>41.35363296200519</v>
+        <v>52.56615070020663</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>46.56781371781143</v>
+        <v>62.31396882974492</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>44.66851357035894</v>
+        <v>57.57398780734619</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>48.11043584901618</v>
+        <v>64.8693058443298</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>52.16926977678692</v>
+        <v>75.1673101802063</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>24.85143139741374</v>
+        <v>22.05164299571176</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>45.99644687559809</v>
+        <v>61.61082419135492</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>49.9527392983648</v>
+        <v>69.66170631351764</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>39.21716342815652</v>
+        <v>47.77311154401259</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.87495218825478</v>
+        <v>20.13530767328712</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>30.45269417606559</v>
+        <v>28.38695855716885</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>36.08106989288768</v>
+        <v>41.55654935790372</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>20.48323033812274</v>
+        <v>8.573667688625484</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>33.9703657041533</v>
+        <v>36.49766970900153</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>38.73286092308174</v>
+        <v>46.58821184098628</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>22.15701995738146</v>
+        <v>14.81966529161939</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.92862545899927</v>
+        <v>31.10720928025176</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.94153251966989</v>
+        <v>41.98173332154735</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>18.50522171374598</v>
+        <v>6.097773015213242</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30.64166536951089</v>
+        <v>27.40245017074639</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.47149306623962</v>
+        <v>38.73296752669816</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>19.46777551044418</v>
+        <v>10.13075609669309</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>38.55295016635164</v>
+        <v>44.47688295405544</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>45.91558027793577</v>
+        <v>60.66012149141659</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>39.44688611535311</v>
+        <v>44.31202000053175</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>44.37673529011533</v>
+        <v>56.04467990944008</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>50.43382950902088</v>
+        <v>69.39172385934219</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>21.56408435472242</v>
+        <v>14.32896611838403</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>41.60250110168164</v>
+        <v>52.68343635866916</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>48.42731976011133</v>
+        <v>64.17393751575881</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.54846473372765</v>
+        <v>15.53442516693406</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.39045812542851</v>
+        <v>19.88510243847753</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.16074613682376</v>
+        <v>24.63800573198068</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>18.04352728690478</v>
+        <v>4.715528680111085</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>22.89124021558327</v>
+        <v>12.84441194268676</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>23.70571279643783</v>
+        <v>13.63117939571274</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>19.76893084923417</v>
+        <v>8.278035468149291</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.14284424608382</v>
+        <v>23.80561257899452</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>32.03051139380366</v>
+        <v>27.70795528914919</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>26.88782077381473</v>
+        <v>20.00281935071777</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.77975208374879</v>
+        <v>25.95466300090576</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>30.88039991394101</v>
+        <v>28.20961297218978</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>21.98389776702711</v>
+        <v>8.541342196560311</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.12086830432245</v>
+        <v>18.15495954210226</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.55671240591594</v>
+        <v>20.30657319225443</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>21.6046727915182</v>
+        <v>10.83644182349338</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.54866870242731</v>
+        <v>22.08173078070156</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.44732592138897</v>
+        <v>27.59865572029226</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>17.44393618416303</v>
+        <v>2.417190170264092</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>20.11833449789414</v>
+        <v>9.138293515695825</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>22.21133251008341</v>
+        <v>13.00042080761947</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>17.94102768110951</v>
+        <v>4.257380501979029</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.45047243442803</v>
+        <v>20.00653217140016</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>23.27353162731077</v>
+        <v>16.85627358909812</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.94013502635976</v>
+        <v>28.6568707460556</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.6021982658103</v>
+        <v>27.94255509515334</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>18.40801835942516</v>
+        <v>6.661278308637311</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.808334921684</v>
+        <v>24.87621555869471</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.18905657320843</v>
+        <v>24.75024227815286</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>19.7432139317918</v>
+        <v>10.68494526492644</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.45855120951167</v>
+        <v>35.4346672622226</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>37.01236885706788</v>
+        <v>36.17473566519143</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>37.94134523847458</v>
+        <v>38.98967685322987</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>39.99277134994006</v>
+        <v>45.09959227967748</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>40.28540440235553</v>
+        <v>44.45295730343045</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>23.69310987761373</v>
+        <v>12.77235499863986</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>39.03989902545475</v>
+        <v>42.47447216546099</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>39.71651110849092</v>
+        <v>40.46071617460936</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>22.52409963727115</v>
+        <v>14.48953932138626</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.9751027119037</v>
+        <v>30.90684739260245</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>32.62211509195744</v>
+        <v>34.58215315813391</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>17.55082187243671</v>
+        <v>7.125131642088583</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.39524468957561</v>
+        <v>26.22492427303242</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>31.13588451804957</v>
+        <v>34.14065548212598</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>18.31531254257379</v>
+        <v>9.699514786426526</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>37.8918414068998</v>
+        <v>44.25113890676793</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.131194698664</v>
+        <v>9.695214360111009</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>26.15070995196527</v>
+        <v>22.52388478939766</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.28518334737144</v>
+        <v>25.57440215988998</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>17.94699114888999</v>
+        <v>6.499232773040422</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.99755008911845</v>
+        <v>23.21088913074845</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.80909380945472</v>
+        <v>25.03170074684465</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>20.18806015571631</v>
+        <v>11.53418760896678</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>35.71055993002584</v>
+        <v>35.23124015189768</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>38.05517129303638</v>
+        <v>38.95455755168358</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>38.43254548050032</v>
+        <v>40.50661382843815</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>40.57762975906488</v>
+        <v>46.83210077634895</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>40.7602712365841</v>
+        <v>45.40832416985022</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>20.7058518447592</v>
+        <v>9.455840933355152</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.30850161380064</v>
+        <v>36.84601047470758</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>34.09018169130888</v>
+        <v>35.98316807419481</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>19.14865903829048</v>
+        <v>8.585560587151015</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.54012024297866</v>
+        <v>24.87691097422534</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>32.08008451217387</v>
+        <v>31.41727676299775</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>17.27372610788016</v>
+        <v>3.807190056216253</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.95487272598119</v>
+        <v>18.38200182414187</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>31.90919190553403</v>
+        <v>31.39755919654618</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>18.4141552468706</v>
+        <v>5.68729025508885</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.92406961501335</v>
+        <v>32.16165134303353</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>19.93713945940335</v>
+        <v>9.29151290473046</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>24.92979783665992</v>
+        <v>18.36179342945061</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>27.99864458866818</v>
+        <v>25.00633831576944</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>17.94251035779608</v>
+        <v>5.563340991127149</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>27.74832113030609</v>
+        <v>20.9631568787717</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>31.03771562248623</v>
+        <v>25.77152141708548</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>18.5199954396201</v>
+        <v>6.812753348915056</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.70504397065771</v>
+        <v>28.98644241292607</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>37.43429582097966</v>
+        <v>36.91022070233281</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>34.30182636185226</v>
+        <v>31.74025362603351</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.74482904301703</v>
+        <v>36.81058610939439</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>38.30443617816936</v>
+        <v>39.08668799098025</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>20.62185634932105</v>
+        <v>9.57627074648628</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>31.98250291219677</v>
+        <v>30.99907002867058</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.57797190996351</v>
+        <v>33.07737646083222</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>18.77513635094525</v>
+        <v>8.745466289759786</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.77735582589418</v>
+        <v>22.32280023711557</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>31.00039623852097</v>
+        <v>32.07783788781528</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>17.54076736739305</v>
+        <v>5.48991592141055</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>24.21687694840189</v>
+        <v>16.77614901980372</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.04231335873238</v>
+        <v>30.93728903149459</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>17.93493992557729</v>
+        <v>7.124146221757929</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.52559417370513</v>
+        <v>27.14695019948344</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.68027970176021</v>
+        <v>25.65427577475076</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.15137610618248</v>
+        <v>22.27549220738553</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>32.83502756236022</v>
+        <v>32.34252934508117</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>33.58123099073288</v>
+        <v>36.21787604915775</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.19695537044475</v>
+        <v>4.056721605767802</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>24.19478883284212</v>
+        <v>18.47032472985342</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>27.52664888374895</v>
+        <v>24.38095795679161</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>22.00433719901999</v>
+        <v>13.56357236073994</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.57320105137579</v>
+        <v>24.07064277069486</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>32.08752391885869</v>
+        <v>31.35550830996433</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>16.97218652731886</v>
+        <v>-0.1589031012216857</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>19.83881816668102</v>
+        <v>8.935962949510209</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>22.65007260712658</v>
+        <v>13.70531709595356</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>17.91615011101835</v>
+        <v>3.504347723404305</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>26.01147961124835</v>
+        <v>20.63370297730546</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.51867452783802</v>
+        <v>31.52945295403083</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>27.36019165593994</v>
+        <v>22.81219811591056</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.03259340997436</v>
+        <v>36.51531852800586</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>37.66857095997141</v>
+        <v>40.70466481582585</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>19.29173868976291</v>
+        <v>5.818126081187255</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.39839802288964</v>
+        <v>19.58664244654871</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>30.38137825793922</v>
+        <v>28.27995342897545</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>41.66613624291311</v>
+        <v>52.60642766312202</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>39.37474856408068</v>
+        <v>44.91892236311112</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>43.39224601438935</v>
+        <v>52.92850220879654</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>42.67359302285571</v>
+        <v>56.40022179164787</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>21.68989905197343</v>
+        <v>12.35682382443567</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>41.23903629847718</v>
+        <v>50.4573686742005</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>43.35684555927068</v>
+        <v>54.357253335498</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>25.43395782354151</v>
+        <v>20.27770534075168</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>34.24497883326878</v>
+        <v>37.67598539100565</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>36.3548146938424</v>
+        <v>42.22458414852285</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>18.05990740655074</v>
+        <v>8.79924290250214</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>34.42517633816856</v>
+        <v>34.88540378202724</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>35.46249644415132</v>
+        <v>40.22341951924935</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>20.23595337169092</v>
+        <v>13.99913081686644</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>45.33090651145359</v>
+        <v>56.14003833269901</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>46.55849408928461</v>
+        <v>60.74799034090159</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>49.60169789627842</v>
+        <v>64.42856683075453</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>50.91579215614355</v>
+        <v>68.5995741420941</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>52.92102178256535</v>
+        <v>73.67238185458135</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.85252066538028</v>
+        <v>22.55531537776136</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>49.37478066859276</v>
+        <v>63.71320088110112</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>50.77516365859869</v>
+        <v>69.26133235858022</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>42.1252406730901</v>
+        <v>51.15821974173279</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>35.07755306060177</v>
+        <v>35.28269323498255</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>38.55899818043245</v>
+        <v>43.79344780122375</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>43.69667482514214</v>
+        <v>54.53184369871521</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.70712558634303</v>
+        <v>6.667276163089745</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>38.40014976993825</v>
+        <v>44.29140532936117</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>41.87387954482102</v>
+        <v>51.83689809726424</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>21.45791708546228</v>
+        <v>13.23655534703005</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.1307576975622</v>
+        <v>32.16163625371057</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>35.3865221453065</v>
+        <v>39.37918041016189</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>17.54557054839065</v>
+        <v>5.828340581671885</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.41454762337289</v>
+        <v>31.59827518307416</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>35.50969027023724</v>
+        <v>39.59606607862531</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>19.52766554707913</v>
+        <v>10.32813738650568</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>41.3098126971023</v>
+        <v>50.62238231651746</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>47.08623502898389</v>
+        <v>60.90163971257009</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>46.23665310846989</v>
+        <v>58.25650920681302</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>49.67537416566013</v>
+        <v>64.72428156527114</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>53.87975291892714</v>
+        <v>74.46651744159661</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>21.43994482020022</v>
+        <v>13.43044115796305</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>46.29415600137729</v>
+        <v>58.68063424300738</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>50.35863649420956</v>
+        <v>67.12055943940163</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>40.36810234434211</v>
+        <v>48.75615726403338</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.24342350187717</v>
+        <v>23.1847283000937</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.35850524793607</v>
+        <v>31.21626006614936</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>36.9178346132436</v>
+        <v>42.57643008842409</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>18.62110901656539</v>
+        <v>7.326149322338566</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.54628285558218</v>
+        <v>38.07001248704557</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>40.10342098291496</v>
+        <v>47.59167344692926</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>20.30391882936451</v>
+        <v>12.09199938506652</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.34608962177323</v>
+        <v>29.46043030284044</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.86543631476356</v>
+        <v>40.46599671249054</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>17.64359695657505</v>
+        <v>4.742474424275738</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.91392607138424</v>
+        <v>25.05011960189438</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>36.06473250177954</v>
+        <v>37.624102326001</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>18.4842136699812</v>
+        <v>7.138473900553645</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>36.41359662692064</v>
+        <v>39.26374048633436</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>46.81081976012726</v>
+        <v>58.37598071701449</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>38.13166982247355</v>
+        <v>42.2723764171503</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>45.13295466151058</v>
+        <v>56.02158401578291</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>52.60825356567551</v>
+        <v>68.62059646748031</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>19.65842153746636</v>
+        <v>9.222677637542496</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>41.10252019128495</v>
+        <v>49.87814668893549</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>48.95225379092004</v>
+        <v>62.81888619208822</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>14.35444585922928</v>
+        <v>10.76272771720401</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>20.08603521846276</v>
+        <v>15.73313738691485</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.66063072473157</v>
+        <v>26.10289475384684</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>7.188212953228525</v>
+        <v>-0.9931219202399753</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.65365491062915</v>
+        <v>13.92425616216403</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.74613325173362</v>
+        <v>16.30977010502727</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>9.095106574785898</v>
+        <v>1.850993460241021</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.58388893928634</v>
+        <v>31.18934826700094</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>34.66851094191309</v>
+        <v>36.44834497777622</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>22.534384393046</v>
+        <v>19.60953858200428</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>27.45219091947473</v>
+        <v>25.17697674901661</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.43384582850586</v>
+        <v>25.34335814274949</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>14.37414436230436</v>
+        <v>7.18804689829032</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.69633006052389</v>
+        <v>18.68776579662959</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.83627430099497</v>
+        <v>29.85463935262767</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>15.04922372468839</v>
+        <v>9.595001093592522</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>26.31423424574022</v>
+        <v>23.07083225307394</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.87045951040069</v>
+        <v>29.18964889572077</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>7.572699414996272</v>
+        <v>0.1656376595568254</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>13.42141755947071</v>
+        <v>10.87689512450077</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>18.03229079832428</v>
+        <v>13.42103486463546</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>8.101239383074912</v>
+        <v>0.5382351533258571</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.2684415677414</v>
+        <v>23.45727248520452</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>18.47805789092744</v>
+        <v>17.54103294182492</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>31.57808757823479</v>
+        <v>32.97086340131044</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.34936054784865</v>
+        <v>33.98453971870092</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>7.954999428703097</v>
+        <v>4.29134309375511</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>33.89289027094767</v>
+        <v>34.47942304291172</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.3602042631717</v>
+        <v>34.48866784117312</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>9.950490593947073</v>
+        <v>7.462618996698954</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>46.62072177009867</v>
+        <v>49.9106969700176</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>46.81112933757078</v>
+        <v>49.44154749857333</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>46.78830832355048</v>
+        <v>50.50363428208473</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>51.42724176658476</v>
+        <v>56.32318771435705</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>50.97549413711879</v>
+        <v>55.70015514570009</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>18.65015815295492</v>
+        <v>18.64149533737631</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>47.8575198480942</v>
+        <v>52.84871129790267</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>51.08050387798832</v>
+        <v>56.40791653786187</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>18.74887689573407</v>
+        <v>15.90956144569122</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>33.73480508406045</v>
+        <v>35.10520590992275</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>34.57270923550806</v>
+        <v>36.04445710326158</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>7.594075499730675</v>
+        <v>4.527236409623768</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.86439758939784</v>
+        <v>31.8021647788234</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>32.77219379051909</v>
+        <v>35.45404011731898</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>8.536861314955381</v>
+        <v>5.712286658484253</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>47.1013897397368</v>
+        <v>53.38972122461846</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>10.18921461570106</v>
+        <v>5.926414357506463</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.70415176747098</v>
+        <v>24.32207933695121</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.71140095609893</v>
+        <v>29.92715003365976</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>7.394508488642117</v>
+        <v>2.358095396697784</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.94723450844866</v>
+        <v>31.34314099370207</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>33.31605466133406</v>
+        <v>33.8365455357417</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>11.22750530621979</v>
+        <v>7.052129853119606</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>45.83496063419577</v>
+        <v>48.79468897509548</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>49.12350402807689</v>
+        <v>52.17999192033703</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>50.89410652964888</v>
+        <v>55.27704472525519</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>54.93854551075353</v>
+        <v>60.67278957572967</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>54.90705944836257</v>
+        <v>60.2700423998939</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>11.22048367205601</v>
+        <v>2.83080153704606</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>36.87822613445383</v>
+        <v>40.52066197293121</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>39.69843451807414</v>
+        <v>45.14673700359424</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>12.98900823446184</v>
+        <v>10.48862577036317</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.44121410758882</v>
+        <v>31.55276789011624</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>34.1920287618252</v>
+        <v>34.3076162156293</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>7.424738631586511</v>
+        <v>2.938375758089776</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.15546577641192</v>
+        <v>25.75281815982833</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.79587633817939</v>
+        <v>34.46254869421288</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>9.861049056115476</v>
+        <v>4.717104141978968</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>44.75829982075623</v>
+        <v>46.15727850325587</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>9.491983505696655</v>
+        <v>4.069083861814416</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>19.95608801894315</v>
+        <v>17.41344270014237</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.24180448030114</v>
+        <v>28.47461247090004</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>7.371316651425225</v>
+        <v>2.323284150115771</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>27.58133852441976</v>
+        <v>28.16053927881615</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>35.47192316331287</v>
+        <v>35.4203575320911</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>7.873032740951654</v>
+        <v>1.839424012676297</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>40.01113421778004</v>
+        <v>40.46452017491809</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>47.3797935254994</v>
+        <v>50.05351947794465</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>41.9600599898329</v>
+        <v>44.46120656763007</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>47.30449191573622</v>
+        <v>50.2234727628409</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>50.53047372254703</v>
+        <v>54.79497204144224</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>10.2705390420562</v>
+        <v>1.967465801943035</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.77641780235036</v>
+        <v>30.17248883681652</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>39.61161970572036</v>
+        <v>41.99897535438269</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>10.83704312718843</v>
+        <v>7.34071165739374</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.19774561327475</v>
+        <v>25.98950308429071</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.20606795203576</v>
+        <v>34.04161655185742</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>7.589300015355647</v>
+        <v>3.799944716033721</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>23.51812195036971</v>
+        <v>22.41376100682221</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>32.76131125889235</v>
+        <v>35.02593800516395</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>7.774573966619901</v>
+        <v>3.921495465964625</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.67178865866121</v>
+        <v>37.28150261741531</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.82262152795856</v>
+        <v>28.26203399611095</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.99312068474075</v>
+        <v>24.97591415288398</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>36.51890762954111</v>
+        <v>37.55990779265731</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>37.58968717016082</v>
+        <v>38.73150287552282</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>11.21876048482729</v>
+        <v>4.431981262704877</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>22.67423401237295</v>
+        <v>20.10317869274149</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.95145265013158</v>
+        <v>27.51956713650295</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>15.23077382481598</v>
+        <v>10.86822595412444</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>26.87058777656685</v>
+        <v>23.51956593858911</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.75007133567363</v>
+        <v>33.97925082434158</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>6.489064199859868</v>
+        <v>-3.521859571031076</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>12.08042052546982</v>
+        <v>9.521852568799776</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.56908208786984</v>
+        <v>14.97045230649489</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>7.512571929806967</v>
+        <v>-1.51846986651729</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.95958536326448</v>
+        <v>22.10400855581705</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>37.55402371411555</v>
+        <v>39.11835749823993</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>26.1965129235053</v>
+        <v>25.23236454199778</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.12653943798016</v>
+        <v>44.06628007803867</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>46.89823371007284</v>
+        <v>49.62149241158093</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>10.36513610522218</v>
+        <v>1.900528165210826</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>21.88669420444813</v>
+        <v>19.63625380004823</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.36312075665706</v>
+        <v>34.32424474543566</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>51.48515832593272</v>
+        <v>57.96096296034275</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>51.18916905997601</v>
+        <v>54.66776663079092</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>55.52723535160909</v>
+        <v>61.91691673362843</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>54.57297749165674</v>
+        <v>62.2606198488007</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>17.61986528522902</v>
+        <v>15.24621780252455</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>52.34780358662198</v>
+        <v>58.29622166155813</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>54.49043615922481</v>
+        <v>60.23780187489455</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>21.33850337872641</v>
+        <v>19.64608065547258</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>37.36336380253606</v>
+        <v>40.31933936537278</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>41.78849845462596</v>
+        <v>45.55526384850612</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>8.152260022151882</v>
+        <v>5.736456566730219</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>41.12570505088118</v>
+        <v>41.64363901979929</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.7644094363998</v>
+        <v>45.04444045620771</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>9.9935393126575</v>
+        <v>7.737704621717072</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>58.98844033960333</v>
+        <v>64.41769355074763</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>61.63941478598697</v>
+        <v>71.27544550009375</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>66.55557669151781</v>
+        <v>74.5563996827797</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>69.43431754676784</v>
+        <v>80.11473065907401</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>72.3873445078319</v>
+        <v>85.53296192054523</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>22.46294046598284</v>
+        <v>20.63301580875146</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>65.86155670875937</v>
+        <v>72.70542119724331</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>68.31578610735126</v>
+        <v>78.93325615986608</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>54.24499365086177</v>
+        <v>60.30382897217179</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>45.86383426301654</v>
+        <v>47.13929154936852</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>50.35813973822486</v>
+        <v>53.42396011743735</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>56.00884882766326</v>
+        <v>62.06460711343161</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>12.48589475574798</v>
+        <v>8.37179954563879</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>49.06985292170546</v>
+        <v>52.55649561942329</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>52.67298034933899</v>
+        <v>57.79009983811062</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>14.72263299121509</v>
+        <v>11.77285135705877</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.51176869331141</v>
+        <v>34.93208432423658</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>40.71053647941054</v>
+        <v>42.96919554604016</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>7.591733246305616</v>
+        <v>3.20828738706415</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.41153096863885</v>
+        <v>38.82484482723294</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>40.57364530198446</v>
+        <v>45.15728696929147</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>10.59063201205553</v>
+        <v>4.960937124322111</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>54.12617625363728</v>
+        <v>60.48045639241293</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>63.57799591014999</v>
+        <v>72.89855967716238</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>63.7749365762091</v>
+        <v>70.65773264326791</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>68.31880290680266</v>
+        <v>76.76100867634089</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>74.71981190043512</v>
+        <v>87.67691511368042</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>13.81269071642823</v>
+        <v>9.530611216115023</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>60.87242582277548</v>
+        <v>66.02778508697654</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>68.54121611640799</v>
+        <v>76.01429791945324</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>49.68085486961921</v>
+        <v>55.82390680622224</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.68092107968808</v>
+        <v>29.71149889495254</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>35.91532440180787</v>
+        <v>37.27424539444294</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>44.20373625829608</v>
+        <v>46.58408745944955</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>11.03690069120647</v>
+        <v>7.185885664232238</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>44.32953283198135</v>
+        <v>45.42851347107572</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>48.89639479114312</v>
+        <v>54.02006761054451</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>12.38021743762937</v>
+        <v>8.56241833026618</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.41787898575159</v>
+        <v>31.00246213178599</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>40.98767084010073</v>
+        <v>44.07612170503006</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>7.763185062030672</v>
+        <v>1.327074916098578</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.33040835713331</v>
+        <v>30.08222059898419</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>42.37913138276065</v>
+        <v>43.60674017967683</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>8.099685293513076</v>
+        <v>0.3087991864671906</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.60996789649309</v>
+        <v>46.04538034530592</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>61.95036489024982</v>
+        <v>69.05234249772644</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>46.7270965597565</v>
+        <v>52.24614447783969</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>59.14894493084589</v>
+        <v>67.46333801348952</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>73.54039726744512</v>
+        <v>82.48077243885623</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>11.23611906227258</v>
+        <v>4.331649355307935</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>50.74714696534541</v>
+        <v>56.91640485403103</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>64.60711089534983</v>
+        <v>73.47375335809059</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.55667543485458</v>
+        <v>16.67543751837543</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.83471900342696</v>
+        <v>16.934154675386</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.29868774773793</v>
+        <v>27.02087566047403</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>17.33843272931984</v>
+        <v>6.468269740173959</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.08322725941974</v>
+        <v>20.64380050497285</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>26.19801447614891</v>
+        <v>22.85805066831997</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.58207122082364</v>
+        <v>10.55927840750257</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>33.04688832882351</v>
+        <v>34.8330424895242</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>34.32236075139349</v>
+        <v>37.55253049049382</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>24.09529655042244</v>
+        <v>18.07455211253275</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>26.37049881712133</v>
+        <v>22.2026427249554</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.71612840447269</v>
+        <v>22.25282106206108</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.82715958695638</v>
+        <v>22.20132004259768</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>24.72074640697191</v>
+        <v>19.6773631878945</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>32.41110885125245</v>
+        <v>33.59609727014998</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.7361930189188</v>
+        <v>12.76041815730835</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.47989295835177</v>
+        <v>22.13817793862418</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.36253249548883</v>
+        <v>29.33476038094537</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>18.17603771596872</v>
+        <v>8.077436077715269</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>21.2542345458789</v>
+        <v>15.42705052130272</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>22.91746985064368</v>
+        <v>17.68324184709907</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.96907205919453</v>
+        <v>5.021127099652777</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.4777389421725</v>
+        <v>20.76654739567935</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>24.93795281688015</v>
+        <v>21.43063684484354</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.17279243496998</v>
+        <v>28.70395082880817</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.3641389206895</v>
+        <v>31.40851779320829</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>17.43314897391679</v>
+        <v>8.584882912674075</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.97081246954801</v>
+        <v>34.36150618761678</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>32.28648954227242</v>
+        <v>34.19662658916931</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>19.40102858659158</v>
+        <v>12.63646404956978</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>39.01160917514221</v>
+        <v>44.11662765707486</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>38.6878412626828</v>
+        <v>44.4392597830428</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>38.4201968656906</v>
+        <v>45.07820405175062</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>41.6885458799178</v>
+        <v>50.5772450560938</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>41.63624202873053</v>
+        <v>50.84731970985786</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.6912519909657</v>
+        <v>32.75486789004862</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>38.44428848430346</v>
+        <v>47.42132882024548</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>40.5461077631774</v>
+        <v>50.38939713526065</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>24.33573440605631</v>
+        <v>18.88590441647789</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.44520026286885</v>
+        <v>31.32539763397563</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>32.78225352997588</v>
+        <v>34.32406721179972</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>18.33311656948251</v>
+        <v>11.43237873685154</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>30.76981854795525</v>
+        <v>31.12966453274915</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>32.77026479016065</v>
+        <v>36.22254777010758</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>17.72393166846931</v>
+        <v>9.627299955468814</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>38.97318623888236</v>
+        <v>44.92882648514441</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>20.09839779757758</v>
+        <v>10.67079391275594</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.90953837229763</v>
+        <v>22.4692451350193</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.33255782878983</v>
+        <v>28.64819495789888</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>16.80349381478585</v>
+        <v>6.354245073669482</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.06152273222125</v>
+        <v>32.65714865877394</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.12089356911103</v>
+        <v>34.22432858345508</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>19.30370839877733</v>
+        <v>11.61688969759735</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>38.75502675974708</v>
+        <v>45.53743019035056</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>40.78472751265286</v>
+        <v>48.59995950359544</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>40.84468178175223</v>
+        <v>48.8888832295776</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>43.28746607375336</v>
+        <v>53.73464080728611</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>44.48705234300476</v>
+        <v>55.17621070618359</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>22.23720887975435</v>
+        <v>14.54198118844008</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>33.99641489009456</v>
+        <v>37.8957602202596</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>37.22302968643071</v>
+        <v>43.71724442563254</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>21.03896920356685</v>
+        <v>14.38637968295999</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.86149224441018</v>
+        <v>29.22989095583452</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>32.33823991095682</v>
+        <v>33.24786099896912</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>18.11223249266519</v>
+        <v>9.194109992574599</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.96129997742653</v>
+        <v>25.60308201433674</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>33.09462855945427</v>
+        <v>34.88960153403022</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>18.03005337646589</v>
+        <v>7.833671028623343</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.2955117748752</v>
+        <v>38.19005270454815</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>18.66066961560981</v>
+        <v>8.472911049155258</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>22.92866720064179</v>
+        <v>16.63627905882039</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.62229679576959</v>
+        <v>27.11959419034891</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>16.86770108391527</v>
+        <v>6.524047057323941</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.9234780439434</v>
+        <v>30.87834572192927</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.82326586307943</v>
+        <v>35.61757528481012</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>17.28316503508886</v>
+        <v>7.071506707588078</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.89711744477401</v>
+        <v>40.65779390984766</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>39.30541664086105</v>
+        <v>46.99297525323412</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>36.39891614471606</v>
+        <v>41.17493878125861</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.57987180535906</v>
+        <v>44.99328108657794</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>41.08976615437208</v>
+        <v>49.37254027183268</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>20.26144351659322</v>
+        <v>11.67447406498902</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.67428200273824</v>
+        <v>28.37017684211862</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>37.42589889748562</v>
+        <v>42.36056147308356</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>19.17209216591343</v>
+        <v>10.72975562434471</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>27.57299933666205</v>
+        <v>25.23434356017244</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>31.32171428932409</v>
+        <v>33.28530664156564</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>18.36501404775156</v>
+        <v>10.47941851577447</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.95952731009379</v>
+        <v>24.91688241473197</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>32.744860193624</v>
+        <v>36.28407389251219</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>16.80275639767001</v>
+        <v>6.954408832479423</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>32.65787061071882</v>
+        <v>33.8467375831454</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.15547561691226</v>
+        <v>24.61537396056971</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.26063333422058</v>
+        <v>21.98322913406624</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>32.35588419892549</v>
+        <v>32.60794248161464</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>33.99063108608048</v>
+        <v>35.08144405899391</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>19.13701040676794</v>
+        <v>9.608762700363343</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>23.68442175092779</v>
+        <v>18.04587397958637</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.07355425649486</v>
+        <v>25.33566920132556</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>22.07529440337639</v>
+        <v>15.12854821503898</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.72609486940443</v>
+        <v>24.01435428868901</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.3358391611167</v>
+        <v>32.69623781772187</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>17.81248128140933</v>
+        <v>6.326588362234755</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>21.00060941675523</v>
+        <v>16.02245644253301</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>23.64094290333011</v>
+        <v>20.13856656687742</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>17.31510522825565</v>
+        <v>5.788385860900931</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.2092704727998</v>
+        <v>24.99683782117011</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>34.44263207264425</v>
+        <v>36.56623273540154</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>27.07849240965847</v>
+        <v>25.1519810310251</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>36.03575616605588</v>
+        <v>39.1500816813777</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>38.10202049948937</v>
+        <v>43.41675597652642</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>19.22779589220502</v>
+        <v>10.41991677171386</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.3777098315899</v>
+        <v>21.9088024057683</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.47471842849155</v>
+        <v>31.36691362093058</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>42.23178015635536</v>
+        <v>50.85088948219965</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>40.29801285913577</v>
+        <v>46.61805504966925</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>44.71076168888654</v>
+        <v>54.13665050697112</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>44.84925886384596</v>
+        <v>56.58881983618444</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.29585007182868</v>
+        <v>21.52370284727659</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>42.72568325054061</v>
+        <v>52.41301611818319</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>44.20831122497117</v>
+        <v>54.75055684820876</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.3728659238374</v>
+        <v>24.73838025599685</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>34.0668087478038</v>
+        <v>37.75204835056174</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>37.2507958293056</v>
+        <v>43.00626482681071</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>18.99800730664149</v>
+        <v>13.76400913978578</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.84286161853711</v>
+        <v>39.55591517801591</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>37.2604710545801</v>
+        <v>43.52063427111874</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>19.71578320790924</v>
+        <v>13.92609387886589</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>46.77770561118768</v>
+        <v>59.11241921521886</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>48.89087655936638</v>
+        <v>64.09170831975985</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>50.96659444930471</v>
+        <v>68.11487249764104</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>53.72491350383049</v>
+        <v>72.09286405969623</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>55.66822000240371</v>
+        <v>76.61377618666161</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.24958205532385</v>
+        <v>32.3710496154966</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>51.70122672172968</v>
+        <v>68.49647943025911</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>53.07284965070135</v>
+        <v>72.32826581290128</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>43.79325285963839</v>
+        <v>53.23919640347219</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>36.23912121632028</v>
+        <v>38.17612061062309</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>39.79172385206752</v>
+        <v>45.30303920875848</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>44.79371158456987</v>
+        <v>55.53792364327488</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>21.7444423046733</v>
+        <v>14.88149103748812</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>40.29186557743572</v>
+        <v>46.97733537101927</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>43.22985822499805</v>
+        <v>52.8848959389327</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>23.22141232392557</v>
+        <v>18.1110431819438</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>32.39194017605875</v>
+        <v>34.143161572278</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>36.63112996868138</v>
+        <v>41.3927522108003</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>18.46278432171568</v>
+        <v>11.63578695540896</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>34.15432766230035</v>
+        <v>39.07387949958</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>37.22540918058078</v>
+        <v>44.08398745990088</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>19.47579771305876</v>
+        <v>11.22339186155761</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>44.79345158714936</v>
+        <v>56.61085334973926</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>50.24433369335308</v>
+        <v>66.23223469012549</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>49.61942191487002</v>
+        <v>63.53080748264587</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>52.42698491146742</v>
+        <v>68.63206474384219</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>57.03553368805511</v>
+        <v>78.44853681743587</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>24.42774616632608</v>
+        <v>21.65862874430893</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>48.88378319858432</v>
+        <v>62.1833482085396</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>53.31513299394733</v>
+        <v>70.00531723757537</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>41.44866535638478</v>
+        <v>50.05005118005503</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>27.74019537546888</v>
+        <v>25.49154369272888</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>31.42665815467562</v>
+        <v>31.4614353039367</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>37.01179032989059</v>
+        <v>41.99713133472107</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>19.75709907908789</v>
+        <v>11.69492311831512</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>37.08051768180351</v>
+        <v>40.22190455121033</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>41.24468719718907</v>
+        <v>48.97497194230401</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>21.23683882625866</v>
+        <v>14.89103410180569</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.31974779078879</v>
+        <v>32.740126360735</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>37.17203695698792</v>
+        <v>42.97316082986102</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>18.65292913193299</v>
+        <v>11.42539080207515</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>32.44688334296054</v>
+        <v>35.32621988172436</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>38.24985267532772</v>
+        <v>44.56432614227356</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>17.13660550426171</v>
+        <v>8.082744334583406</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>40.82541079717161</v>
+        <v>48.37568742416973</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>49.46752542423295</v>
+        <v>64.41936573267991</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>42.71579522349066</v>
+        <v>52.12851490495919</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>47.93164105403277</v>
+        <v>60.5227676000392</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>55.75238960945235</v>
+        <v>75.07762977789892</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>20.57628405810318</v>
+        <v>14.28592520604628</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>43.84225255863146</v>
+        <v>54.44420094794102</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>52.13878680765453</v>
+        <v>67.81714275164327</v>
       </c>
     </row>
   </sheetData>
